--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Dropbox (University of Michigan)/projects/dissertation/aim_one/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{112E2972-6DEA-CA4A-A76A-ECE84F968761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DED2F4B-ADAD-2E45-9DC7-D7784FE15AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="aou_unweighted" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="134">
   <si>
     <t>Unweighted</t>
   </si>
@@ -50,12 +73,6 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Non-Hispanic White</t>
-  </si>
-  <si>
-    <t>53.9 (17.2)</t>
-  </si>
-  <si>
     <t>0-9</t>
   </si>
   <si>
@@ -83,49 +100,9 @@
     <t>80+</t>
   </si>
   <si>
-    <t>0.0 (52)</t>
-  </si>
-  <si>
-    <t>0.8 (1,702)</t>
-  </si>
-  <si>
-    <t>10.2 (22,736)</t>
-  </si>
-  <si>
-    <t>14.3 (31,929)</t>
-  </si>
-  <si>
-    <t>13.9 (31,081)</t>
-  </si>
-  <si>
-    <t>19.4 (43,270)</t>
-  </si>
-  <si>
-    <t>21.4 (47,645)</t>
-  </si>
-  <si>
-    <t>15.2 (33,891)</t>
-  </si>
-  <si>
-    <t>4.8 (10,668)</t>
-  </si>
-  <si>
-    <t>60.9 (135,888)</t>
-  </si>
-  <si>
-    <t>53.3 (118,931)</t>
-  </si>
-  <si>
-    <t>22.6 (50,306)</t>
-  </si>
-  <si>
     <t xml:space="preserve">* All of Us data restricted to those who are present in the phenome. There are an additional 149,108 individuals who are not present in the phenome </t>
   </si>
   <si>
-    <t>AOU*
-N = 222,974</t>
-  </si>
-  <si>
     <t>Age (continuous)**</t>
   </si>
   <si>
@@ -144,44 +121,363 @@
     <t>Total phecodes per person</t>
   </si>
   <si>
-    <t>192.6 (349.2)</t>
-  </si>
-  <si>
-    <t>Encounters per person</t>
-  </si>
-  <si>
     <t>Unique phecodes per person</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>41.7 (43.0)</t>
-  </si>
-  <si>
-    <t>73.8 (117.1)</t>
-  </si>
-  <si>
     <t>Length of follow-up (years)</t>
   </si>
   <si>
-    <t>9.3 (8.3)</t>
-  </si>
-  <si>
-    <t>Phenome characteristics</t>
-  </si>
-  <si>
     <t>Demographics</t>
   </si>
   <si>
     <t>0.0 (0)</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>print_unit</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>nas</t>
+  </si>
+  <si>
+    <t>prop</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>AgeLastEntry</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>53.67 (17.20)</t>
+  </si>
+  <si>
+    <t>mean (sd)</t>
+  </si>
+  <si>
+    <t>age_verbose</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0 (52)</t>
+  </si>
+  <si>
+    <t>% (n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8 (1,802)</t>
+  </si>
+  <si>
+    <t>10.4 (22,541)</t>
+  </si>
+  <si>
+    <t>14.4 (31,175)</t>
+  </si>
+  <si>
+    <t>14.0 (30,384)</t>
+  </si>
+  <si>
+    <t>19.5 (42,195)</t>
+  </si>
+  <si>
+    <t>21.3 (46,059)</t>
+  </si>
+  <si>
+    <t>14.9 (32,252)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.6 (9,906)</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>37.3 (80,753)</t>
+  </si>
+  <si>
+    <t>62.7 (135,613)</t>
+  </si>
+  <si>
+    <t>race_eth</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5 (5,508)</t>
+  </si>
+  <si>
+    <t>Black or African American</t>
+  </si>
+  <si>
+    <t>19.0 (41,070)</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>19.1 (41,353)</t>
+  </si>
+  <si>
+    <t>Middle Eastern or North African</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5 (1,178)</t>
+  </si>
+  <si>
+    <t>More than one population</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5 (3,272)</t>
+  </si>
+  <si>
+    <t>Native Hawaiian or Other Pacific Islander</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1 (219)</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8 (6,047)</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>54.4 (117,719)</t>
+  </si>
+  <si>
+    <t>bmi</t>
+  </si>
+  <si>
+    <t>30.06 (7.70)</t>
+  </si>
+  <si>
+    <t>bmi_verbose</t>
+  </si>
+  <si>
+    <t>Underweight (&lt;18.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3 (2,667)</t>
+  </si>
+  <si>
+    <t>Healthy [18.5, 25)</t>
+  </si>
+  <si>
+    <t>25.5 (53,089)</t>
+  </si>
+  <si>
+    <t>Overweight [25, 30)</t>
+  </si>
+  <si>
+    <t>30.5 (63,275)</t>
+  </si>
+  <si>
+    <t>Obese [30+)</t>
+  </si>
+  <si>
+    <t>42.7 (88,757)</t>
+  </si>
+  <si>
+    <t>cancer</t>
+  </si>
+  <si>
+    <t>77.4 (167,432)</t>
+  </si>
+  <si>
+    <t>22.6 (48,934)</t>
+  </si>
+  <si>
+    <t>diabetes</t>
+  </si>
+  <si>
+    <t>78.4 (169,680)</t>
+  </si>
+  <si>
+    <t>21.6 (46,686)</t>
+  </si>
+  <si>
+    <t>cad</t>
+  </si>
+  <si>
+    <t>87.1 (188,538)</t>
+  </si>
+  <si>
+    <t>12.9 (27,828)</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>67.6 (146,310)</t>
+  </si>
+  <si>
+    <t>32.4 (70,056)</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>72.0 (155,810)</t>
+  </si>
+  <si>
+    <t>28.0 (60,556)</t>
+  </si>
+  <si>
+    <t>SmokingStatus</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>57.1 (123,569)</t>
+  </si>
+  <si>
+    <t>Past</t>
+  </si>
+  <si>
+    <t>23.7 (51,258)</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>16.3 (35,361)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9 (6,178)</t>
+  </si>
+  <si>
+    <t>Number of people</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Encounters per person, unique</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Phecodes per person, total</t>
+  </si>
+  <si>
+    <t>Phecodes per person, unique</t>
+  </si>
+  <si>
+    <t>Length of EHR follow-up, days</t>
+  </si>
+  <si>
+    <t>Length of EHR follow-up, years</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity</t>
+  </si>
+  <si>
+    <t>BMI (continuous)</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>EHR characteristics</t>
+  </si>
+  <si>
+    <t>Encounters per person (unique)</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>AOU*</t>
+  </si>
+  <si>
+    <t>IPW weighted</t>
+  </si>
+  <si>
+    <t>AOU</t>
+  </si>
+  <si>
+    <t>Poststratification weighted</t>
+  </si>
+  <si>
+    <t>Coronary Heart Disease</t>
+  </si>
+  <si>
+    <r>
+      <t>Table 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>. Descriptive characteristics of the Michigan Genomics Initiative, the UK Biobank, and All of Us</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,16 +490,33 @@
       <color theme="1"/>
       <name val="ArialMT"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -211,11 +524,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -233,15 +564,83 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,236 +955,2019 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B51DE-992F-124D-82CC-B35D567452BB}">
-  <dimension ref="A2:D28"/>
+  <dimension ref="A3:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="4"/>
     <col min="4" max="4" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="4"/>
+    <col min="8" max="8" width="5.7109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="12.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" ht="33" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="11">
+        <f>aou_unweighted!C2</f>
+        <v>216366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="5" customHeight="1">
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28" t="str">
+        <f>aou_unweighted!C3</f>
+        <v>53.67 (17.20)</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>aou_unweighted!C4</f>
+        <v xml:space="preserve"> 0.0 (52)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>aou_unweighted!C5</f>
+        <v xml:space="preserve"> 0.8 (1,802)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f>aou_unweighted!C6</f>
+        <v>10.4 (22,541)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>aou_unweighted!C7</f>
+        <v>14.4 (31,175)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>aou_unweighted!C8</f>
+        <v>14.0 (30,384)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f>aou_unweighted!C9</f>
+        <v>19.5 (42,195)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f>aou_unweighted!C10</f>
+        <v>21.3 (46,059)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f>aou_unweighted!C11</f>
+        <v>14.9 (32,252)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f>aou_unweighted!C12</f>
+        <v xml:space="preserve"> 4.6 (9,906)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28" t="str">
+        <f>aou_unweighted!C13</f>
+        <v>37.3 (80,753)</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28" t="str">
+        <f>aou_unweighted!C14</f>
+        <v>62.7 (135,613)</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f>aou_unweighted!C15</f>
+        <v xml:space="preserve"> 2.5 (5,508)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f>aou_unweighted!C16</f>
+        <v>19.0 (41,070)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f>aou_unweighted!C17</f>
+        <v>19.1 (41,353)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f>aou_unweighted!C18</f>
+        <v xml:space="preserve"> 0.5 (1,178)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f>aou_unweighted!C19</f>
+        <v xml:space="preserve"> 1.5 (3,272)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f>aou_unweighted!C20</f>
+        <v xml:space="preserve"> 0.1 (219)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <f>aou_unweighted!C21</f>
+        <v xml:space="preserve"> 2.8 (6,047)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="4" t="str">
+        <f>aou_unweighted!C22</f>
+        <v>54.4 (117,719)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28" t="str">
+        <f>aou_unweighted!C23</f>
+        <v>30.06 (7.70)</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f>aou_unweighted!C24</f>
+        <v xml:space="preserve"> 1.3 (2,667)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="4" t="str">
+        <f>aou_unweighted!C25</f>
+        <v>25.5 (53,089)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f>aou_unweighted!C26</f>
+        <v>30.5 (63,275)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f>aou_unweighted!C27</f>
+        <v>42.7 (88,757)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28" t="str">
+        <f>aou_unweighted!C29</f>
+        <v>22.6 (48,934)</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f>aou_unweighted!C31</f>
+        <v>21.6 (46,686)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28" t="str">
+        <f>aou_unweighted!C33</f>
+        <v>12.9 (27,828)</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="4" t="str">
+        <f>aou_unweighted!C35</f>
+        <v>32.4 (70,056)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28" t="str">
+        <f>aou_unweighted!C37</f>
+        <v>28.0 (60,556)</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="4" t="str" cm="1">
+        <f t="array" ref="D44:D47">aou_unweighted!C38:C41</f>
+        <v>57.1 (123,569)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="4" t="str">
+        <v>23.7 (51,258)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <v>16.3 (35,361)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="4" t="str">
+        <v xml:space="preserve"> 2.9 (6,178)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28">
+        <f>aou_unweighted!C43</f>
+        <v>1</v>
+      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28">
+        <f>aou_unweighted!C44</f>
+        <v>17</v>
+      </c>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28">
+        <f>aou_unweighted!C45</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="E53" s="27"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28">
+        <f>aou_unweighted!C46</f>
+        <v>481</v>
+      </c>
+      <c r="E54" s="27"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="4">
+        <f>aou_unweighted!C47</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="4">
+        <f>aou_unweighted!C48</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="4">
+        <f>aou_unweighted!C49</f>
+        <v>251.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="4">
+        <f>aou_unweighted!C50</f>
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28">
+        <f>aou_unweighted!C51</f>
+        <v>1</v>
+      </c>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28">
+        <f>aou_unweighted!C52</f>
+        <v>39</v>
+      </c>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28">
+        <f>aou_unweighted!C53</f>
+        <v>57.3</v>
+      </c>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28">
+        <f>aou_unweighted!C54</f>
+        <v>522</v>
+      </c>
+      <c r="E64" s="27"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="16">
+        <f>aou_unweighted!C59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="16">
+        <f>aou_unweighted!C60</f>
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="16">
+        <f>aou_unweighted!C61</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="19">
+        <f>aou_unweighted!C62</f>
+        <v>41</v>
+      </c>
+      <c r="E69" s="20"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="36" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="50" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
+  <mergeCells count="7">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63E1CF2-8B7A-F54D-B99D-95894D646652}">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="8">
+        <v>216366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>53.66594520396</v>
+      </c>
+      <c r="F3">
+        <v>17.202563981523301</v>
+      </c>
+      <c r="G3">
+        <v>55.5</v>
+      </c>
+      <c r="H3">
+        <v>216366</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <v>52</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <v>1802</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>22541</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>31175</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <v>30384</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>42195</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>46059</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11">
+        <v>32252</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <v>9906</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13">
+        <v>80753</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14">
+        <v>135613</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15">
+        <v>5508</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16">
+        <v>41070</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17">
+        <v>41353</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18">
+        <v>1178</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19">
+        <v>3272</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20">
+        <v>219</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21">
+        <v>6047</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22">
+        <v>117719</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>30.0602031737636</v>
+      </c>
+      <c r="F23">
+        <v>7.7044964117798296</v>
+      </c>
+      <c r="G23">
+        <v>28.700001</v>
+      </c>
+      <c r="H23">
+        <v>207788</v>
+      </c>
+      <c r="I23">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24">
+        <v>2667</v>
+      </c>
+      <c r="I24">
+        <v>8578</v>
+      </c>
+      <c r="J24">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25">
+        <v>53089</v>
+      </c>
+      <c r="I25">
+        <v>8578</v>
+      </c>
+      <c r="J25">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26">
+        <v>63275</v>
+      </c>
+      <c r="I26">
+        <v>8578</v>
+      </c>
+      <c r="J26">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27">
+        <v>88757</v>
+      </c>
+      <c r="I27">
+        <v>8578</v>
+      </c>
+      <c r="J27">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28">
+        <v>167432</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29">
+        <v>48934</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30">
+        <v>169680</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31">
+        <v>46686</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32">
+        <v>188538</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33">
+        <v>27828</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34">
+        <v>146310</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35">
+        <v>70056</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36">
+        <v>155810</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37">
+        <v>60556</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38">
+        <v>123569</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39">
+        <v>51258</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40">
+        <v>35361</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41">
+        <v>6178</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="8">
+        <v>216366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49">
+        <v>251.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="8">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="10">
+        <v>3301.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="8">
+        <v>14970</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Dropbox (University of Michigan)/projects/dissertation/aim_one/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DED2F4B-ADAD-2E45-9DC7-D7784FE15AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C303E4E-93B9-7249-9B2E-A22AACFEC889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="aou_unweighted" sheetId="2" r:id="rId2"/>
+    <sheet name="mgi_unweighted" sheetId="3" r:id="rId2"/>
+    <sheet name="ukb_unweighted" sheetId="4" r:id="rId3"/>
+    <sheet name="aou_unweighted" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="208">
   <si>
     <t>Unweighted</t>
   </si>
@@ -121,18 +123,9 @@
     <t>Total phecodes per person</t>
   </si>
   <si>
-    <t>Unique phecodes per person</t>
-  </si>
-  <si>
-    <t>Length of follow-up (years)</t>
-  </si>
-  <si>
     <t>Demographics</t>
   </si>
   <si>
-    <t>0.0 (0)</t>
-  </si>
-  <si>
     <t>variable</t>
   </si>
   <si>
@@ -428,9 +421,6 @@
   </si>
   <si>
     <t>EHR characteristics</t>
-  </si>
-  <si>
-    <t>Encounters per person (unique)</t>
   </si>
   <si>
     <t>Minimum</t>
@@ -471,6 +461,240 @@
       </rPr>
       <t>. Descriptive characteristics of the Michigan Genomics Initiative, the UK Biobank, and All of Us</t>
     </r>
+  </si>
+  <si>
+    <t>57.48 (16.97)</t>
+  </si>
+  <si>
+    <t>age_at_last_diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3 (229)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.7 (6,231)</t>
+  </si>
+  <si>
+    <t>10.6 (8,641)</t>
+  </si>
+  <si>
+    <t>13.2 (10,732)</t>
+  </si>
+  <si>
+    <t>19.1 (15,557)</t>
+  </si>
+  <si>
+    <t>23.1 (18,753)</t>
+  </si>
+  <si>
+    <t>18.4 (14,941)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.6 (6,170)</t>
+  </si>
+  <si>
+    <t>46.2 (37,549)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>53.8 (43,705)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.2 (5,059)</t>
+  </si>
+  <si>
+    <t>African American</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8 (3,110)</t>
+  </si>
+  <si>
+    <t>85.2 (69,254)</t>
+  </si>
+  <si>
+    <t>Caucasian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7 (2,180)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5 (395)</t>
+  </si>
+  <si>
+    <t>Native American</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0 (7)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0 (4)</t>
+  </si>
+  <si>
+    <t>Pacific Islander</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5 (1,245)</t>
+  </si>
+  <si>
+    <t>29.94 (7.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1 (865)</t>
+  </si>
+  <si>
+    <t>24.7 (20,029)</t>
+  </si>
+  <si>
+    <t>32.0 (25,958)</t>
+  </si>
+  <si>
+    <t>42.3 (34,288)</t>
+  </si>
+  <si>
+    <t>51.4 (41,731)</t>
+  </si>
+  <si>
+    <t>48.6 (39,523)</t>
+  </si>
+  <si>
+    <t>66.8 (54,250)</t>
+  </si>
+  <si>
+    <t>33.2 (27,004)</t>
+  </si>
+  <si>
+    <t>83.5 (67,847)</t>
+  </si>
+  <si>
+    <t>16.5 (13,407)</t>
+  </si>
+  <si>
+    <t>63.7 (51,781)</t>
+  </si>
+  <si>
+    <t>36.3 (29,473)</t>
+  </si>
+  <si>
+    <t>66.1 (53,681)</t>
+  </si>
+  <si>
+    <t>33.9 (27,573)</t>
+  </si>
+  <si>
+    <t>53.4 (43,245)</t>
+  </si>
+  <si>
+    <t>36.8 (29,816)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.8 (7,901)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>American Indian/Alaska Native</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>71.03 (8.07)</t>
+  </si>
+  <si>
+    <t>11.7 (47,976)</t>
+  </si>
+  <si>
+    <t>27.4 (112,073)</t>
+  </si>
+  <si>
+    <t>45.0 (183,963)</t>
+  </si>
+  <si>
+    <t>15.8 (64,759)</t>
+  </si>
+  <si>
+    <t>44.6 (182,393)</t>
+  </si>
+  <si>
+    <t>55.4 (226,378)</t>
+  </si>
+  <si>
+    <t>90.8 (371,338)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8 (15,359)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6 (14,727)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9 (3,605)</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5 (2,215)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4 (1,527)</t>
+  </si>
+  <si>
+    <t>79.0 (323,009)</t>
+  </si>
+  <si>
+    <t>21.0 (85,762)</t>
+  </si>
+  <si>
+    <t>92.4 (377,591)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.6 (31,180)</t>
+  </si>
+  <si>
+    <t>93.1 (380,694)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9 (28,077)</t>
+  </si>
+  <si>
+    <t>97.0 (396,344)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0 (12,427)</t>
+  </si>
+  <si>
+    <t>99.9 (408,158)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1 (613)</t>
+  </si>
+  <si>
+    <t>Abbreviations: -, data unavailable in cohort; AOU, All of Us; MGI, Michigan Genomics Initiative; UKB, UK Biobank</t>
+  </si>
+  <si>
+    <t>Unique phecodes per person†</t>
+  </si>
+  <si>
+    <t>Length of follow-up (years)†</t>
+  </si>
+  <si>
+    <t>Encounters per person (unique)†</t>
+  </si>
+  <si>
+    <t>† UK Biobank data only provided first occurrence of each unique phecode. This means that individuals could have encounters that were not reported or extend beyond their last encounter if no unique diagnoses were recorded at that visit.</t>
   </si>
 </sst>
 </file>
@@ -516,7 +740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -533,20 +757,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -607,9 +822,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,14 +844,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,324 +1180,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B51DE-992F-124D-82CC-B35D567452BB}">
-  <dimension ref="A3:J72"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="4"/>
-    <col min="4" max="4" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="4"/>
     <col min="8" max="8" width="5.7109375" style="4" customWidth="1"/>
     <col min="9" max="10" width="12.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10">
-      <c r="A3" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+    <row r="1" spans="1:10">
+      <c r="A1" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="21"/>
+      <c r="B2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="1:10" ht="33" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" ht="33" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="37">
+        <f>mgi_unweighted!C2</f>
+        <v>81254</v>
+      </c>
+      <c r="C4" s="37">
+        <f>ukb_unweighted!C2</f>
+        <v>408771</v>
+      </c>
+      <c r="D4" s="11">
         <f>aou_unweighted!C2</f>
         <v>216366</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="5" customHeight="1">
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="27" t="s">
+    <row r="5" spans="1:10" ht="5" customHeight="1">
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28" t="str">
+      <c r="B7" s="27" t="str">
+        <f>mgi_unweighted!C3</f>
+        <v>57.48 (16.97)</v>
+      </c>
+      <c r="C7" s="27" t="str">
+        <f>ukb_unweighted!C3</f>
+        <v>71.03 (8.07)</v>
+      </c>
+      <c r="D7" s="27" t="str">
         <f>aou_unweighted!C3</f>
         <v>53.67 (17.20)</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="str">
+      <c r="B9" s="4" t="str">
+        <f>mgi_unweighted!C4</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>ukb_unweighted!C4</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
+      </c>
+      <c r="D9" s="4" t="str">
         <f>aou_unweighted!C4</f>
         <v xml:space="preserve"> 0.0 (52)</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4" t="str">
+      <c r="B10" s="4" t="str">
+        <f>mgi_unweighted!C5</f>
+        <v xml:space="preserve"> 0.3 (229)</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>ukb_unweighted!C5</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
+      </c>
+      <c r="D10" s="4" t="str">
         <f>aou_unweighted!C5</f>
         <v xml:space="preserve"> 0.8 (1,802)</v>
       </c>
     </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f>mgi_unweighted!C6</f>
+        <v xml:space="preserve"> 7.7 (6,231)</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>ukb_unweighted!C6</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>aou_unweighted!C6</f>
+        <v>10.4 (22,541)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>mgi_unweighted!C7</f>
+        <v>10.6 (8,641)</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>ukb_unweighted!C7</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>aou_unweighted!C7</f>
+        <v>14.4 (31,175)</v>
+      </c>
+    </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f>mgi_unweighted!C8</f>
+        <v>13.2 (10,732)</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>ukb_unweighted!C8</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f>aou_unweighted!C6</f>
-        <v>10.4 (22,541)</v>
+        <f>aou_unweighted!C8</f>
+        <v>14.0 (30,384)</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>mgi_unweighted!C9</f>
+        <v>19.1 (15,557)</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>ukb_unweighted!C9</f>
+        <v>11.7 (47,976)</v>
       </c>
       <c r="D14" s="4" t="str">
-        <f>aou_unweighted!C7</f>
-        <v>14.4 (31,175)</v>
+        <f>aou_unweighted!C9</f>
+        <v>19.5 (42,195)</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>mgi_unweighted!C10</f>
+        <v>23.1 (18,753)</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>ukb_unweighted!C10</f>
+        <v>27.4 (112,073)</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f>aou_unweighted!C8</f>
-        <v>14.0 (30,384)</v>
+        <f>aou_unweighted!C10</f>
+        <v>21.3 (46,059)</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>mgi_unweighted!C11</f>
+        <v>18.4 (14,941)</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>ukb_unweighted!C11</f>
+        <v>45.0 (183,963)</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f>aou_unweighted!C9</f>
-        <v>19.5 (42,195)</v>
+        <f>aou_unweighted!C11</f>
+        <v>14.9 (32,252)</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>mgi_unweighted!C12</f>
+        <v xml:space="preserve"> 7.6 (6,170)</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>ukb_unweighted!C12</f>
+        <v>15.8 (64,759)</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f>aou_unweighted!C10</f>
-        <v>21.3 (46,059)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f>aou_unweighted!C11</f>
-        <v>14.9 (32,252)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4" t="str">
         <f>aou_unweighted!C12</f>
         <v xml:space="preserve"> 4.6 (9,906)</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28" t="str">
+    <row r="18" spans="1:10">
+      <c r="A18" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="27" t="str">
+        <f>mgi_unweighted!C13</f>
+        <v>46.2 (37,549)</v>
+      </c>
+      <c r="C19" s="27" t="str">
+        <f>ukb_unweighted!C13</f>
+        <v>44.6 (182,393)</v>
+      </c>
+      <c r="D19" s="27" t="str">
         <f>aou_unweighted!C13</f>
         <v>37.3 (80,753)</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="31" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28" t="str">
+      <c r="B20" s="27" t="str">
+        <f>mgi_unweighted!C14</f>
+        <v>53.8 (43,705)</v>
+      </c>
+      <c r="C20" s="27" t="str">
+        <f>ukb_unweighted!C14</f>
+        <v>55.4 (226,378)</v>
+      </c>
+      <c r="D20" s="27" t="str">
         <f>aou_unweighted!C14</f>
         <v>62.7 (135,613)</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>mgi_unweighted!C19</f>
+        <v xml:space="preserve"> 0.5 (395)</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="6" t="s">
-        <v>115</v>
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>mgi_unweighted!C16</f>
+        <v xml:space="preserve"> 3.8 (3,110)</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>ukb_unweighted!C17</f>
+        <v xml:space="preserve"> 3.6 (14,727)</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f>aou_unweighted!C15</f>
+        <v xml:space="preserve"> 2.5 (5,508)</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>mgi_unweighted!C15</f>
+        <v xml:space="preserve"> 6.2 (5,059)</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>ukb_unweighted!C19</f>
+        <v xml:space="preserve"> 0.5 (2,215)</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f>aou_unweighted!C15</f>
-        <v xml:space="preserve"> 2.5 (5,508)</v>
+        <f>aou_unweighted!C16</f>
+        <v>19.0 (41,070)</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>mgi_unweighted!C18</f>
+        <v xml:space="preserve"> 2.7 (2,180)</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f>aou_unweighted!C16</f>
-        <v>19.0 (41,070)</v>
+        <f>aou_unweighted!C17</f>
+        <v>19.1 (41,353)</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D26" s="4" t="str">
-        <f>aou_unweighted!C17</f>
-        <v>19.1 (41,353)</v>
+        <f>aou_unweighted!C18</f>
+        <v xml:space="preserve"> 0.5 (1,178)</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D27" s="4" t="str">
-        <f>aou_unweighted!C18</f>
-        <v xml:space="preserve"> 0.5 (1,178)</v>
+        <f>aou_unweighted!C19</f>
+        <v xml:space="preserve"> 1.5 (3,272)</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f>mgi_unweighted!C21</f>
+        <v xml:space="preserve"> 0.0 (4)</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D28" s="4" t="str">
-        <f>aou_unweighted!C19</f>
-        <v xml:space="preserve"> 1.5 (3,272)</v>
+        <f>aou_unweighted!C20</f>
+        <v xml:space="preserve"> 0.1 (219)</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="4" t="str">
-        <f>aou_unweighted!C20</f>
-        <v xml:space="preserve"> 0.1 (219)</v>
+        <v>154</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>ukb_unweighted!C18</f>
+        <v xml:space="preserve"> 0.9 (3,605)</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f>mgi_unweighted!C22</f>
+        <v xml:space="preserve"> 1.5 (1,245)</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f>ukb_unweighted!C20</f>
+        <v xml:space="preserve"> 0.4 (1,527)</v>
       </c>
       <c r="D30" s="4" t="str">
         <f>aou_unweighted!C21</f>
@@ -1281,7 +1672,15 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f>mgi_unweighted!C17</f>
+        <v>85.2 (69,254)</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f>ukb_unweighted!C15</f>
+        <v>90.8 (371,338)</v>
       </c>
       <c r="D31" s="4" t="str">
         <f>aou_unweighted!C22</f>
@@ -1289,30 +1688,42 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28" t="str">
+      <c r="A32" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="27" t="str">
+        <f>mgi_unweighted!C23</f>
+        <v>29.94 (7.26)</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="27" t="str">
         <f>aou_unweighted!C23</f>
         <v>30.06 (7.70)</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f>mgi_unweighted!C24</f>
+        <v xml:space="preserve"> 1.1 (865)</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D34" s="4" t="str">
         <f>aou_unweighted!C24</f>
@@ -1321,7 +1732,14 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f>mgi_unweighted!C25</f>
+        <v>24.7 (20,029)</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D35" s="4" t="str">
         <f>aou_unweighted!C25</f>
@@ -1330,7 +1748,14 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f>mgi_unweighted!C26</f>
+        <v>32.0 (25,958)</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D36" s="4" t="str">
         <f>aou_unweighted!C26</f>
@@ -1339,7 +1764,14 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f>mgi_unweighted!C27</f>
+        <v>42.3 (34,288)</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D37" s="4" t="str">
         <f>aou_unweighted!C27</f>
@@ -1347,25 +1779,39 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28" t="str">
+      <c r="B38" s="27" t="str">
+        <f>mgi_unweighted!C29</f>
+        <v>48.6 (39,523)</v>
+      </c>
+      <c r="C38" s="27" t="str">
+        <f>ukb_unweighted!C21</f>
+        <v>79.0 (323,009)</v>
+      </c>
+      <c r="D38" s="27" t="str">
         <f>aou_unweighted!C29</f>
         <v>22.6 (48,934)</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f>mgi_unweighted!C31</f>
+        <v>33.2 (27,004)</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f>ukb_unweighted!C24</f>
+        <v xml:space="preserve"> 7.6 (31,180)</v>
       </c>
       <c r="D39" s="4" t="str">
         <f>aou_unweighted!C31</f>
@@ -1373,25 +1819,39 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28" t="str">
+      <c r="A40" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="27" t="str">
+        <f>mgi_unweighted!C33</f>
+        <v>16.5 (13,407)</v>
+      </c>
+      <c r="C40" s="27" t="str">
+        <f>ukb_unweighted!C26</f>
+        <v xml:space="preserve"> 6.9 (28,077)</v>
+      </c>
+      <c r="D40" s="27" t="str">
         <f>aou_unweighted!C33</f>
         <v>12.9 (27,828)</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f>mgi_unweighted!C35</f>
+        <v>36.3 (29,473)</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f>ukb_unweighted!C28</f>
+        <v xml:space="preserve"> 3.0 (12,427)</v>
       </c>
       <c r="D41" s="4" t="str">
         <f>aou_unweighted!C35</f>
@@ -1399,30 +1859,43 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28" t="str">
+      <c r="A42" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="27" t="str">
+        <f>mgi_unweighted!C37</f>
+        <v>33.9 (27,573)</v>
+      </c>
+      <c r="C42" s="27" t="str">
+        <f>ukb_unweighted!C30</f>
+        <v xml:space="preserve"> 0.1 (613)</v>
+      </c>
+      <c r="D42" s="27" t="str">
         <f>aou_unweighted!C37</f>
         <v>28.0 (60,556)</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f>mgi_unweighted!C38</f>
+        <v>53.4 (43,245)</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D44" s="4" t="str" cm="1">
         <f t="array" ref="D44:D47">aou_unweighted!C38:C41</f>
@@ -1431,7 +1904,14 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f>mgi_unweighted!C39</f>
+        <v>36.8 (29,816)</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D45" s="4" t="str">
         <v>23.7 (51,258)</v>
@@ -1439,7 +1919,14 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f>mgi_unweighted!C40</f>
+        <v xml:space="preserve"> 9.8 (7,901)</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D46" s="4" t="str">
         <v>16.3 (35,361)</v>
@@ -1447,98 +1934,130 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f>mgi_unweighted!C41</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D47" s="4" t="str">
         <v xml:space="preserve"> 2.9 (6,178)</v>
       </c>
     </row>
+    <row r="48" spans="1:10" ht="5" customHeight="1"/>
     <row r="49" spans="1:10">
       <c r="A49" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
+      <c r="A50" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28">
+      <c r="A51" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="27">
+        <f>mgi_unweighted!C43</f>
+        <v>1</v>
+      </c>
+      <c r="C51" s="27">
+        <f>ukb_unweighted!C32</f>
+        <v>1</v>
+      </c>
+      <c r="D51" s="27">
         <f>aou_unweighted!C43</f>
         <v>1</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28">
+      <c r="A52" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="27">
+        <f>mgi_unweighted!C44</f>
+        <v>55</v>
+      </c>
+      <c r="C52" s="27">
+        <f>ukb_unweighted!C33</f>
+        <v>3</v>
+      </c>
+      <c r="D52" s="27">
         <f>aou_unweighted!C44</f>
         <v>17</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28">
+      <c r="A53" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="27">
+        <f>mgi_unweighted!C45</f>
+        <v>104.5</v>
+      </c>
+      <c r="C53" s="27">
+        <f>ukb_unweighted!C34</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D53" s="27">
         <f>aou_unweighted!C45</f>
         <v>30</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28">
+      <c r="A54" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="27">
+        <f>mgi_unweighted!C46</f>
+        <v>1836</v>
+      </c>
+      <c r="C54" s="27">
+        <f>ukb_unweighted!C35</f>
+        <v>89</v>
+      </c>
+      <c r="D54" s="27">
         <f>aou_unweighted!C46</f>
         <v>481</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="13" t="s">
@@ -1547,7 +2066,14 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="B56" s="4">
+        <f>mgi_unweighted!C47</f>
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D56" s="4">
         <f>aou_unweighted!C47</f>
@@ -1556,7 +2082,14 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="B57" s="4">
+        <f>mgi_unweighted!C48</f>
+        <v>784</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D57" s="4">
         <f>aou_unweighted!C48</f>
@@ -1565,7 +2098,14 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B58" s="4">
+        <f>mgi_unweighted!C49</f>
+        <v>13790.9</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D58" s="4">
         <f>aou_unweighted!C49</f>
@@ -1574,7 +2114,14 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="B59" s="4">
+        <f>mgi_unweighted!C50</f>
+        <v>79826</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D59" s="4">
         <f>aou_unweighted!C50</f>
@@ -1582,95 +2129,127 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
+      <c r="A60" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28">
+      <c r="A61" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="27">
+        <f>mgi_unweighted!C51</f>
+        <v>1</v>
+      </c>
+      <c r="C61" s="27">
+        <f>ukb_unweighted!C40</f>
+        <v>1</v>
+      </c>
+      <c r="D61" s="27">
         <f>aou_unweighted!C51</f>
         <v>1</v>
       </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28">
+      <c r="A62" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="27">
+        <f>mgi_unweighted!C52</f>
+        <v>53</v>
+      </c>
+      <c r="C62" s="27">
+        <f>ukb_unweighted!C41</f>
+        <v>9</v>
+      </c>
+      <c r="D62" s="27">
         <f>aou_unweighted!C52</f>
         <v>39</v>
       </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28">
+      <c r="A63" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="27">
+        <f>mgi_unweighted!C53</f>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="C63" s="27">
+        <f>ukb_unweighted!C42</f>
+        <v>13.6</v>
+      </c>
+      <c r="D63" s="27">
         <f>aou_unweighted!C53</f>
         <v>57.3</v>
       </c>
-      <c r="E63" s="27"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28">
+      <c r="A64" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="27">
+        <f>mgi_unweighted!C54</f>
+        <v>588</v>
+      </c>
+      <c r="C64" s="27">
+        <f>ukb_unweighted!C43</f>
+        <v>236</v>
+      </c>
+      <c r="D64" s="27">
         <f>aou_unweighted!C54</f>
         <v>522</v>
       </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="15" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="B66" s="4">
+        <f>mgi_unweighted!C59</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="4">
+        <f>ukb_unweighted!C48</f>
+        <v>0</v>
       </c>
       <c r="D66" s="16">
         <f>aou_unweighted!C59</f>
@@ -1679,7 +2258,15 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="B67" s="4">
+        <f>mgi_unweighted!C60</f>
+        <v>8.1</v>
+      </c>
+      <c r="C67" s="4">
+        <f>ukb_unweighted!C49</f>
+        <v>7.5</v>
       </c>
       <c r="D67" s="16">
         <f>aou_unweighted!C60</f>
@@ -1688,7 +2275,15 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B68" s="4">
+        <f>mgi_unweighted!C61</f>
+        <v>9.9</v>
+      </c>
+      <c r="C68" s="4">
+        <f>ukb_unweighted!C50</f>
+        <v>8.1</v>
       </c>
       <c r="D68" s="16">
         <f>aou_unweighted!C61</f>
@@ -1697,10 +2292,16 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
+        <v>123</v>
+      </c>
+      <c r="B69" s="18">
+        <f>mgi_unweighted!C62</f>
+        <v>43.5</v>
+      </c>
+      <c r="C69" s="18">
+        <f>ukb_unweighted!C51</f>
+        <v>36.200000000000003</v>
+      </c>
       <c r="D69" s="19">
         <f>aou_unweighted!C62</f>
         <v>41</v>
@@ -1713,56 +2314,85 @@
       <c r="J69" s="18"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="16" customHeight="1">
+      <c r="A71" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="36" t="s">
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="36" t="s">
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+    </row>
+    <row r="74" spans="1:10" ht="32" customHeight="1">
+      <c r="A74" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A70:J70"/>
+  <mergeCells count="8">
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A71:J71"/>
     <mergeCell ref="A72:J72"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1770,6 +2400,2143 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A93AC7-3FA7-1D42-AD6E-1B11AA38B449}">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J22" sqref="J15:J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8">
+        <v>81254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>57.475599896620501</v>
+      </c>
+      <c r="F3">
+        <v>16.971301703365601</v>
+      </c>
+      <c r="G3">
+        <v>59.564999999999998</v>
+      </c>
+      <c r="H3">
+        <v>81254</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>229</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>6231</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>8641</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>10732</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>15557</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>18753</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11">
+        <v>14941</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>6170</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <v>37549</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>43705</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>5059</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>3110</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <v>69254</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18">
+        <v>2180</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19">
+        <v>395</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22">
+        <v>1245</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23">
+        <v>29.940264835648001</v>
+      </c>
+      <c r="F23">
+        <v>7.2611462150975496</v>
+      </c>
+      <c r="G23">
+        <v>28.734390999999999</v>
+      </c>
+      <c r="H23">
+        <v>81149</v>
+      </c>
+      <c r="I23">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24">
+        <v>865</v>
+      </c>
+      <c r="I24">
+        <v>114</v>
+      </c>
+      <c r="J24">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25">
+        <v>20029</v>
+      </c>
+      <c r="I25">
+        <v>114</v>
+      </c>
+      <c r="J25">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26">
+        <v>25958</v>
+      </c>
+      <c r="I26">
+        <v>114</v>
+      </c>
+      <c r="J26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27">
+        <v>34288</v>
+      </c>
+      <c r="I27">
+        <v>114</v>
+      </c>
+      <c r="J27">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <v>41731</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <v>39523</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30">
+        <v>54250</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31">
+        <v>27004</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32">
+        <v>67847</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>13407</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34">
+        <v>51781</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35">
+        <v>29473</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36">
+        <v>53681</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37">
+        <v>27573</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38">
+        <v>43245</v>
+      </c>
+      <c r="I38">
+        <v>292</v>
+      </c>
+      <c r="J38">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39">
+        <v>29816</v>
+      </c>
+      <c r="I39">
+        <v>292</v>
+      </c>
+      <c r="J39">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40">
+        <v>7901</v>
+      </c>
+      <c r="I40">
+        <v>292</v>
+      </c>
+      <c r="J40">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>292</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="8">
+        <v>81376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="8">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="10">
+        <v>13790.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="8">
+        <v>79826</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="8">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="10">
+        <v>3611.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="8">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62">
+        <v>43.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C873B9-ED57-D54A-96A0-0EC3F5B920F4}">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:J51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8">
+        <v>408771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>71.026237184144705</v>
+      </c>
+      <c r="F3">
+        <v>8.0672403565091404</v>
+      </c>
+      <c r="G3">
+        <v>73</v>
+      </c>
+      <c r="H3">
+        <v>408771</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>47976</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>112073</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11">
+        <v>183963</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>64759</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <v>182393</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>226378</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>371338</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>15359</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <v>14727</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18">
+        <v>3605</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19">
+        <v>2215</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <v>1527</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21">
+        <v>323009</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22">
+        <v>85762</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23">
+        <v>377591</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24">
+        <v>31180</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25">
+        <v>380694</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26">
+        <v>28077</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27">
+        <v>396344</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <v>12427</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <v>408158</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30">
+        <v>613</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="8">
+        <v>409516</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="10">
+        <v>2948.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="8">
+        <v>13218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63E1CF2-8B7A-F54D-B99D-95894D646652}">
   <dimension ref="A1:J62"/>
   <sheetViews>
@@ -1786,42 +4553,42 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="8">
         <v>216366</v>
@@ -1829,16 +4596,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
       </c>
       <c r="E3">
         <v>53.66594520396</v>
@@ -1858,16 +4625,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -1881,16 +4648,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="9">
         <v>45218</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1802</v>
@@ -1904,16 +4671,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>22541</v>
@@ -1927,16 +4694,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>31175</v>
@@ -1950,16 +4717,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>30384</v>
@@ -1973,16 +4740,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>42195</v>
@@ -1996,16 +4763,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>46059</v>
@@ -2019,16 +4786,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H11">
         <v>32252</v>
@@ -2042,16 +4809,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H12">
         <v>9906</v>
@@ -2065,16 +4832,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13">
         <v>80753</v>
@@ -2088,16 +4855,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H14">
         <v>135613</v>
@@ -2111,16 +4878,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>5508</v>
@@ -2134,16 +4901,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>41070</v>
@@ -2157,16 +4924,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>41353</v>
@@ -2180,16 +4947,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>1178</v>
@@ -2203,16 +4970,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>3272</v>
@@ -2226,16 +4993,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>219</v>
@@ -2249,16 +5016,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>6047</v>
@@ -2272,16 +5039,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>117719</v>
@@ -2295,16 +5062,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>30.0602031737636</v>
@@ -2324,16 +5091,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>2667</v>
@@ -2347,16 +5114,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
         <v>73</v>
       </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>53089</v>
@@ -2370,16 +5137,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H26">
         <v>63275</v>
@@ -2393,16 +5160,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>88757</v>
@@ -2416,16 +5183,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>167432</v>
@@ -2439,16 +5206,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H29">
         <v>48934</v>
@@ -2462,16 +5229,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>169680</v>
@@ -2485,16 +5252,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>46686</v>
@@ -2508,16 +5275,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>188538</v>
@@ -2531,16 +5298,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>27828</v>
@@ -2554,16 +5321,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H34">
         <v>146310</v>
@@ -2577,16 +5344,16 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H35">
         <v>70056</v>
@@ -2600,16 +5367,16 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>155810</v>
@@ -2623,16 +5390,16 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>60556</v>
@@ -2646,16 +5413,16 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H38">
         <v>123569</v>
@@ -2669,16 +5436,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
         <v>97</v>
       </c>
-      <c r="B39" t="s">
-        <v>100</v>
-      </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>51258</v>
@@ -2692,16 +5459,16 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>35361</v>
@@ -2715,16 +5482,16 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>6178</v>
@@ -2738,10 +5505,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C42" s="8">
         <v>216366</v>
@@ -2749,10 +5516,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2760,10 +5527,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C44">
         <v>17</v>
@@ -2771,10 +5538,10 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C45">
         <v>30</v>
@@ -2782,10 +5549,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C46">
         <v>481</v>
@@ -2793,10 +5560,10 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2804,10 +5571,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>69</v>
@@ -2815,10 +5582,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>251.1</v>
@@ -2826,10 +5593,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C50" s="8">
         <v>1233</v>
@@ -2837,10 +5604,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2848,10 +5615,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>39</v>
@@ -2859,10 +5626,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <v>57.3</v>
@@ -2870,10 +5637,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C54">
         <v>522</v>
@@ -2881,10 +5648,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2892,10 +5659,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C56" s="8">
         <v>2556</v>
@@ -2903,10 +5670,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C57" s="10">
         <v>3301.7</v>
@@ -2914,10 +5681,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C58" s="8">
         <v>14970</v>
@@ -2925,10 +5692,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2936,10 +5703,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -2947,10 +5714,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C61">
         <v>9</v>
@@ -2958,10 +5725,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C62">
         <v>41</v>

--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Dropbox (University of Michigan)/projects/dissertation/aim_one/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C303E4E-93B9-7249-9B2E-A22AACFEC889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47267E53-1CE0-F842-8195-A355E38D4DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="205">
   <si>
     <t>Unweighted</t>
   </si>
@@ -436,15 +436,6 @@
   </si>
   <si>
     <t>AOU*</t>
-  </si>
-  <si>
-    <t>IPW weighted</t>
-  </si>
-  <si>
-    <t>AOU</t>
-  </si>
-  <si>
-    <t>Poststratification weighted</t>
   </si>
   <si>
     <t>Coronary Heart Disease</t>
@@ -740,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -757,11 +748,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -810,11 +810,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -844,26 +840,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1180,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B51DE-992F-124D-82CC-B35D567452BB}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1191,79 +1180,45 @@
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="4"/>
-    <col min="8" max="8" width="5.7109375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="12.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="21"/>
+    <row r="1" spans="1:4" ht="32" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20"/>
       <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="1:10" ht="33" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="17">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="32">
         <f>mgi_unweighted!C2</f>
         <v>81254</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="32">
         <f>ukb_unweighted!C2</f>
         <v>408771</v>
       </c>
@@ -1272,44 +1227,38 @@
         <v>216366</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="5" customHeight="1">
+    <row r="5" spans="1:4" ht="5" customHeight="1">
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="27" t="str">
+      <c r="B7" s="25" t="str">
         <f>mgi_unweighted!C3</f>
         <v>57.48 (16.97)</v>
       </c>
-      <c r="C7" s="27" t="str">
+      <c r="C7" s="25" t="str">
         <f>ukb_unweighted!C3</f>
         <v>71.03 (8.07)</v>
       </c>
-      <c r="D7" s="27" t="str">
+      <c r="D7" s="25" t="str">
         <f>aou_unweighted!C3</f>
         <v>53.67 (17.20)</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1326,7 +1275,7 @@
         <v xml:space="preserve"> 0.0 (52)</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1343,7 +1292,7 @@
         <v xml:space="preserve"> 0.8 (1,802)</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1360,7 +1309,7 @@
         <v>10.4 (22,541)</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1377,7 +1326,7 @@
         <v>14.4 (31,175)</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1343,7 @@
         <v>14.0 (30,384)</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1411,7 +1360,7 @@
         <v>19.5 (42,195)</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1428,7 +1377,7 @@
         <v>21.3 (46,059)</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1445,7 +1394,7 @@
         <v>14.9 (32,252)</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1462,87 +1411,69 @@
         <v xml:space="preserve"> 4.6 (9,906)</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="29" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="27" t="str">
+      <c r="B19" s="25" t="str">
         <f>mgi_unweighted!C13</f>
         <v>46.2 (37,549)</v>
       </c>
-      <c r="C19" s="27" t="str">
+      <c r="C19" s="25" t="str">
         <f>ukb_unweighted!C13</f>
         <v>44.6 (182,393)</v>
       </c>
-      <c r="D19" s="27" t="str">
+      <c r="D19" s="25" t="str">
         <f>aou_unweighted!C13</f>
         <v>37.3 (80,753)</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="30" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="27" t="str">
+      <c r="B20" s="25" t="str">
         <f>mgi_unweighted!C14</f>
         <v>53.8 (43,705)</v>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="25" t="str">
         <f>ukb_unweighted!C14</f>
         <v>55.4 (226,378)</v>
       </c>
-      <c r="D20" s="27" t="str">
+      <c r="D20" s="25" t="str">
         <f>aou_unweighted!C14</f>
         <v>62.7 (135,613)</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B22" s="4" t="str">
         <f>mgi_unweighted!C19</f>
         <v xml:space="preserve"> 0.5 (395)</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -1559,7 +1490,7 @@
         <v xml:space="preserve"> 2.5 (5,508)</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
@@ -1576,7 +1507,7 @@
         <v>19.0 (41,070)</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -1585,44 +1516,44 @@
         <v xml:space="preserve"> 2.7 (2,180)</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D25" s="4" t="str">
         <f>aou_unweighted!C17</f>
         <v>19.1 (41,353)</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D26" s="4" t="str">
         <f>aou_unweighted!C18</f>
         <v xml:space="preserve"> 0.5 (1,178)</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D27" s="4" t="str">
         <f>aou_unweighted!C19</f>
         <v xml:space="preserve"> 1.5 (3,272)</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -1631,29 +1562,29 @@
         <v xml:space="preserve"> 0.0 (4)</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D28" s="4" t="str">
         <f>aou_unweighted!C20</f>
         <v xml:space="preserve"> 0.1 (219)</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>ukb_unweighted!C18</f>
         <v xml:space="preserve"> 0.9 (3,605)</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -1670,7 +1601,7 @@
         <v xml:space="preserve"> 2.8 (6,047)</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -1687,34 +1618,28 @@
         <v>54.4 (117,719)</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="31" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="27" t="str">
+      <c r="B32" s="25" t="str">
         <f>mgi_unweighted!C23</f>
         <v>29.94 (7.26)</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="27" t="str">
+      <c r="C32" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="25" t="str">
         <f>aou_unweighted!C23</f>
         <v>30.06 (7.70)</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-    </row>
-    <row r="33" spans="1:10">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -1723,14 +1648,14 @@
         <v xml:space="preserve"> 1.1 (865)</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D34" s="4" t="str">
         <f>aou_unweighted!C24</f>
         <v xml:space="preserve"> 1.3 (2,667)</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -1739,14 +1664,14 @@
         <v>24.7 (20,029)</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D35" s="4" t="str">
         <f>aou_unweighted!C25</f>
         <v>25.5 (53,089)</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -1755,14 +1680,14 @@
         <v>32.0 (25,958)</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D36" s="4" t="str">
         <f>aou_unweighted!C26</f>
         <v>30.5 (63,275)</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -1771,37 +1696,31 @@
         <v>42.3 (34,288)</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D37" s="4" t="str">
         <f>aou_unweighted!C27</f>
         <v>42.7 (88,757)</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="31" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="27" t="str">
+      <c r="B38" s="25" t="str">
         <f>mgi_unweighted!C29</f>
         <v>48.6 (39,523)</v>
       </c>
-      <c r="C38" s="27" t="str">
+      <c r="C38" s="25" t="str">
         <f>ukb_unweighted!C21</f>
         <v>79.0 (323,009)</v>
       </c>
-      <c r="D38" s="27" t="str">
+      <c r="D38" s="25" t="str">
         <f>aou_unweighted!C29</f>
         <v>22.6 (48,934)</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-    </row>
-    <row r="39" spans="1:10">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
         <v>115</v>
       </c>
@@ -1818,30 +1737,24 @@
         <v>21.6 (46,686)</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="27" t="str">
+    <row r="40" spans="1:4">
+      <c r="A40" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="25" t="str">
         <f>mgi_unweighted!C33</f>
         <v>16.5 (13,407)</v>
       </c>
-      <c r="C40" s="27" t="str">
+      <c r="C40" s="25" t="str">
         <f>ukb_unweighted!C26</f>
         <v xml:space="preserve"> 6.9 (28,077)</v>
       </c>
-      <c r="D40" s="27" t="str">
+      <c r="D40" s="25" t="str">
         <f>aou_unweighted!C33</f>
         <v>12.9 (27,828)</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-    </row>
-    <row r="41" spans="1:10">
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="6" t="s">
         <v>116</v>
       </c>
@@ -1858,35 +1771,29 @@
         <v>32.4 (70,056)</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="31" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="27" t="str">
+      <c r="B42" s="25" t="str">
         <f>mgi_unweighted!C37</f>
         <v>33.9 (27,573)</v>
       </c>
-      <c r="C42" s="27" t="str">
+      <c r="C42" s="25" t="str">
         <f>ukb_unweighted!C30</f>
         <v xml:space="preserve"> 0.1 (613)</v>
       </c>
-      <c r="D42" s="27" t="str">
+      <c r="D42" s="25" t="str">
         <f>aou_unweighted!C37</f>
         <v>28.0 (60,556)</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-    </row>
-    <row r="43" spans="1:10">
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>95</v>
       </c>
@@ -1895,14 +1802,14 @@
         <v>53.4 (43,245)</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D44" s="4" t="str" cm="1">
         <f t="array" ref="D44:D47">aou_unweighted!C38:C41</f>
         <v>57.1 (123,569)</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -1911,13 +1818,13 @@
         <v>36.8 (29,816)</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D45" s="4" t="str">
         <v>23.7 (51,258)</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -1926,13 +1833,13 @@
         <v xml:space="preserve"> 9.8 (7,901)</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D46" s="4" t="str">
         <v>16.3 (35,361)</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -1941,130 +1848,100 @@
         <v xml:space="preserve"> 0.0 (0)</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D47" s="4" t="str">
         <v xml:space="preserve"> 2.9 (6,178)</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="5" customHeight="1"/>
-    <row r="49" spans="1:10">
+    <row r="48" spans="1:4" ht="5" customHeight="1"/>
+    <row r="49" spans="1:4">
       <c r="A49" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="32" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="25">
         <f>mgi_unweighted!C43</f>
         <v>1</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="25">
         <f>ukb_unweighted!C32</f>
         <v>1</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="25">
         <f>aou_unweighted!C43</f>
         <v>1</v>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="32" t="s">
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="25">
         <f>mgi_unweighted!C44</f>
         <v>55</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="25">
         <f>ukb_unweighted!C33</f>
         <v>3</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="25">
         <f>aou_unweighted!C44</f>
         <v>17</v>
       </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="32" t="s">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="25">
         <f>mgi_unweighted!C45</f>
         <v>104.5</v>
       </c>
-      <c r="C53" s="27">
+      <c r="C53" s="25">
         <f>ukb_unweighted!C34</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="25">
         <f>aou_unweighted!C45</f>
         <v>30</v>
       </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="32" t="s">
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54" s="25">
         <f>mgi_unweighted!C46</f>
         <v>1836</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="25">
         <f>ukb_unweighted!C35</f>
         <v>89</v>
       </c>
-      <c r="D54" s="27">
+      <c r="D54" s="25">
         <f>aou_unweighted!C46</f>
         <v>481</v>
       </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-    </row>
-    <row r="55" spans="1:10">
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:4">
       <c r="A56" s="14" t="s">
         <v>120</v>
       </c>
@@ -2073,14 +1950,14 @@
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D56" s="4">
         <f>aou_unweighted!C47</f>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:4">
       <c r="A57" s="14" t="s">
         <v>121</v>
       </c>
@@ -2089,14 +1966,14 @@
         <v>784</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D57" s="4">
         <f>aou_unweighted!C48</f>
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:4">
       <c r="A58" s="14" t="s">
         <v>122</v>
       </c>
@@ -2105,14 +1982,14 @@
         <v>13790.9</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="4">
         <f>aou_unweighted!C49</f>
         <v>251.1</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:4">
       <c r="A59" s="14" t="s">
         <v>123</v>
       </c>
@@ -2121,125 +1998,95 @@
         <v>79826</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="4">
         <f>aou_unweighted!C50</f>
         <v>1233</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="32" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="27">
+      <c r="B61" s="25">
         <f>mgi_unweighted!C51</f>
         <v>1</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="25">
         <f>ukb_unweighted!C40</f>
         <v>1</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="25">
         <f>aou_unweighted!C51</f>
         <v>1</v>
       </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="32" t="s">
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B62" s="25">
         <f>mgi_unweighted!C52</f>
         <v>53</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62" s="25">
         <f>ukb_unweighted!C41</f>
         <v>9</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62" s="25">
         <f>aou_unweighted!C52</f>
         <v>39</v>
       </c>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="32" t="s">
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="25">
         <f>mgi_unweighted!C53</f>
         <v>74.400000000000006</v>
       </c>
-      <c r="C63" s="27">
+      <c r="C63" s="25">
         <f>ukb_unweighted!C42</f>
         <v>13.6</v>
       </c>
-      <c r="D63" s="27">
+      <c r="D63" s="25">
         <f>aou_unweighted!C53</f>
         <v>57.3</v>
       </c>
-      <c r="E63" s="26"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="32" t="s">
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="B64" s="27">
+      <c r="B64" s="25">
         <f>mgi_unweighted!C54</f>
         <v>588</v>
       </c>
-      <c r="C64" s="27">
+      <c r="C64" s="25">
         <f>ukb_unweighted!C43</f>
         <v>236</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D64" s="25">
         <f>aou_unweighted!C54</f>
         <v>522</v>
       </c>
-      <c r="E64" s="26"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-    </row>
-    <row r="65" spans="1:10">
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="14" t="s">
         <v>120</v>
       </c>
@@ -2256,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:4">
       <c r="A67" s="14" t="s">
         <v>121</v>
       </c>
@@ -2273,7 +2120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:4">
       <c r="A68" s="14" t="s">
         <v>122</v>
       </c>
@@ -2290,7 +2137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:4">
       <c r="A69" s="17" t="s">
         <v>123</v>
       </c>
@@ -2306,93 +2153,56 @@
         <f>aou_unweighted!C62</f>
         <v>41</v>
       </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-    </row>
-    <row r="71" spans="1:10" ht="16" customHeight="1">
-      <c r="A71" s="41" t="s">
+    </row>
+    <row r="70" spans="1:4" ht="34" customHeight="1">
+      <c r="A70" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+    </row>
+    <row r="71" spans="1:4" ht="16" customHeight="1">
+      <c r="A71" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="35" t="s">
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="35" t="s">
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-    </row>
-    <row r="74" spans="1:10" ht="32" customHeight="1">
-      <c r="A74" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+    </row>
+    <row r="74" spans="1:4" ht="32" customHeight="1">
+      <c r="A74" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2454,13 +2264,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -2489,7 +2299,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -2512,7 +2322,7 @@
         <v>45218</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -2535,7 +2345,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -2558,7 +2368,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
@@ -2581,7 +2391,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -2604,7 +2414,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
@@ -2627,7 +2437,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -2650,7 +2460,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -2673,7 +2483,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
@@ -2693,10 +2503,10 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -2716,10 +2526,10 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
@@ -2739,10 +2549,10 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
@@ -2765,7 +2575,7 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
@@ -2785,10 +2595,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -2811,7 +2621,7 @@
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -2831,10 +2641,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
@@ -2854,10 +2664,10 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
@@ -2877,10 +2687,10 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
@@ -2903,7 +2713,7 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -2926,7 +2736,7 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -2955,7 +2765,7 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -2978,7 +2788,7 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
@@ -3001,7 +2811,7 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
@@ -3024,7 +2834,7 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -3047,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
@@ -3070,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
@@ -3093,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
         <v>38</v>
@@ -3116,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
@@ -3139,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
@@ -3162,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
@@ -3185,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
@@ -3208,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -3231,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -3254,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
@@ -3277,7 +3087,7 @@
         <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D38" t="s">
         <v>38</v>
@@ -3300,7 +3110,7 @@
         <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
         <v>38</v>
@@ -3323,7 +3133,7 @@
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D40" t="s">
         <v>38</v>
@@ -3346,7 +3156,7 @@
         <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
         <v>38</v>
@@ -3652,13 +3462,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -3687,7 +3497,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -3710,7 +3520,7 @@
         <v>45218</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -3733,7 +3543,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -3756,7 +3566,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
@@ -3779,7 +3589,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -3802,7 +3612,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
@@ -3825,7 +3635,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -3848,7 +3658,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -3871,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
@@ -3894,7 +3704,7 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -3917,7 +3727,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
@@ -3940,7 +3750,7 @@
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
@@ -3963,7 +3773,7 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
@@ -3986,7 +3796,7 @@
         <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -4006,10 +3816,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -4029,10 +3839,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
@@ -4055,7 +3865,7 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
@@ -4078,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
@@ -4101,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -4124,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
@@ -4147,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -4170,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
@@ -4193,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
@@ -4216,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -4239,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
@@ -4262,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
@@ -4285,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
         <v>38</v>

--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Dropbox (University of Michigan)/projects/dissertation/aim_one/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47267E53-1CE0-F842-8195-A355E38D4DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB9D1E4-0404-E149-9644-BCDC4B851727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
   </bookViews>
@@ -843,16 +843,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1183,12 +1183,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="20"/>
@@ -2155,44 +2155,44 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="34" customHeight="1">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
     </row>
     <row r="71" spans="1:4" ht="16" customHeight="1">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
     </row>
     <row r="74" spans="1:4" ht="32" customHeight="1">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Dropbox (University of Michigan)/projects/dissertation/aim_one/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB9D1E4-0404-E149-9644-BCDC4B851727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ED564B-4EDF-D645-99B0-5E0E9C412437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="mgi_unweighted" sheetId="3" r:id="rId2"/>
-    <sheet name="ukb_unweighted" sheetId="4" r:id="rId3"/>
-    <sheet name="aou_unweighted" sheetId="2" r:id="rId4"/>
+    <sheet name="ukb_check" sheetId="5" r:id="rId2"/>
+    <sheet name="ukb_all" sheetId="6" r:id="rId3"/>
+    <sheet name="ukb_ip" sheetId="7" r:id="rId4"/>
+    <sheet name="mgi_unweighted" sheetId="3" r:id="rId5"/>
+    <sheet name="ukb_unweighted" sheetId="4" r:id="rId6"/>
+    <sheet name="aou_unweighted" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="348">
   <si>
     <t>Unweighted</t>
   </si>
@@ -686,6 +689,435 @@
   </si>
   <si>
     <t>† UK Biobank data only provided first occurrence of each unique phecode. This means that individuals could have encounters that were not reported or extend beyond their last encounter if no unique diagnoses were recorded at that visit.</t>
+  </si>
+  <si>
+    <t>57.06 (8.1)</t>
+  </si>
+  <si>
+    <t>UKB (all)</t>
+  </si>
+  <si>
+    <t>UKB (in phenome)</t>
+  </si>
+  <si>
+    <t>rowname</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>sub_var</t>
+  </si>
+  <si>
+    <t>raw_mean</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>57.03 (8.09)</t>
+  </si>
+  <si>
+    <t>age_verbose30-39</t>
+  </si>
+  <si>
+    <t>0.00 (5)</t>
+  </si>
+  <si>
+    <t>age_verbose40-49</t>
+  </si>
+  <si>
+    <t>0.23 (117,193)</t>
+  </si>
+  <si>
+    <t>age_verbose50-59</t>
+  </si>
+  <si>
+    <t>0.33 (166,730)</t>
+  </si>
+  <si>
+    <t>age_verbose60-69</t>
+  </si>
+  <si>
+    <t>0.43 (215,338)</t>
+  </si>
+  <si>
+    <t>age_verbose70-79</t>
+  </si>
+  <si>
+    <t>0.01 (3,145)</t>
+  </si>
+  <si>
+    <t>age_verboseNA</t>
+  </si>
+  <si>
+    <t>0.00 (2)</t>
+  </si>
+  <si>
+    <t>sexFemale</t>
+  </si>
+  <si>
+    <t>0.54 (273,328)</t>
+  </si>
+  <si>
+    <t>sexMale</t>
+  </si>
+  <si>
+    <t>0.46 (229,085)</t>
+  </si>
+  <si>
+    <t>race_ethAsian</t>
+  </si>
+  <si>
+    <t>0.04 (19,132)</t>
+  </si>
+  <si>
+    <t>race_ethBlack</t>
+  </si>
+  <si>
+    <t>0.01 (2,872)</t>
+  </si>
+  <si>
+    <t>race_ethMore than one population</t>
+  </si>
+  <si>
+    <t>0.04 (18,903)</t>
+  </si>
+  <si>
+    <t>race_ethOther</t>
+  </si>
+  <si>
+    <t>0.01 (4,557)</t>
+  </si>
+  <si>
+    <t>race_ethUnknown</t>
+  </si>
+  <si>
+    <t>0.00 (1,878)</t>
+  </si>
+  <si>
+    <t>race_ethWhite</t>
+  </si>
+  <si>
+    <t>0.90 (454,173)</t>
+  </si>
+  <si>
+    <t>race_ethNA</t>
+  </si>
+  <si>
+    <t>0.00 (898)</t>
+  </si>
+  <si>
+    <t>cancer0</t>
+  </si>
+  <si>
+    <t>0.64 (323,628)</t>
+  </si>
+  <si>
+    <t>cancer1</t>
+  </si>
+  <si>
+    <t>0.17 (85,888)</t>
+  </si>
+  <si>
+    <t>cancerNA</t>
+  </si>
+  <si>
+    <t>0.18 (92,897)</t>
+  </si>
+  <si>
+    <t>diabetes0</t>
+  </si>
+  <si>
+    <t>diabetes1</t>
+  </si>
+  <si>
+    <t>diabetesNA</t>
+  </si>
+  <si>
+    <t>cad0</t>
+  </si>
+  <si>
+    <t>cad1</t>
+  </si>
+  <si>
+    <t>cadNA</t>
+  </si>
+  <si>
+    <t>anxiety0</t>
+  </si>
+  <si>
+    <t>anxiety1</t>
+  </si>
+  <si>
+    <t>anxietyNA</t>
+  </si>
+  <si>
+    <t>depression0</t>
+  </si>
+  <si>
+    <t>0.81 (408,900)</t>
+  </si>
+  <si>
+    <t>depression1</t>
+  </si>
+  <si>
+    <t>0.00 (616)</t>
+  </si>
+  <si>
+    <t>depressionNA</t>
+  </si>
+  <si>
+    <t>smokerCurrent</t>
+  </si>
+  <si>
+    <t>smoker</t>
+  </si>
+  <si>
+    <t>0.11 (52,962)</t>
+  </si>
+  <si>
+    <t>smokerNever</t>
+  </si>
+  <si>
+    <t>0.54 (273,478)</t>
+  </si>
+  <si>
+    <t>smokerPast</t>
+  </si>
+  <si>
+    <t>0.34 (173,025)</t>
+  </si>
+  <si>
+    <t>smokerNA</t>
+  </si>
+  <si>
+    <t>0.01 (2,948)</t>
+  </si>
+  <si>
+    <t>57.59 (8.04)</t>
+  </si>
+  <si>
+    <t>0.00 (3)</t>
+  </si>
+  <si>
+    <t>0.21 (87,421)</t>
+  </si>
+  <si>
+    <t>0.32 (131,378)</t>
+  </si>
+  <si>
+    <t>0.46 (187,822)</t>
+  </si>
+  <si>
+    <t>0.01 (2,891)</t>
+  </si>
+  <si>
+    <t>0.00 (1)</t>
+  </si>
+  <si>
+    <t>0.55 (226,754)</t>
+  </si>
+  <si>
+    <t>0.45 (182,762)</t>
+  </si>
+  <si>
+    <t>0.04 (14,727)</t>
+  </si>
+  <si>
+    <t>0.01 (2,215)</t>
+  </si>
+  <si>
+    <t>0.04 (15,359)</t>
+  </si>
+  <si>
+    <t>0.01 (3,605)</t>
+  </si>
+  <si>
+    <t>0.00 (1,527)</t>
+  </si>
+  <si>
+    <t>0.91 (371,338)</t>
+  </si>
+  <si>
+    <t>0.00 (745)</t>
+  </si>
+  <si>
+    <t>0.79 (323,628)</t>
+  </si>
+  <si>
+    <t>0.21 (85,888)</t>
+  </si>
+  <si>
+    <t>1.00 (408,900)</t>
+  </si>
+  <si>
+    <t>0.11 (44,580)</t>
+  </si>
+  <si>
+    <t>0.53 (216,925)</t>
+  </si>
+  <si>
+    <t>0.36 (145,496)</t>
+  </si>
+  <si>
+    <t>0.01 (2,515)</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>27.43 (4.80)</t>
+  </si>
+  <si>
+    <t>bmi_catHealthy [18.5, 25)</t>
+  </si>
+  <si>
+    <t>bmi_cat</t>
+  </si>
+  <si>
+    <t>0.32 (162,374)</t>
+  </si>
+  <si>
+    <t>bmi_catObese [30+)</t>
+  </si>
+  <si>
+    <t>0.24 (122,230)</t>
+  </si>
+  <si>
+    <t>bmi_catOverweight [25, 30)</t>
+  </si>
+  <si>
+    <t>0.42 (212,079)</t>
+  </si>
+  <si>
+    <t>bmi_catUnderweight (&lt;18.5)</t>
+  </si>
+  <si>
+    <t>0.01 (2,626)</t>
+  </si>
+  <si>
+    <t>bmi_catNA</t>
+  </si>
+  <si>
+    <t>0.01 (3,104)</t>
+  </si>
+  <si>
+    <t>drinker</t>
+  </si>
+  <si>
+    <t>0.04 (22,381)</t>
+  </si>
+  <si>
+    <t>0.04 (18,094)</t>
+  </si>
+  <si>
+    <t>0.92 (460,286)</t>
+  </si>
+  <si>
+    <t>0.75 (378,208)</t>
+  </si>
+  <si>
+    <t>0.06 (31,308)</t>
+  </si>
+  <si>
+    <t>0.76 (381,368)</t>
+  </si>
+  <si>
+    <t>0.06 (28,148)</t>
+  </si>
+  <si>
+    <t>0.79 (397,048)</t>
+  </si>
+  <si>
+    <t>0.02 (12,468)</t>
+  </si>
+  <si>
+    <t>drinkerCurrent</t>
+  </si>
+  <si>
+    <t>drinkerNever</t>
+  </si>
+  <si>
+    <t>drinkerPast</t>
+  </si>
+  <si>
+    <t>drinkerNA</t>
+  </si>
+  <si>
+    <t>0.00 (1,652)</t>
+  </si>
+  <si>
+    <t>Drinker</t>
+  </si>
+  <si>
+    <t>27.62 (4.89)</t>
+  </si>
+  <si>
+    <t>0.31 (126,980)</t>
+  </si>
+  <si>
+    <t>0.26 (105,227)</t>
+  </si>
+  <si>
+    <t>0.42 (172,480)</t>
+  </si>
+  <si>
+    <t>0.01 (2,107)</t>
+  </si>
+  <si>
+    <t>0.01 (2,722)</t>
+  </si>
+  <si>
+    <t>0.92 (378,208)</t>
+  </si>
+  <si>
+    <t>0.08 (31,308)</t>
+  </si>
+  <si>
+    <t>0.93 (381,368)</t>
+  </si>
+  <si>
+    <t>0.07 (28,148)</t>
+  </si>
+  <si>
+    <t>0.97 (397,048)</t>
+  </si>
+  <si>
+    <t>0.03 (12,468)</t>
+  </si>
+  <si>
+    <t>0.91 (373,267)</t>
+  </si>
+  <si>
+    <t>0.05 (18,872)</t>
+  </si>
+  <si>
+    <t>0.04 (15,990)</t>
+  </si>
+  <si>
+    <t>0.00 (1,387)</t>
+  </si>
+  <si>
+    <t>older</t>
+  </si>
+  <si>
+    <t>more female</t>
+  </si>
+  <si>
+    <t>more white</t>
+  </si>
+  <si>
+    <t>higher bmi</t>
+  </si>
+  <si>
+    <t>more former smokers</t>
+  </si>
+  <si>
+    <t>fewer current drinkers</t>
   </si>
 </sst>
 </file>
@@ -761,7 +1193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -854,6 +1286,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B51DE-992F-124D-82CC-B35D567452BB}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1219,8 +1661,7 @@
         <v>81254</v>
       </c>
       <c r="C4" s="32">
-        <f>ukb_unweighted!C2</f>
-        <v>408771</v>
+        <v>468015</v>
       </c>
       <c r="D4" s="11">
         <f>aou_unweighted!C2</f>
@@ -1244,9 +1685,8 @@
         <f>mgi_unweighted!C3</f>
         <v>57.48 (16.97)</v>
       </c>
-      <c r="C7" s="25" t="str">
-        <f>ukb_unweighted!C3</f>
-        <v>71.03 (8.07)</v>
+      <c r="C7" s="25" t="s">
+        <v>205</v>
       </c>
       <c r="D7" s="25" t="str">
         <f>aou_unweighted!C3</f>
@@ -2210,6 +2650,3117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A77B419-D923-A146-8FAB-CF6618E54F68}">
+  <dimension ref="A1:D74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="32">
+        <f>ukb_all!G2</f>
+        <v>502413</v>
+      </c>
+      <c r="C2" s="32">
+        <f>ukb_ip!G2</f>
+        <v>409516</v>
+      </c>
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>0.81509833543319943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="25" t="str">
+        <f>ukb_all!H2</f>
+        <v>57.03 (8.09)</v>
+      </c>
+      <c r="C5" s="25" t="str">
+        <f>ukb_ip!H2</f>
+        <v>57.59 (8.04)</v>
+      </c>
+      <c r="D5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f>ukb_all!H3</f>
+        <v>0.00 (5)</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>ukb_ip!H3</f>
+        <v>0.00 (3)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f>ukb_all!H4</f>
+        <v>0.23 (117,193)</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>ukb_ip!H4</f>
+        <v>0.21 (87,421)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>ukb_all!H5</f>
+        <v>0.33 (166,730)</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>ukb_ip!H5</f>
+        <v>0.32 (131,378)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f>ukb_all!H6</f>
+        <v>0.43 (215,338)</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>ukb_ip!H6</f>
+        <v>0.46 (187,822)</v>
+      </c>
+      <c r="D13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>ukb_all!H7</f>
+        <v>0.01 (3,145)</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>ukb_ip!H7</f>
+        <v>0.01 (2,891)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>ukb_all!H8</f>
+        <v>0.00 (2)</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>ukb_ip!H8</f>
+        <v>0.00 (1)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="25" t="str">
+        <f>ukb_all!H10</f>
+        <v>0.46 (229,085)</v>
+      </c>
+      <c r="C17" s="25" t="str">
+        <f>ukb_ip!H10</f>
+        <v>0.45 (182,762)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="25" t="str">
+        <f>ukb_all!H9</f>
+        <v>0.54 (273,328)</v>
+      </c>
+      <c r="C18" s="25" t="str">
+        <f>ukb_ip!H9</f>
+        <v>0.55 (226,754)</v>
+      </c>
+      <c r="D18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>ukb_all!H11</f>
+        <v>0.04 (19,132)</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>ukb_ip!H11</f>
+        <v>0.04 (14,727)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>ukb_all!H12</f>
+        <v>0.01 (2,872)</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>ukb_ip!H12</f>
+        <v>0.01 (2,215)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>ukb_all!H13</f>
+        <v>0.04 (18,903)</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>ukb_ip!H13</f>
+        <v>0.04 (15,359)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>ukb_all!H14</f>
+        <v>0.01 (4,557)</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>ukb_ip!H14</f>
+        <v>0.01 (3,605)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f>ukb_all!H15</f>
+        <v>0.00 (1,878)</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>ukb_ip!H15</f>
+        <v>0.00 (1,527)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>ukb_all!H16</f>
+        <v>0.90 (454,173)</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>ukb_ip!H16</f>
+        <v>0.91 (371,338)</v>
+      </c>
+      <c r="D29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f>ukb_all!H17</f>
+        <v>0.00 (898)</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f>ukb_ip!H17</f>
+        <v>0.00 (745)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="25" t="str">
+        <f>ukb_all!H18</f>
+        <v>27.43 (4.80)</v>
+      </c>
+      <c r="C31" s="25" t="str">
+        <f>ukb_ip!H18</f>
+        <v>27.62 (4.89)</v>
+      </c>
+      <c r="D31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f>ukb_all!H22</f>
+        <v>0.01 (2,626)</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f>ukb_ip!H22</f>
+        <v>0.01 (2,107)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f>ukb_all!H19</f>
+        <v>0.32 (162,374)</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f>ukb_ip!H19</f>
+        <v>0.31 (126,980)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f>ukb_all!H21</f>
+        <v>0.42 (212,079)</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <f>ukb_ip!H21</f>
+        <v>0.42 (172,480)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f>ukb_all!H20</f>
+        <v>0.24 (122,230)</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f>ukb_ip!H20</f>
+        <v>0.26 (105,227)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f>ukb_all!H23</f>
+        <v>0.01 (3,104)</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f>ukb_ip!H23</f>
+        <v>0.01 (2,722)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="25" t="str">
+        <f>ukb_ip!H25</f>
+        <v>0.21 (85,888)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f>ukb_ip!H27</f>
+        <v>0.08 (31,308)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="25" t="str">
+        <f>ukb_ip!H29</f>
+        <v>0.07 (28,148)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f>ukb_ip!H31</f>
+        <v>0.03 (12,468)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="25" t="str">
+        <f>ukb_ip!H33</f>
+        <v>0.00 (616)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f>ukb_all!H40</f>
+        <v>0.54 (273,478)</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f>ukb_ip!H35</f>
+        <v>0.53 (216,925)</v>
+      </c>
+      <c r="D44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f>ukb_all!H41</f>
+        <v>0.34 (173,025)</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f>ukb_ip!H36</f>
+        <v>0.36 (145,496)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f>ukb_all!H39</f>
+        <v>0.11 (52,962)</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f>ukb_ip!H34</f>
+        <v>0.11 (44,580)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f>ukb_all!H42</f>
+        <v>0.01 (2,948)</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f>ukb_ip!H37</f>
+        <v>0.01 (2,515)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="str">
+        <f>ukb_all!H44</f>
+        <v>0.04 (22,381)</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f>ukb_ip!H39</f>
+        <v>0.05 (18,872)</v>
+      </c>
+      <c r="D49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="str">
+        <f>ukb_all!H45</f>
+        <v>0.04 (18,094)</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f>ukb_ip!H40</f>
+        <v>0.04 (15,990)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="str">
+        <f>ukb_all!H43</f>
+        <v>0.92 (460,286)</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f>ukb_ip!H38</f>
+        <v>0.91 (373,267)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="str">
+        <f>ukb_all!H46</f>
+        <v>0.00 (1,652)</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f>ukb_ip!H41</f>
+        <v>0.00 (1,387)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="25">
+        <f>ukb_ip!H43</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="25">
+        <f>ukb_ip!H44</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="25">
+        <f>ukb_ip!H45</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="25">
+        <f>ukb_ip!H46</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="4">
+        <f>ukb_ip!H47</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="4">
+        <f>ukb_ip!H48</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="4">
+        <f>ukb_ip!H49</f>
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="4">
+        <f>ukb_ip!H50</f>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="25">
+        <f>ukb_ip!H51</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="25">
+        <f>ukb_ip!H52</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="25">
+        <f>ukb_ip!H53</f>
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="25">
+        <f>ukb_ip!H54</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="4">
+        <f>ukb_ip!H59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="4">
+        <f>ukb_ip!H60</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="4">
+        <f>ukb_ip!H61</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="18">
+        <f>ukb_ip!H62</f>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAAA6E5-6456-1F41-A75B-6D22A70A30D2}">
+  <dimension ref="A1:J67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2">
+        <v>57.030951949698597</v>
+      </c>
+      <c r="E2">
+        <v>8.0907384559252904</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>502413</v>
+      </c>
+      <c r="H2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="37">
+        <v>9.9519717841696005E-6</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0.23326028586043801</v>
+      </c>
+      <c r="G4">
+        <v>117193</v>
+      </c>
+      <c r="H4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>0.33185845111491902</v>
+      </c>
+      <c r="G5">
+        <v>166730</v>
+      </c>
+      <c r="H5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0.42860754001190299</v>
+      </c>
+      <c r="G6">
+        <v>215338</v>
+      </c>
+      <c r="H6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>6.2597902522426802E-3</v>
+      </c>
+      <c r="G7">
+        <v>3145</v>
+      </c>
+      <c r="H7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="37">
+        <v>3.9807887136678398E-6</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.54403050876470205</v>
+      </c>
+      <c r="G9">
+        <v>273328</v>
+      </c>
+      <c r="H9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>0.45596949123529901</v>
+      </c>
+      <c r="G10">
+        <v>229085</v>
+      </c>
+      <c r="H10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>3.8080224834946497E-2</v>
+      </c>
+      <c r="G11">
+        <v>19132</v>
+      </c>
+      <c r="H11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12">
+        <v>5.7164125928270198E-3</v>
+      </c>
+      <c r="G12">
+        <v>2872</v>
+      </c>
+      <c r="H12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>3.7624424527231602E-2</v>
+      </c>
+      <c r="G13">
+        <v>18903</v>
+      </c>
+      <c r="H13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14">
+        <v>9.0702270840921691E-3</v>
+      </c>
+      <c r="G14">
+        <v>4557</v>
+      </c>
+      <c r="H14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>3.7379606021341002E-3</v>
+      </c>
+      <c r="G15">
+        <v>1878</v>
+      </c>
+      <c r="H15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>0.90398337622633196</v>
+      </c>
+      <c r="G16">
+        <v>454173</v>
+      </c>
+      <c r="H16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>1.7873741324368601E-3</v>
+      </c>
+      <c r="G17">
+        <v>898</v>
+      </c>
+      <c r="H17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18">
+        <v>27.432708630527401</v>
+      </c>
+      <c r="E18">
+        <v>4.8028924971222997</v>
+      </c>
+      <c r="F18">
+        <v>3104</v>
+      </c>
+      <c r="G18">
+        <v>502413</v>
+      </c>
+      <c r="H18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19">
+        <v>0.32318829329655102</v>
+      </c>
+      <c r="G19">
+        <v>162374</v>
+      </c>
+      <c r="H19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <v>0.24328590223581001</v>
+      </c>
+      <c r="G20">
+        <v>122230</v>
+      </c>
+      <c r="H20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>0.42212084480298101</v>
+      </c>
+      <c r="G21">
+        <v>212079</v>
+      </c>
+      <c r="H21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22">
+        <v>5.2267755810458697E-3</v>
+      </c>
+      <c r="G22">
+        <v>2626</v>
+      </c>
+      <c r="H22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B23" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23">
+        <v>6.17818408361249E-3</v>
+      </c>
+      <c r="G23">
+        <v>3104</v>
+      </c>
+      <c r="H23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.64414734491344805</v>
+      </c>
+      <c r="G24">
+        <v>323628</v>
+      </c>
+      <c r="H24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.17095099051975199</v>
+      </c>
+      <c r="G25">
+        <v>85888</v>
+      </c>
+      <c r="H25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26">
+        <v>0.18490166456680099</v>
+      </c>
+      <c r="G26">
+        <v>92897</v>
+      </c>
+      <c r="H26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0.75278306890944302</v>
+      </c>
+      <c r="G27">
+        <v>378208</v>
+      </c>
+      <c r="H27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>6.23152665237564E-2</v>
+      </c>
+      <c r="G28">
+        <v>31308</v>
+      </c>
+      <c r="H28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29">
+        <v>0.18490166456680099</v>
+      </c>
+      <c r="G29">
+        <v>92897</v>
+      </c>
+      <c r="H29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.759072715077038</v>
+      </c>
+      <c r="G30">
+        <v>381368</v>
+      </c>
+      <c r="H30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>5.6025620356161203E-2</v>
+      </c>
+      <c r="G31">
+        <v>28148</v>
+      </c>
+      <c r="H31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32">
+        <v>0.18490166456680099</v>
+      </c>
+      <c r="G32">
+        <v>92897</v>
+      </c>
+      <c r="H32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0.790282098592194</v>
+      </c>
+      <c r="G33">
+        <v>397048</v>
+      </c>
+      <c r="H33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2.4816236841005299E-2</v>
+      </c>
+      <c r="G34">
+        <v>12468</v>
+      </c>
+      <c r="H34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35">
+        <v>0.18490166456680099</v>
+      </c>
+      <c r="G35">
+        <v>92897</v>
+      </c>
+      <c r="H35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0.81387225250938999</v>
+      </c>
+      <c r="G36">
+        <v>408900</v>
+      </c>
+      <c r="H36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1.2260829238096901E-3</v>
+      </c>
+      <c r="G37">
+        <v>616</v>
+      </c>
+      <c r="H37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38">
+        <v>0.18490166456680099</v>
+      </c>
+      <c r="G38">
+        <v>92897</v>
+      </c>
+      <c r="H38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39">
+        <v>0.105415265926638</v>
+      </c>
+      <c r="G39">
+        <v>52962</v>
+      </c>
+      <c r="H39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40">
+        <v>0.54432906791822699</v>
+      </c>
+      <c r="G40">
+        <v>273478</v>
+      </c>
+      <c r="H40" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41">
+        <v>0.344387983591189</v>
+      </c>
+      <c r="G41">
+        <v>173025</v>
+      </c>
+      <c r="H41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42">
+        <v>5.8676825639463999E-3</v>
+      </c>
+      <c r="G42">
+        <v>2948</v>
+      </c>
+      <c r="H42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>320</v>
+      </c>
+      <c r="B43" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43">
+        <v>0.91615065692965802</v>
+      </c>
+      <c r="G43">
+        <v>460286</v>
+      </c>
+      <c r="H43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>321</v>
+      </c>
+      <c r="B44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44">
+        <v>4.4547016100299999E-2</v>
+      </c>
+      <c r="G44">
+        <v>22381</v>
+      </c>
+      <c r="H44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>322</v>
+      </c>
+      <c r="B45" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45">
+        <v>3.60141954925529E-2</v>
+      </c>
+      <c r="G45">
+        <v>18094</v>
+      </c>
+      <c r="H45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" t="s">
+        <v>310</v>
+      </c>
+      <c r="D46">
+        <v>3.28813147748964E-3</v>
+      </c>
+      <c r="G46">
+        <v>1652</v>
+      </c>
+      <c r="H46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="H47" s="8">
+        <v>409516</v>
+      </c>
+      <c r="I47" t="s">
+        <v>102</v>
+      </c>
+      <c r="J47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>104</v>
+      </c>
+      <c r="J48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10">
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>104</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10">
+      <c r="H50">
+        <v>4.5</v>
+      </c>
+      <c r="I50" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10">
+      <c r="H51">
+        <v>89</v>
+      </c>
+      <c r="I51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10">
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>107</v>
+      </c>
+      <c r="J52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10">
+      <c r="H53">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>107</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10">
+      <c r="H54">
+        <v>67.3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>107</v>
+      </c>
+      <c r="J54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10">
+      <c r="H55">
+        <v>352</v>
+      </c>
+      <c r="I55" t="s">
+        <v>107</v>
+      </c>
+      <c r="J55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10">
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10">
+      <c r="H57">
+        <v>9</v>
+      </c>
+      <c r="I57" t="s">
+        <v>108</v>
+      </c>
+      <c r="J57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10">
+      <c r="H58">
+        <v>13.6</v>
+      </c>
+      <c r="I58" t="s">
+        <v>108</v>
+      </c>
+      <c r="J58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="8:10">
+      <c r="H59">
+        <v>236</v>
+      </c>
+      <c r="I59" t="s">
+        <v>108</v>
+      </c>
+      <c r="J59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10">
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>109</v>
+      </c>
+      <c r="J60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="8:10">
+      <c r="H61" s="8">
+        <v>2745</v>
+      </c>
+      <c r="I61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10">
+      <c r="H62" s="10">
+        <v>2948.1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>109</v>
+      </c>
+      <c r="J62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="8:10">
+      <c r="H63" s="8">
+        <v>13218</v>
+      </c>
+      <c r="I63" t="s">
+        <v>109</v>
+      </c>
+      <c r="J63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="8:10">
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>110</v>
+      </c>
+      <c r="J64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="8:10">
+      <c r="H65">
+        <v>7.5</v>
+      </c>
+      <c r="I65" t="s">
+        <v>110</v>
+      </c>
+      <c r="J65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="8:10">
+      <c r="H66">
+        <v>8.1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>110</v>
+      </c>
+      <c r="J66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="8:10">
+      <c r="H67">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="I67" t="s">
+        <v>110</v>
+      </c>
+      <c r="J67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD575C29-578C-A14A-A734-07B45BD9415B}">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2">
+        <v>57.586047641722502</v>
+      </c>
+      <c r="E2">
+        <v>8.0426858669386299</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>409516</v>
+      </c>
+      <c r="H2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="37">
+        <v>7.3257210951464698E-6</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0.2134739546196</v>
+      </c>
+      <c r="G4">
+        <v>87421</v>
+      </c>
+      <c r="H4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>0.32081286201271803</v>
+      </c>
+      <c r="G5">
+        <v>131378</v>
+      </c>
+      <c r="H5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0.45864386251086697</v>
+      </c>
+      <c r="G6">
+        <v>187822</v>
+      </c>
+      <c r="H6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>7.0595532286894802E-3</v>
+      </c>
+      <c r="G7">
+        <v>2891</v>
+      </c>
+      <c r="H7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="37">
+        <v>2.4419070317154901E-6</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.553712187069614</v>
+      </c>
+      <c r="G9">
+        <v>226754</v>
+      </c>
+      <c r="H9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>0.446287812930386</v>
+      </c>
+      <c r="G10">
+        <v>182762</v>
+      </c>
+      <c r="H10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>3.5961964856074002E-2</v>
+      </c>
+      <c r="G11">
+        <v>14727</v>
+      </c>
+      <c r="H11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12">
+        <v>5.4088240752498103E-3</v>
+      </c>
+      <c r="G12">
+        <v>2215</v>
+      </c>
+      <c r="H12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>3.7505250100118202E-2</v>
+      </c>
+      <c r="G13">
+        <v>15359</v>
+      </c>
+      <c r="H13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14">
+        <v>8.80307484933434E-3</v>
+      </c>
+      <c r="G14">
+        <v>3605</v>
+      </c>
+      <c r="H14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>3.7287920374295502E-3</v>
+      </c>
+      <c r="G15">
+        <v>1527</v>
+      </c>
+      <c r="H15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>0.90677287334316603</v>
+      </c>
+      <c r="G16">
+        <v>371338</v>
+      </c>
+      <c r="H16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>1.8192207386280401E-3</v>
+      </c>
+      <c r="G17">
+        <v>745</v>
+      </c>
+      <c r="H17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18">
+        <v>27.6166589580967</v>
+      </c>
+      <c r="E18">
+        <v>4.8909261032006404</v>
+      </c>
+      <c r="F18">
+        <v>2722</v>
+      </c>
+      <c r="G18">
+        <v>409516</v>
+      </c>
+      <c r="H18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19">
+        <v>0.31007335488723298</v>
+      </c>
+      <c r="G19">
+        <v>126980</v>
+      </c>
+      <c r="H19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <v>0.25695455122632599</v>
+      </c>
+      <c r="G20">
+        <v>105227</v>
+      </c>
+      <c r="H20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>0.42118012483028699</v>
+      </c>
+      <c r="G21">
+        <v>172480</v>
+      </c>
+      <c r="H21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22">
+        <v>5.1450981158245399E-3</v>
+      </c>
+      <c r="G22">
+        <v>2107</v>
+      </c>
+      <c r="H22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B23" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23">
+        <v>6.6468709403295599E-3</v>
+      </c>
+      <c r="G23">
+        <v>2722</v>
+      </c>
+      <c r="H23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.79026948886002002</v>
+      </c>
+      <c r="G24">
+        <v>323628</v>
+      </c>
+      <c r="H24" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.20973051113998001</v>
+      </c>
+      <c r="G25">
+        <v>85888</v>
+      </c>
+      <c r="H25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.92354877465105101</v>
+      </c>
+      <c r="G26">
+        <v>378208</v>
+      </c>
+      <c r="H26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>7.6451225348948507E-2</v>
+      </c>
+      <c r="G27">
+        <v>31308</v>
+      </c>
+      <c r="H27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0.93126520087127196</v>
+      </c>
+      <c r="G28">
+        <v>381368</v>
+      </c>
+      <c r="H28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>6.8734799128727597E-2</v>
+      </c>
+      <c r="G29">
+        <v>28148</v>
+      </c>
+      <c r="H29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.96955430312857105</v>
+      </c>
+      <c r="G30">
+        <v>397048</v>
+      </c>
+      <c r="H30" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>3.0445696871428701E-2</v>
+      </c>
+      <c r="G31">
+        <v>12468</v>
+      </c>
+      <c r="H31" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0.99849578526846305</v>
+      </c>
+      <c r="G32">
+        <v>408900</v>
+      </c>
+      <c r="H32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1.5042147315367401E-3</v>
+      </c>
+      <c r="G33">
+        <v>616</v>
+      </c>
+      <c r="H33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34">
+        <v>0.108860215473876</v>
+      </c>
+      <c r="G34">
+        <v>44580</v>
+      </c>
+      <c r="H34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35">
+        <v>0.52971068285488199</v>
+      </c>
+      <c r="G35">
+        <v>216925</v>
+      </c>
+      <c r="H35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36">
+        <v>0.35528770548647698</v>
+      </c>
+      <c r="G36">
+        <v>145496</v>
+      </c>
+      <c r="H36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37">
+        <v>6.1413961847644498E-3</v>
+      </c>
+      <c r="G37">
+        <v>2515</v>
+      </c>
+      <c r="H37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>320</v>
+      </c>
+      <c r="B38" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38">
+        <v>0.911483312007345</v>
+      </c>
+      <c r="G38">
+        <v>373267</v>
+      </c>
+      <c r="H38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>321</v>
+      </c>
+      <c r="B39" t="s">
+        <v>310</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39">
+        <v>4.6083669502534702E-2</v>
+      </c>
+      <c r="G39">
+        <v>18872</v>
+      </c>
+      <c r="H39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B40" t="s">
+        <v>310</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40">
+        <v>3.9046093437130697E-2</v>
+      </c>
+      <c r="G40">
+        <v>15990</v>
+      </c>
+      <c r="H40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" t="s">
+        <v>310</v>
+      </c>
+      <c r="D41">
+        <v>3.3869250529893801E-3</v>
+      </c>
+      <c r="G41">
+        <v>1387</v>
+      </c>
+      <c r="H41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="H42" s="8">
+        <v>409516</v>
+      </c>
+      <c r="I42" t="s">
+        <v>102</v>
+      </c>
+      <c r="J42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>104</v>
+      </c>
+      <c r="J43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="H45">
+        <v>4.5</v>
+      </c>
+      <c r="I45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="H46">
+        <v>89</v>
+      </c>
+      <c r="I46" t="s">
+        <v>104</v>
+      </c>
+      <c r="J46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="H48">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>107</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10">
+      <c r="H49">
+        <v>67.3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>107</v>
+      </c>
+      <c r="J49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10">
+      <c r="H50">
+        <v>352</v>
+      </c>
+      <c r="I50" t="s">
+        <v>107</v>
+      </c>
+      <c r="J50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10">
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>108</v>
+      </c>
+      <c r="J51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10">
+      <c r="H52">
+        <v>9</v>
+      </c>
+      <c r="I52" t="s">
+        <v>108</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10">
+      <c r="H53">
+        <v>13.6</v>
+      </c>
+      <c r="I53" t="s">
+        <v>108</v>
+      </c>
+      <c r="J53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10">
+      <c r="H54">
+        <v>236</v>
+      </c>
+      <c r="I54" t="s">
+        <v>108</v>
+      </c>
+      <c r="J54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10">
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>109</v>
+      </c>
+      <c r="J55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10">
+      <c r="H56" s="8">
+        <v>2745</v>
+      </c>
+      <c r="I56" t="s">
+        <v>109</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10">
+      <c r="H57" s="10">
+        <v>2948.1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>109</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10">
+      <c r="H58" s="8">
+        <v>13218</v>
+      </c>
+      <c r="I58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="8:10">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>110</v>
+      </c>
+      <c r="J59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10">
+      <c r="H60">
+        <v>7.5</v>
+      </c>
+      <c r="I60" t="s">
+        <v>110</v>
+      </c>
+      <c r="J60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="8:10">
+      <c r="H61">
+        <v>8.1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>110</v>
+      </c>
+      <c r="J61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10">
+      <c r="H62">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="I62" t="s">
+        <v>110</v>
+      </c>
+      <c r="J62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A93AC7-3FA7-1D42-AD6E-1B11AA38B449}">
   <dimension ref="A1:J62"/>
   <sheetViews>
@@ -3407,7 +6958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C873B9-ED57-D54A-96A0-0EC3F5B920F4}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -4346,7 +7897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63E1CF2-8B7A-F54D-B99D-95894D646652}">
   <dimension ref="A1:J62"/>
   <sheetViews>

--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Dropbox (University of Michigan)/projects/dissertation/aim_one/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ED564B-4EDF-D645-99B0-5E0E9C412437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B4D119-E5AF-8D48-86C6-71ABD3563C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="275">
   <si>
     <t>Unweighted</t>
   </si>
@@ -415,9 +415,6 @@
   </si>
   <si>
     <t>Anxiety</t>
-  </si>
-  <si>
-    <t>Depression</t>
   </si>
   <si>
     <t>Smoking</t>
@@ -700,408 +697,33 @@
     <t>UKB (in phenome)</t>
   </si>
   <si>
-    <t>rowname</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>sub_var</t>
-  </si>
-  <si>
-    <t>raw_mean</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>57.03 (8.09)</t>
   </si>
   <si>
-    <t>age_verbose30-39</t>
-  </si>
-  <si>
-    <t>0.00 (5)</t>
-  </si>
-  <si>
-    <t>age_verbose40-49</t>
-  </si>
-  <si>
-    <t>0.23 (117,193)</t>
-  </si>
-  <si>
-    <t>age_verbose50-59</t>
-  </si>
-  <si>
-    <t>0.33 (166,730)</t>
-  </si>
-  <si>
-    <t>age_verbose60-69</t>
-  </si>
-  <si>
-    <t>0.43 (215,338)</t>
-  </si>
-  <si>
-    <t>age_verbose70-79</t>
-  </si>
-  <si>
-    <t>0.01 (3,145)</t>
-  </si>
-  <si>
-    <t>age_verboseNA</t>
-  </si>
-  <si>
-    <t>0.00 (2)</t>
-  </si>
-  <si>
-    <t>sexFemale</t>
-  </si>
-  <si>
-    <t>0.54 (273,328)</t>
-  </si>
-  <si>
-    <t>sexMale</t>
-  </si>
-  <si>
-    <t>0.46 (229,085)</t>
-  </si>
-  <si>
-    <t>race_ethAsian</t>
-  </si>
-  <si>
-    <t>0.04 (19,132)</t>
-  </si>
-  <si>
-    <t>race_ethBlack</t>
-  </si>
-  <si>
-    <t>0.01 (2,872)</t>
-  </si>
-  <si>
-    <t>race_ethMore than one population</t>
-  </si>
-  <si>
-    <t>0.04 (18,903)</t>
-  </si>
-  <si>
-    <t>race_ethOther</t>
-  </si>
-  <si>
-    <t>0.01 (4,557)</t>
-  </si>
-  <si>
-    <t>race_ethUnknown</t>
-  </si>
-  <si>
-    <t>0.00 (1,878)</t>
-  </si>
-  <si>
-    <t>race_ethWhite</t>
-  </si>
-  <si>
-    <t>0.90 (454,173)</t>
-  </si>
-  <si>
-    <t>race_ethNA</t>
-  </si>
-  <si>
-    <t>0.00 (898)</t>
-  </si>
-  <si>
-    <t>cancer0</t>
-  </si>
-  <si>
-    <t>0.64 (323,628)</t>
-  </si>
-  <si>
-    <t>cancer1</t>
-  </si>
-  <si>
-    <t>0.17 (85,888)</t>
-  </si>
-  <si>
-    <t>cancerNA</t>
-  </si>
-  <si>
-    <t>0.18 (92,897)</t>
-  </si>
-  <si>
-    <t>diabetes0</t>
-  </si>
-  <si>
-    <t>diabetes1</t>
-  </si>
-  <si>
-    <t>diabetesNA</t>
-  </si>
-  <si>
-    <t>cad0</t>
-  </si>
-  <si>
-    <t>cad1</t>
-  </si>
-  <si>
-    <t>cadNA</t>
-  </si>
-  <si>
-    <t>anxiety0</t>
-  </si>
-  <si>
-    <t>anxiety1</t>
-  </si>
-  <si>
-    <t>anxietyNA</t>
-  </si>
-  <si>
-    <t>depression0</t>
-  </si>
-  <si>
-    <t>0.81 (408,900)</t>
-  </si>
-  <si>
-    <t>depression1</t>
-  </si>
-  <si>
-    <t>0.00 (616)</t>
-  </si>
-  <si>
-    <t>depressionNA</t>
-  </si>
-  <si>
-    <t>smokerCurrent</t>
-  </si>
-  <si>
     <t>smoker</t>
   </si>
   <si>
-    <t>0.11 (52,962)</t>
-  </si>
-  <si>
-    <t>smokerNever</t>
-  </si>
-  <si>
-    <t>0.54 (273,478)</t>
-  </si>
-  <si>
-    <t>smokerPast</t>
-  </si>
-  <si>
-    <t>0.34 (173,025)</t>
-  </si>
-  <si>
-    <t>smokerNA</t>
-  </si>
-  <si>
-    <t>0.01 (2,948)</t>
-  </si>
-  <si>
     <t>57.59 (8.04)</t>
   </si>
   <si>
-    <t>0.00 (3)</t>
-  </si>
-  <si>
-    <t>0.21 (87,421)</t>
-  </si>
-  <si>
-    <t>0.32 (131,378)</t>
-  </si>
-  <si>
-    <t>0.46 (187,822)</t>
-  </si>
-  <si>
-    <t>0.01 (2,891)</t>
-  </si>
-  <si>
-    <t>0.00 (1)</t>
-  </si>
-  <si>
-    <t>0.55 (226,754)</t>
-  </si>
-  <si>
-    <t>0.45 (182,762)</t>
-  </si>
-  <si>
-    <t>0.04 (14,727)</t>
-  </si>
-  <si>
-    <t>0.01 (2,215)</t>
-  </si>
-  <si>
-    <t>0.04 (15,359)</t>
-  </si>
-  <si>
-    <t>0.01 (3,605)</t>
-  </si>
-  <si>
-    <t>0.00 (1,527)</t>
-  </si>
-  <si>
-    <t>0.91 (371,338)</t>
-  </si>
-  <si>
-    <t>0.00 (745)</t>
-  </si>
-  <si>
-    <t>0.79 (323,628)</t>
-  </si>
-  <si>
-    <t>0.21 (85,888)</t>
-  </si>
-  <si>
-    <t>1.00 (408,900)</t>
-  </si>
-  <si>
-    <t>0.11 (44,580)</t>
-  </si>
-  <si>
-    <t>0.53 (216,925)</t>
-  </si>
-  <si>
-    <t>0.36 (145,496)</t>
-  </si>
-  <si>
-    <t>0.01 (2,515)</t>
-  </si>
-  <si>
     <t>Missing</t>
   </si>
   <si>
     <t>27.43 (4.80)</t>
   </si>
   <si>
-    <t>bmi_catHealthy [18.5, 25)</t>
-  </si>
-  <si>
     <t>bmi_cat</t>
   </si>
   <si>
-    <t>0.32 (162,374)</t>
-  </si>
-  <si>
-    <t>bmi_catObese [30+)</t>
-  </si>
-  <si>
-    <t>0.24 (122,230)</t>
-  </si>
-  <si>
-    <t>bmi_catOverweight [25, 30)</t>
-  </si>
-  <si>
-    <t>0.42 (212,079)</t>
-  </si>
-  <si>
-    <t>bmi_catUnderweight (&lt;18.5)</t>
-  </si>
-  <si>
-    <t>0.01 (2,626)</t>
-  </si>
-  <si>
-    <t>bmi_catNA</t>
-  </si>
-  <si>
-    <t>0.01 (3,104)</t>
-  </si>
-  <si>
     <t>drinker</t>
   </si>
   <si>
-    <t>0.04 (22,381)</t>
-  </si>
-  <si>
-    <t>0.04 (18,094)</t>
-  </si>
-  <si>
-    <t>0.92 (460,286)</t>
-  </si>
-  <si>
-    <t>0.75 (378,208)</t>
-  </si>
-  <si>
-    <t>0.06 (31,308)</t>
-  </si>
-  <si>
-    <t>0.76 (381,368)</t>
-  </si>
-  <si>
-    <t>0.06 (28,148)</t>
-  </si>
-  <si>
-    <t>0.79 (397,048)</t>
-  </si>
-  <si>
-    <t>0.02 (12,468)</t>
-  </si>
-  <si>
-    <t>drinkerCurrent</t>
-  </si>
-  <si>
-    <t>drinkerNever</t>
-  </si>
-  <si>
-    <t>drinkerPast</t>
-  </si>
-  <si>
-    <t>drinkerNA</t>
-  </si>
-  <si>
-    <t>0.00 (1,652)</t>
-  </si>
-  <si>
     <t>Drinker</t>
   </si>
   <si>
     <t>27.62 (4.89)</t>
   </si>
   <si>
-    <t>0.31 (126,980)</t>
-  </si>
-  <si>
-    <t>0.26 (105,227)</t>
-  </si>
-  <si>
-    <t>0.42 (172,480)</t>
-  </si>
-  <si>
-    <t>0.01 (2,107)</t>
-  </si>
-  <si>
-    <t>0.01 (2,722)</t>
-  </si>
-  <si>
-    <t>0.92 (378,208)</t>
-  </si>
-  <si>
-    <t>0.08 (31,308)</t>
-  </si>
-  <si>
-    <t>0.93 (381,368)</t>
-  </si>
-  <si>
-    <t>0.07 (28,148)</t>
-  </si>
-  <si>
-    <t>0.97 (397,048)</t>
-  </si>
-  <si>
-    <t>0.03 (12,468)</t>
-  </si>
-  <si>
-    <t>0.91 (373,267)</t>
-  </si>
-  <si>
-    <t>0.05 (18,872)</t>
-  </si>
-  <si>
-    <t>0.04 (15,990)</t>
-  </si>
-  <si>
-    <t>0.00 (1,387)</t>
-  </si>
-  <si>
     <t>older</t>
   </si>
   <si>
@@ -1118,6 +740,165 @@
   </si>
   <si>
     <t>fewer current drinkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0 (5)</t>
+  </si>
+  <si>
+    <t>23.3 (117,193)</t>
+  </si>
+  <si>
+    <t>33.2 (166,730)</t>
+  </si>
+  <si>
+    <t>42.9 (215,338)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6 (3,145)</t>
+  </si>
+  <si>
+    <t>45.6 (229,085)</t>
+  </si>
+  <si>
+    <t>54.4 (273,328)</t>
+  </si>
+  <si>
+    <t>90.6 (454,173)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8 (18,903)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8 (19,132)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9 (4,557)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6 (2,872)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4 (1,878)</t>
+  </si>
+  <si>
+    <t>42.5 (212,079)</t>
+  </si>
+  <si>
+    <t>32.5 (162,374)</t>
+  </si>
+  <si>
+    <t>24.5 (122,230)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5 (2,626)</t>
+  </si>
+  <si>
+    <t>21.0 (85,888)</t>
+  </si>
+  <si>
+    <t>79.0 (323,628)</t>
+  </si>
+  <si>
+    <t>92.4 (378,208)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.6 (31,308)</t>
+  </si>
+  <si>
+    <t>93.1 (381,368)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9 (28,148)</t>
+  </si>
+  <si>
+    <t>97.0 (397,048)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0 (12,468)</t>
+  </si>
+  <si>
+    <t>99.8 (408,900)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2 (616)</t>
+  </si>
+  <si>
+    <t>34.6 (173,025)</t>
+  </si>
+  <si>
+    <t>54.8 (273,478)</t>
+  </si>
+  <si>
+    <t>10.6 (52,962)</t>
+  </si>
+  <si>
+    <t>91.9 (460,286)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.5 (22,381)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6 (18,094)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0 (3)</t>
+  </si>
+  <si>
+    <t>21.3 (87,421)</t>
+  </si>
+  <si>
+    <t>32.1 (131,378)</t>
+  </si>
+  <si>
+    <t>45.9 (187,822)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7 (2,891)</t>
+  </si>
+  <si>
+    <t>44.6 (182,762)</t>
+  </si>
+  <si>
+    <t>55.4 (226,754)</t>
+  </si>
+  <si>
+    <t>31.2 (126,980)</t>
+  </si>
+  <si>
+    <t>42.4 (172,480)</t>
+  </si>
+  <si>
+    <t>25.9 (105,227)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5 (2,107)</t>
+  </si>
+  <si>
+    <t>35.7 (145,496)</t>
+  </si>
+  <si>
+    <t>53.3 (216,925)</t>
+  </si>
+  <si>
+    <t>11.0 (44,580)</t>
+  </si>
+  <si>
+    <t>91.5 (373,267)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9 (15,990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.6 (18,872)</t>
+  </si>
+  <si>
+    <t>median?</t>
+  </si>
+  <si>
+    <t>Age at first/last diagnosis</t>
+  </si>
+  <si>
+    <t>Depression (major depressive disorder)</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +930,7 @@
       <name val="ArialMT"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1159,6 +940,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,6 +1062,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1287,14 +1077,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1611,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B51DE-992F-124D-82CC-B35D567452BB}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:A69"/>
+    <sheetView topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1625,20 +1414,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="20"/>
-      <c r="B2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4" ht="17">
       <c r="A3" s="21"/>
@@ -1649,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1686,7 +1475,7 @@
         <v>57.48 (16.97)</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="25" t="str">
         <f>aou_unweighted!C3</f>
@@ -1900,17 +1689,17 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22" s="4" t="str">
         <f>mgi_unweighted!C19</f>
         <v xml:space="preserve"> 0.5 (395)</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1956,7 +1745,7 @@
         <v xml:space="preserve"> 2.7 (2,180)</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D25" s="4" t="str">
         <f>aou_unweighted!C17</f>
@@ -1968,10 +1757,10 @@
         <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" s="4" t="str">
         <f>aou_unweighted!C18</f>
@@ -1983,10 +1772,10 @@
         <v>60</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D27" s="4" t="str">
         <f>aou_unweighted!C19</f>
@@ -2002,7 +1791,7 @@
         <v xml:space="preserve"> 0.0 (4)</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D28" s="4" t="str">
         <f>aou_unweighted!C20</f>
@@ -2011,17 +1800,17 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>ukb_unweighted!C18</f>
         <v xml:space="preserve"> 0.9 (3,605)</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2067,7 +1856,7 @@
         <v>29.94 (7.26)</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D32" s="25" t="str">
         <f>aou_unweighted!C23</f>
@@ -2088,7 +1877,7 @@
         <v xml:space="preserve"> 1.1 (865)</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34" s="4" t="str">
         <f>aou_unweighted!C24</f>
@@ -2104,7 +1893,7 @@
         <v>24.7 (20,029)</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D35" s="4" t="str">
         <f>aou_unweighted!C25</f>
@@ -2120,7 +1909,7 @@
         <v>32.0 (25,958)</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D36" s="4" t="str">
         <f>aou_unweighted!C26</f>
@@ -2136,7 +1925,7 @@
         <v>42.3 (34,288)</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D37" s="4" t="str">
         <f>aou_unweighted!C27</f>
@@ -2179,7 +1968,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="25" t="str">
         <f>mgi_unweighted!C33</f>
@@ -2213,7 +2002,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="29" t="s">
-        <v>117</v>
+        <v>274</v>
       </c>
       <c r="B42" s="25" t="str">
         <f>mgi_unweighted!C37</f>
@@ -2230,7 +2019,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2242,7 +2031,7 @@
         <v>53.4 (43,245)</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D44" s="4" t="str" cm="1">
         <f t="array" ref="D44:D47">aou_unweighted!C38:C41</f>
@@ -2258,7 +2047,7 @@
         <v>36.8 (29,816)</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D45" s="4" t="str">
         <v>23.7 (51,258)</v>
@@ -2273,7 +2062,7 @@
         <v xml:space="preserve"> 9.8 (7,901)</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D46" s="4" t="str">
         <v>16.3 (35,361)</v>
@@ -2288,29 +2077,29 @@
         <v xml:space="preserve"> 0.0 (0)</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47" s="4" t="str">
         <v xml:space="preserve"> 2.9 (6,178)</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="5" customHeight="1"/>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:8">
       <c r="A49" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:8">
       <c r="A51" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B51" s="25">
         <f>mgi_unweighted!C43</f>
@@ -2325,9 +2114,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:8">
       <c r="A52" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52" s="25">
         <f>mgi_unweighted!C44</f>
@@ -2342,9 +2131,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:8">
       <c r="A53" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" s="25">
         <f>mgi_unweighted!C45</f>
@@ -2359,9 +2148,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:8">
       <c r="A54" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="25">
         <f>mgi_unweighted!C46</f>
@@ -2376,86 +2165,86 @@
         <v>481</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:8">
       <c r="A55" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:8">
       <c r="A56" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56" s="4">
         <f>mgi_unweighted!C47</f>
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="4">
         <f>aou_unweighted!C47</f>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:8">
       <c r="A57" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" s="4">
         <f>mgi_unweighted!C48</f>
         <v>784</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="4">
         <f>aou_unweighted!C48</f>
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:8">
       <c r="A58" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" s="4">
         <f>mgi_unweighted!C49</f>
         <v>13790.9</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="4">
         <f>aou_unweighted!C49</f>
         <v>251.1</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:8">
       <c r="A59" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="4">
         <f>mgi_unweighted!C50</f>
         <v>79826</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="4">
         <f>aou_unweighted!C50</f>
         <v>1233</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:8">
       <c r="A60" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:8">
       <c r="A61" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" s="25">
         <f>mgi_unweighted!C51</f>
@@ -2470,9 +2259,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:8">
       <c r="A62" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" s="25">
         <f>mgi_unweighted!C52</f>
@@ -2487,9 +2276,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:8">
       <c r="A63" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="25">
         <f>mgi_unweighted!C53</f>
@@ -2503,10 +2292,19 @@
         <f>aou_unweighted!C53</f>
         <v>57.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" s="25">
         <f>mgi_unweighted!C54</f>
@@ -2523,12 +2321,12 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" s="4">
         <f>mgi_unweighted!C59</f>
@@ -2545,7 +2343,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" s="4">
         <f>mgi_unweighted!C60</f>
@@ -2562,7 +2360,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B68" s="4">
         <f>mgi_unweighted!C61</f>
@@ -2579,7 +2377,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B69" s="18">
         <f>mgi_unweighted!C62</f>
@@ -2595,44 +2393,44 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="34" customHeight="1">
-      <c r="A70" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
+      <c r="A70" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
     </row>
     <row r="71" spans="1:4" ht="16" customHeight="1">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
     </row>
     <row r="74" spans="1:4" ht="32" customHeight="1">
-      <c r="A74" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
+      <c r="A74" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2653,24 +2451,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A77B419-D923-A146-8FAB-CF6618E54F68}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="21"/>
       <c r="B1" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2678,11 +2476,11 @@
         <v>28</v>
       </c>
       <c r="B2" s="32">
-        <f>ukb_all!G2</f>
+        <f>ukb_all!C2</f>
         <v>502413</v>
       </c>
       <c r="C2" s="32">
-        <f>ukb_ip!G2</f>
+        <f>ukb_ip!C2</f>
         <v>409516</v>
       </c>
       <c r="D2">
@@ -2691,14 +2489,12 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:4">
@@ -2706,55 +2502,60 @@
         <v>14</v>
       </c>
       <c r="B5" s="25" t="str">
-        <f>ukb_all!H2</f>
+        <f>ukb_all!C3</f>
         <v>57.03 (8.09)</v>
       </c>
       <c r="C5" s="25" t="str">
-        <f>ukb_ip!H2</f>
+        <f>ukb_ip!C3</f>
         <v>57.59 (8.04)</v>
       </c>
       <c r="D5" t="s">
-        <v>342</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>173</v>
+      <c r="B7" s="4" t="str">
+        <f>ukb_all!C4</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>ukb_ip!C4</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>173</v>
+      <c r="B8" s="4" t="str">
+        <f>ukb_all!C5</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>ukb_ip!C5</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>173</v>
+      <c r="B9" s="4" t="str">
+        <f>ukb_all!C6</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>ukb_ip!C6</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2762,12 +2563,12 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>ukb_all!H3</f>
-        <v>0.00 (5)</v>
+        <f>ukb_all!C7</f>
+        <v xml:space="preserve"> 0.0 (5)</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>ukb_ip!H3</f>
-        <v>0.00 (3)</v>
+        <f>ukb_ip!C7</f>
+        <v xml:space="preserve"> 0.0 (3)</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2775,12 +2576,12 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f>ukb_all!H4</f>
-        <v>0.23 (117,193)</v>
+        <f>ukb_all!C8</f>
+        <v>23.3 (117,193)</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>ukb_ip!H4</f>
-        <v>0.21 (87,421)</v>
+        <f>ukb_ip!C8</f>
+        <v>21.3 (87,421)</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2788,12 +2589,12 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>ukb_all!H5</f>
-        <v>0.33 (166,730)</v>
+        <f>ukb_all!C9</f>
+        <v>33.2 (166,730)</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>ukb_ip!H5</f>
-        <v>0.32 (131,378)</v>
+        <f>ukb_ip!C9</f>
+        <v>32.1 (131,378)</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2801,15 +2602,15 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f>ukb_all!H6</f>
-        <v>0.43 (215,338)</v>
+        <f>ukb_all!C10</f>
+        <v>42.9 (215,338)</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f>ukb_ip!H6</f>
-        <v>0.46 (187,822)</v>
+        <f>ukb_ip!C10</f>
+        <v>45.9 (187,822)</v>
       </c>
       <c r="D13" t="s">
-        <v>342</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2817,12 +2618,12 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f>ukb_all!H7</f>
-        <v>0.01 (3,145)</v>
+        <f>ukb_all!C11</f>
+        <v xml:space="preserve"> 0.6 (3,145)</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>ukb_ip!H7</f>
-        <v>0.01 (2,891)</v>
+        <f>ukb_ip!C11</f>
+        <v xml:space="preserve"> 0.7 (2,891)</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2830,12 +2631,12 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="str">
-        <f>ukb_all!H8</f>
-        <v>0.00 (2)</v>
+        <f>ukb_all!C12</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>ukb_ip!H8</f>
-        <v>0.00 (1)</v>
+        <f>ukb_ip!C12</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2850,12 +2651,12 @@
         <v>48</v>
       </c>
       <c r="B17" s="25" t="str">
-        <f>ukb_all!H10</f>
-        <v>0.46 (229,085)</v>
+        <f>ukb_all!C13</f>
+        <v>45.6 (229,085)</v>
       </c>
       <c r="C17" s="25" t="str">
-        <f>ukb_ip!H10</f>
-        <v>0.45 (182,762)</v>
+        <f>ukb_ip!C13</f>
+        <v>44.6 (182,762)</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2863,33 +2664,32 @@
         <v>3</v>
       </c>
       <c r="B18" s="25" t="str">
-        <f>ukb_all!H9</f>
-        <v>0.54 (273,328)</v>
+        <f>ukb_all!C14</f>
+        <v>54.4 (273,328)</v>
       </c>
       <c r="C18" s="25" t="str">
-        <f>ukb_ip!H9</f>
-        <v>0.55 (226,754)</v>
+        <f>ukb_ip!C14</f>
+        <v>55.4 (226,754)</v>
       </c>
       <c r="D18" t="s">
-        <v>343</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2897,12 +2697,12 @@
         <v>52</v>
       </c>
       <c r="B21" s="4" t="str">
-        <f>ukb_all!H11</f>
-        <v>0.04 (19,132)</v>
+        <f>ukb_all!C17</f>
+        <v xml:space="preserve"> 3.8 (19,132)</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>ukb_ip!H11</f>
-        <v>0.04 (14,727)</v>
+        <f>ukb_ip!C17</f>
+        <v xml:space="preserve"> 3.6 (14,727)</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2910,12 +2710,12 @@
         <v>54</v>
       </c>
       <c r="B22" s="4" t="str">
-        <f>ukb_all!H12</f>
-        <v>0.01 (2,872)</v>
+        <f>ukb_all!C19</f>
+        <v xml:space="preserve"> 0.6 (2,872)</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>ukb_ip!H12</f>
-        <v>0.01 (2,215)</v>
+        <f>ukb_ip!C19</f>
+        <v xml:space="preserve"> 0.5 (2,215)</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2923,10 +2723,10 @@
         <v>56</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2934,10 +2734,10 @@
         <v>58</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2945,12 +2745,12 @@
         <v>60</v>
       </c>
       <c r="B25" s="4" t="str">
-        <f>ukb_all!H13</f>
-        <v>0.04 (18,903)</v>
+        <f>ukb_all!C16</f>
+        <v xml:space="preserve"> 3.8 (18,903)</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>ukb_ip!H13</f>
-        <v>0.04 (15,359)</v>
+        <f>ukb_ip!C16</f>
+        <v xml:space="preserve"> 3.8 (15,359)</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2958,23 +2758,23 @@
         <v>62</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="4" t="str">
-        <f>ukb_all!H14</f>
-        <v>0.01 (4,557)</v>
+        <f>ukb_all!C18</f>
+        <v xml:space="preserve"> 0.9 (4,557)</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>ukb_ip!H14</f>
-        <v>0.01 (3,605)</v>
+        <f>ukb_ip!C18</f>
+        <v xml:space="preserve"> 0.9 (3,605)</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2982,41 +2782,41 @@
         <v>64</v>
       </c>
       <c r="B28" s="4" t="str">
-        <f>ukb_all!H15</f>
-        <v>0.00 (1,878)</v>
+        <f>ukb_all!C21</f>
+        <v xml:space="preserve"> 0.4 (1,878)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>ukb_ip!H15</f>
-        <v>0.00 (1,527)</v>
+        <f>ukb_ip!C21</f>
+        <v xml:space="preserve"> 0.4 (1,527)</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="4" t="str">
-        <f>ukb_all!H16</f>
-        <v>0.90 (454,173)</v>
-      </c>
-      <c r="C29" s="4" t="str">
-        <f>ukb_ip!H16</f>
-        <v>0.91 (371,338)</v>
+      <c r="B29" s="38" t="str">
+        <f>ukb_all!C15</f>
+        <v>90.6 (454,173)</v>
+      </c>
+      <c r="C29" s="38" t="str">
+        <f>ukb_ip!C15</f>
+        <v>90.8 (371,338)</v>
       </c>
       <c r="D29" t="s">
-        <v>344</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="B30" s="4" t="str">
-        <f>ukb_all!H17</f>
-        <v>0.00 (898)</v>
-      </c>
-      <c r="C30" s="4" t="str">
-        <f>ukb_ip!H17</f>
-        <v>0.00 (745)</v>
+      <c r="A30" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="4">
+        <f>ukb_all!I17</f>
+        <v>898</v>
+      </c>
+      <c r="C30" s="32">
+        <f>ukb_ip!I15</f>
+        <v>745</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3024,22 +2824,21 @@
         <v>113</v>
       </c>
       <c r="B31" s="25" t="str">
-        <f>ukb_all!H18</f>
+        <f>ukb_all!C22</f>
         <v>27.43 (4.80)</v>
       </c>
       <c r="C31" s="25" t="str">
-        <f>ukb_ip!H18</f>
+        <f>ukb_ip!C22</f>
         <v>27.62 (4.89)</v>
       </c>
       <c r="D31" t="s">
-        <v>345</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="4"/>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:4">
@@ -3047,12 +2846,12 @@
         <v>71</v>
       </c>
       <c r="B33" s="4" t="str">
-        <f>ukb_all!H22</f>
-        <v>0.01 (2,626)</v>
+        <f>ukb_all!C27</f>
+        <v xml:space="preserve"> 0.5 (2,626)</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f>ukb_ip!H22</f>
-        <v>0.01 (2,107)</v>
+        <f>ukb_ip!C27</f>
+        <v xml:space="preserve"> 0.5 (2,107)</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3060,12 +2859,12 @@
         <v>73</v>
       </c>
       <c r="B34" s="4" t="str">
-        <f>ukb_all!H19</f>
-        <v>0.32 (162,374)</v>
+        <f>ukb_all!C24</f>
+        <v>32.5 (162,374)</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f>ukb_ip!H19</f>
-        <v>0.31 (126,980)</v>
+        <f>ukb_ip!C23</f>
+        <v>31.2 (126,980)</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3073,12 +2872,12 @@
         <v>75</v>
       </c>
       <c r="B35" s="4" t="str">
-        <f>ukb_all!H21</f>
-        <v>0.42 (212,079)</v>
+        <f>ukb_all!C23</f>
+        <v>42.5 (212,079)</v>
       </c>
       <c r="C35" s="4" t="str">
-        <f>ukb_ip!H21</f>
-        <v>0.42 (172,480)</v>
+        <f>ukb_ip!C24</f>
+        <v>42.4 (172,480)</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3086,25 +2885,28 @@
         <v>77</v>
       </c>
       <c r="B36" s="4" t="str">
-        <f>ukb_all!H20</f>
-        <v>0.24 (122,230)</v>
+        <f>ukb_all!C26</f>
+        <v>24.5 (122,230)</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f>ukb_ip!H20</f>
-        <v>0.26 (105,227)</v>
+        <f>ukb_ip!C26</f>
+        <v>25.9 (105,227)</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="B37" s="4" t="str">
-        <f>ukb_all!H23</f>
-        <v>0.01 (3,104)</v>
-      </c>
-      <c r="C37" s="4" t="str">
-        <f>ukb_ip!H23</f>
-        <v>0.01 (2,722)</v>
+      <c r="A37" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="39">
+        <f>ukb_all!I22</f>
+        <v>3104</v>
+      </c>
+      <c r="C37" s="39">
+        <f>ukb_ip!I23</f>
+        <v>2722</v>
+      </c>
+      <c r="D37" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3112,11 +2914,11 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" s="25" t="str">
-        <f>ukb_ip!H25</f>
-        <v>0.21 (85,888)</v>
+        <f>ukb_ip!C28</f>
+        <v>21.0 (85,888)</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3124,23 +2926,23 @@
         <v>115</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f>ukb_ip!H27</f>
-        <v>0.08 (31,308)</v>
+        <f>ukb_ip!C31</f>
+        <v xml:space="preserve"> 7.6 (31,308)</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C40" s="25" t="str">
-        <f>ukb_ip!H29</f>
-        <v>0.07 (28,148)</v>
+        <f>ukb_ip!C33</f>
+        <v xml:space="preserve"> 6.9 (28,148)</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3148,30 +2950,29 @@
         <v>116</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f>ukb_ip!H31</f>
-        <v>0.03 (12,468)</v>
+        <f>ukb_ip!C35</f>
+        <v xml:space="preserve"> 3.0 (12,468)</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="29" t="s">
-        <v>117</v>
+        <v>274</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" s="25" t="str">
-        <f>ukb_ip!H33</f>
-        <v>0.00 (616)</v>
+        <f>ukb_ip!C37</f>
+        <v xml:space="preserve"> 0.2 (616)</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="4"/>
+        <v>117</v>
+      </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:4">
@@ -3179,15 +2980,15 @@
         <v>95</v>
       </c>
       <c r="B44" s="4" t="str">
-        <f>ukb_all!H40</f>
-        <v>0.54 (273,478)</v>
+        <f>ukb_all!C44</f>
+        <v>54.8 (273,478)</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f>ukb_ip!H35</f>
-        <v>0.53 (216,925)</v>
+        <f>ukb_ip!C39</f>
+        <v>53.3 (216,925)</v>
       </c>
       <c r="D44" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3195,12 +2996,12 @@
         <v>97</v>
       </c>
       <c r="B45" s="4" t="str">
-        <f>ukb_all!H41</f>
-        <v>0.34 (173,025)</v>
+        <f>ukb_all!C43</f>
+        <v>34.6 (173,025)</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f>ukb_ip!H36</f>
-        <v>0.36 (145,496)</v>
+        <f>ukb_ip!C38</f>
+        <v>35.7 (145,496)</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3208,146 +3009,147 @@
         <v>99</v>
       </c>
       <c r="B46" s="4" t="str">
-        <f>ukb_all!H39</f>
-        <v>0.11 (52,962)</v>
+        <f>ukb_all!C45</f>
+        <v>10.6 (52,962)</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f>ukb_ip!H34</f>
-        <v>0.11 (44,580)</v>
+        <f>ukb_ip!C40</f>
+        <v>11.0 (44,580)</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="4" t="str">
-        <f>ukb_all!H42</f>
-        <v>0.01 (2,948)</v>
-      </c>
-      <c r="C47" s="4" t="str">
-        <f>ukb_ip!H37</f>
-        <v>0.01 (2,515)</v>
+      <c r="B47" s="32">
+        <f>ukb_all!I44</f>
+        <v>2948</v>
+      </c>
+      <c r="C47" s="32">
+        <f>ukb_ip!I38</f>
+        <v>2515</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="6" t="s">
-        <v>325</v>
-      </c>
+      <c r="A48" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="24"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B49" t="str">
-        <f>ukb_all!H44</f>
-        <v>0.04 (22,381)</v>
-      </c>
-      <c r="C49" s="4" t="str">
-        <f>ukb_ip!H39</f>
-        <v>0.05 (18,872)</v>
+      <c r="B49" s="25" t="str">
+        <f>ukb_all!C48</f>
+        <v xml:space="preserve"> 4.5 (22,381)</v>
+      </c>
+      <c r="C49" s="25" t="str">
+        <f>ukb_ip!C44</f>
+        <v xml:space="preserve"> 4.6 (18,872)</v>
       </c>
       <c r="D49" t="s">
-        <v>347</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B50" t="str">
-        <f>ukb_all!H45</f>
-        <v>0.04 (18,094)</v>
-      </c>
-      <c r="C50" s="4" t="str">
-        <f>ukb_ip!H40</f>
-        <v>0.04 (15,990)</v>
+      <c r="B50" s="25" t="str">
+        <f>ukb_all!C49</f>
+        <v xml:space="preserve"> 3.6 (18,094)</v>
+      </c>
+      <c r="C50" s="25" t="str">
+        <f>ukb_ip!C43</f>
+        <v xml:space="preserve"> 3.9 (15,990)</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B51" t="str">
-        <f>ukb_all!H43</f>
-        <v>0.92 (460,286)</v>
-      </c>
-      <c r="C51" s="4" t="str">
-        <f>ukb_ip!H38</f>
-        <v>0.91 (373,267)</v>
+      <c r="B51" s="25" t="str">
+        <f>ukb_all!C47</f>
+        <v>91.9 (460,286)</v>
+      </c>
+      <c r="C51" s="25" t="str">
+        <f>ukb_ip!C42</f>
+        <v>91.5 (373,267)</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B52" t="str">
-        <f>ukb_all!H46</f>
-        <v>0.00 (1,652)</v>
-      </c>
-      <c r="C52" s="4" t="str">
-        <f>ukb_ip!H41</f>
-        <v>0.00 (1,387)</v>
+      <c r="B52" s="40">
+        <f>ukb_all!I48</f>
+        <v>1652</v>
+      </c>
+      <c r="C52" s="40">
+        <f>ukb_ip!I42</f>
+        <v>1387</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" s="4"/>
+        <v>118</v>
+      </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C56" s="25">
-        <f>ukb_ip!H43</f>
+        <f>ukb_ip!C47</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C57" s="25">
-        <f>ukb_ip!H44</f>
+        <f>ukb_ip!C48</f>
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C58" s="25">
-        <f>ukb_ip!H45</f>
+        <f>ukb_ip!C49</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C59" s="25">
-        <f>ukb_ip!H46</f>
+        <f>ukb_ip!C50</f>
         <v>89</v>
       </c>
     </row>
@@ -3355,164 +3157,165 @@
       <c r="A60" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="4"/>
       <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>173</v>
+        <v>119</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="C61" s="4">
-        <f>ukb_ip!H47</f>
+        <f>ukb_ip!C51</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>173</v>
+        <v>120</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="C62" s="4">
-        <f>ukb_ip!H48</f>
+        <f>ukb_ip!C52</f>
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="39" t="s">
-        <v>173</v>
+        <v>121</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="C63" s="4">
-        <f>ukb_ip!H49</f>
+        <f>ukb_ip!C53</f>
         <v>67.3</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>173</v>
+        <v>122</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="C64" s="4">
-        <f>ukb_ip!H50</f>
+        <f>ukb_ip!C54</f>
         <v>352</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="25">
+        <f>ukb_ip!C55</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C66" s="25">
-        <f>ukb_ip!H51</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="30" t="s">
+      <c r="B67" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="25">
+        <f>ukb_ip!C56</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C67" s="25">
-        <f>ukb_ip!H52</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="30" t="s">
+      <c r="B68" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="38">
+        <f>ukb_ip!C57</f>
+        <v>13.6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C68" s="25">
-        <f>ukb_ip!H53</f>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="30" t="s">
-        <v>123</v>
-      </c>
       <c r="B69" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C69" s="25">
-        <f>ukb_ip!H54</f>
+        <f>ukb_ip!C58</f>
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B70" s="4"/>
+        <v>201</v>
+      </c>
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="4">
+        <f>ukb_ip!C63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B71" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C71" s="4">
-        <f>ukb_ip!H59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="14" t="s">
+      <c r="B72" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="4">
+        <f>ukb_ip!C64</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C72" s="4">
-        <f>ukb_ip!H60</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="14" t="s">
+      <c r="B73" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="4">
+        <f>ukb_ip!C65</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B73" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C73" s="4">
-        <f>ukb_ip!H61</f>
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B74" s="40" t="s">
-        <v>173</v>
+      <c r="B74" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="C74" s="18">
-        <f>ukb_ip!H62</f>
+        <f>ukb_ip!C66</f>
         <v>36.200000000000003</v>
       </c>
     </row>
@@ -3524,1157 +3327,1375 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAAA6E5-6456-1F41-A75B-6D22A70A30D2}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
-        <v>212</v>
-      </c>
       <c r="G1" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2">
-        <v>57.030951949698597</v>
-      </c>
-      <c r="E2">
-        <v>8.0907384559252904</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8">
         <v>502413</v>
-      </c>
-      <c r="H2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="37">
-        <v>9.9519717841696005E-6</v>
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>57.030951949698597</v>
+      </c>
+      <c r="F3">
+        <v>8.0907384559252904</v>
       </c>
       <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>216</v>
+        <v>58.3</v>
+      </c>
+      <c r="H3">
+        <v>502411</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>0.23326028586043801</v>
-      </c>
-      <c r="G4">
-        <v>117193</v>
-      </c>
-      <c r="H4" t="s">
-        <v>218</v>
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" t="s">
         <v>36</v>
       </c>
+      <c r="B5" s="9">
+        <v>45218</v>
+      </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>0.33185845111491902</v>
-      </c>
-      <c r="G5">
-        <v>166730</v>
-      </c>
-      <c r="H5" t="s">
-        <v>220</v>
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0.42860754001190299</v>
-      </c>
-      <c r="G6">
-        <v>215338</v>
-      </c>
-      <c r="H6" t="s">
-        <v>222</v>
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>6.2597902522426802E-3</v>
-      </c>
-      <c r="G7">
-        <v>3145</v>
-      </c>
-      <c r="H7" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="37">
-        <v>3.9807887136678398E-6</v>
-      </c>
-      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>117193</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
-        <v>226</v>
+      <c r="J8">
+        <v>23.3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>0.54403050876470205</v>
-      </c>
-      <c r="G9">
-        <v>273328</v>
-      </c>
-      <c r="H9" t="s">
-        <v>228</v>
+        <v>224</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>166730</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10">
-        <v>0.45596949123529901</v>
-      </c>
-      <c r="G10">
-        <v>229085</v>
-      </c>
-      <c r="H10" t="s">
-        <v>230</v>
+        <v>225</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>215338</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>42.9</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>3.8080224834946497E-2</v>
-      </c>
-      <c r="G11">
-        <v>19132</v>
-      </c>
-      <c r="H11" t="s">
-        <v>232</v>
+        <v>226</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11">
+        <v>3145</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12">
-        <v>5.7164125928270198E-3</v>
-      </c>
-      <c r="G12">
-        <v>2872</v>
-      </c>
-      <c r="H12" t="s">
-        <v>234</v>
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13">
-        <v>3.7624424527231602E-2</v>
-      </c>
-      <c r="G13">
-        <v>18903</v>
-      </c>
-      <c r="H13" t="s">
-        <v>236</v>
+        <v>227</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <v>229085</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>45.6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14">
-        <v>9.0702270840921691E-3</v>
-      </c>
-      <c r="G14">
-        <v>4557</v>
-      </c>
-      <c r="H14" t="s">
-        <v>238</v>
+        <v>228</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>273328</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>54.4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15">
-        <v>3.7379606021341002E-3</v>
-      </c>
-      <c r="G15">
-        <v>1878</v>
-      </c>
-      <c r="H15" t="s">
-        <v>240</v>
+        <v>229</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>454173</v>
+      </c>
+      <c r="I15">
+        <v>898</v>
+      </c>
+      <c r="J15">
+        <v>90.6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>18903</v>
+      </c>
+      <c r="I16">
+        <v>898</v>
+      </c>
+      <c r="J16">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <v>19132</v>
+      </c>
+      <c r="I17">
+        <v>898</v>
+      </c>
+      <c r="J17">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18">
+        <v>4557</v>
+      </c>
+      <c r="I18">
+        <v>898</v>
+      </c>
+      <c r="J18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19">
+        <v>2872</v>
+      </c>
+      <c r="I19">
+        <v>898</v>
+      </c>
+      <c r="J19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>898</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21">
+        <v>1878</v>
+      </c>
+      <c r="I21">
+        <v>898</v>
+      </c>
+      <c r="J21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>27.432708630527401</v>
+      </c>
+      <c r="F22">
+        <v>4.8028924971222997</v>
+      </c>
+      <c r="G22">
+        <v>26.743300000000001</v>
+      </c>
+      <c r="H22">
+        <v>499309</v>
+      </c>
+      <c r="I22">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23">
+        <v>212079</v>
+      </c>
+      <c r="I23">
+        <v>3104</v>
+      </c>
+      <c r="J23">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24">
+        <v>162374</v>
+      </c>
+      <c r="I24">
+        <v>3104</v>
+      </c>
+      <c r="J24">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>3104</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26">
+        <v>122230</v>
+      </c>
+      <c r="I26">
+        <v>3104</v>
+      </c>
+      <c r="J26">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27">
+        <v>2626</v>
+      </c>
+      <c r="I27">
+        <v>3104</v>
+      </c>
+      <c r="J27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>92897</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <v>85888</v>
+      </c>
+      <c r="I29">
+        <v>92897</v>
+      </c>
+      <c r="J29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30">
+        <v>323628</v>
+      </c>
+      <c r="I30">
+        <v>92897</v>
+      </c>
+      <c r="J30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>92897</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
         <v>241</v>
       </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16">
-        <v>0.90398337622633196</v>
-      </c>
-      <c r="G16">
-        <v>454173</v>
-      </c>
-      <c r="H16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17">
-        <v>1.7873741324368601E-3</v>
-      </c>
-      <c r="G17">
-        <v>898</v>
-      </c>
-      <c r="H17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18">
-        <v>27.432708630527401</v>
-      </c>
-      <c r="E18">
-        <v>4.8028924971222997</v>
-      </c>
-      <c r="F18">
-        <v>3104</v>
-      </c>
-      <c r="G18">
-        <v>502413</v>
-      </c>
-      <c r="H18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>299</v>
-      </c>
-      <c r="B19" t="s">
-        <v>300</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19">
-        <v>0.32318829329655102</v>
-      </c>
-      <c r="G19">
-        <v>162374</v>
-      </c>
-      <c r="H19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B20" t="s">
-        <v>300</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20">
-        <v>0.24328590223581001</v>
-      </c>
-      <c r="G20">
-        <v>122230</v>
-      </c>
-      <c r="H20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>304</v>
-      </c>
-      <c r="B21" t="s">
-        <v>300</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21">
-        <v>0.42212084480298101</v>
-      </c>
-      <c r="G21">
-        <v>212079</v>
-      </c>
-      <c r="H21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>306</v>
-      </c>
-      <c r="B22" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22">
-        <v>5.2267755810458697E-3</v>
-      </c>
-      <c r="G22">
-        <v>2626</v>
-      </c>
-      <c r="H22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>308</v>
-      </c>
-      <c r="B23" t="s">
-        <v>300</v>
-      </c>
-      <c r="D23">
-        <v>6.17818408361249E-3</v>
-      </c>
-      <c r="G23">
-        <v>3104</v>
-      </c>
-      <c r="H23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0.64414734491344805</v>
-      </c>
-      <c r="G24">
-        <v>323628</v>
-      </c>
-      <c r="H24" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0.17095099051975199</v>
-      </c>
-      <c r="G25">
-        <v>85888</v>
-      </c>
-      <c r="H25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26">
-        <v>0.18490166456680099</v>
-      </c>
-      <c r="G26">
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32">
+        <v>378208</v>
+      </c>
+      <c r="I32">
         <v>92897</v>
       </c>
-      <c r="H26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>251</v>
-      </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0.75278306890944302</v>
-      </c>
-      <c r="G27">
-        <v>378208</v>
-      </c>
-      <c r="H27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>252</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>6.23152665237564E-2</v>
-      </c>
-      <c r="G28">
-        <v>31308</v>
-      </c>
-      <c r="H28" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>253</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29">
-        <v>0.18490166456680099</v>
-      </c>
-      <c r="G29">
-        <v>92897</v>
-      </c>
-      <c r="H29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>254</v>
-      </c>
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0.759072715077038</v>
-      </c>
-      <c r="G30">
-        <v>381368</v>
-      </c>
-      <c r="H30" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>5.6025620356161203E-2</v>
-      </c>
-      <c r="G31">
-        <v>28148</v>
-      </c>
-      <c r="H31" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>256</v>
-      </c>
-      <c r="B32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32">
-        <v>0.18490166456680099</v>
-      </c>
-      <c r="G32">
-        <v>92897</v>
-      </c>
-      <c r="H32" t="s">
-        <v>250</v>
+      <c r="J32">
+        <v>92.4</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>257</v>
-      </c>
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0.790282098592194</v>
-      </c>
-      <c r="G33">
-        <v>397048</v>
-      </c>
-      <c r="H33" t="s">
-        <v>318</v>
+        <v>82</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>31308</v>
+      </c>
+      <c r="I33">
+        <v>92897</v>
+      </c>
+      <c r="J33">
+        <v>7.6</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>2.4816236841005299E-2</v>
-      </c>
-      <c r="G34">
-        <v>12468</v>
-      </c>
-      <c r="H34" t="s">
-        <v>319</v>
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>92897</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>259</v>
-      </c>
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35">
-        <v>0.18490166456680099</v>
-      </c>
-      <c r="G35">
+        <v>85</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35">
+        <v>381368</v>
+      </c>
+      <c r="I35">
         <v>92897</v>
       </c>
-      <c r="H35" t="s">
-        <v>250</v>
+      <c r="J35">
+        <v>93.1</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>260</v>
-      </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0.81387225250938999</v>
-      </c>
-      <c r="G36">
-        <v>408900</v>
-      </c>
-      <c r="H36" t="s">
-        <v>261</v>
+        <v>85</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36">
+        <v>28148</v>
+      </c>
+      <c r="I36">
+        <v>92897</v>
+      </c>
+      <c r="J36">
+        <v>6.9</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>262</v>
-      </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1.2260829238096901E-3</v>
-      </c>
-      <c r="G37">
-        <v>616</v>
-      </c>
-      <c r="H37" t="s">
-        <v>263</v>
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>92897</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>264</v>
-      </c>
-      <c r="B38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38">
-        <v>0.18490166456680099</v>
-      </c>
-      <c r="G38">
+        <v>88</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38">
+        <v>397048</v>
+      </c>
+      <c r="I38">
         <v>92897</v>
       </c>
-      <c r="H38" t="s">
-        <v>250</v>
+      <c r="J38">
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>265</v>
-      </c>
-      <c r="B39" t="s">
-        <v>266</v>
+        <v>88</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39">
-        <v>0.105415265926638</v>
-      </c>
-      <c r="G39">
-        <v>52962</v>
-      </c>
-      <c r="H39" t="s">
-        <v>267</v>
+        <v>246</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39">
+        <v>12468</v>
+      </c>
+      <c r="I39">
+        <v>92897</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" t="s">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40">
-        <v>0.54432906791822699</v>
-      </c>
-      <c r="G40">
-        <v>273478</v>
-      </c>
-      <c r="H40" t="s">
-        <v>269</v>
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>92897</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>270</v>
-      </c>
-      <c r="B41" t="s">
-        <v>266</v>
+        <v>91</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41">
-        <v>0.344387983591189</v>
-      </c>
-      <c r="G41">
-        <v>173025</v>
-      </c>
-      <c r="H41" t="s">
-        <v>271</v>
+        <v>247</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41">
+        <v>408900</v>
+      </c>
+      <c r="I41">
+        <v>92897</v>
+      </c>
+      <c r="J41">
+        <v>99.8</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>272</v>
-      </c>
-      <c r="B42" t="s">
-        <v>266</v>
-      </c>
-      <c r="D42">
-        <v>5.8676825639463999E-3</v>
-      </c>
-      <c r="G42">
-        <v>2948</v>
-      </c>
-      <c r="H42" t="s">
-        <v>273</v>
+        <v>91</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42">
+        <v>616</v>
+      </c>
+      <c r="I42">
+        <v>92897</v>
+      </c>
+      <c r="J42">
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
-        <v>310</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43">
-        <v>0.91615065692965802</v>
-      </c>
-      <c r="G43">
-        <v>460286</v>
-      </c>
-      <c r="H43" t="s">
-        <v>313</v>
+        <v>249</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43">
+        <v>173025</v>
+      </c>
+      <c r="I43">
+        <v>2948</v>
+      </c>
+      <c r="J43">
+        <v>34.6</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>321</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44">
-        <v>4.4547016100299999E-2</v>
-      </c>
-      <c r="G44">
-        <v>22381</v>
-      </c>
-      <c r="H44" t="s">
-        <v>311</v>
+        <v>250</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44">
+        <v>273478</v>
+      </c>
+      <c r="I44">
+        <v>2948</v>
+      </c>
+      <c r="J44">
+        <v>54.8</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s">
-        <v>310</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45">
-        <v>3.60141954925529E-2</v>
-      </c>
-      <c r="G45">
-        <v>18094</v>
-      </c>
-      <c r="H45" t="s">
-        <v>312</v>
+        <v>251</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45">
+        <v>52962</v>
+      </c>
+      <c r="I45">
+        <v>2948</v>
+      </c>
+      <c r="J45">
+        <v>10.6</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>323</v>
-      </c>
-      <c r="B46" t="s">
-        <v>310</v>
-      </c>
-      <c r="D46">
-        <v>3.28813147748964E-3</v>
-      </c>
-      <c r="G46">
+        <v>208</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>2948</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47">
+        <v>460286</v>
+      </c>
+      <c r="I47">
         <v>1652</v>
       </c>
-      <c r="H46" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="H47" s="8">
+      <c r="J47">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48">
+        <v>22381</v>
+      </c>
+      <c r="I48">
+        <v>1652</v>
+      </c>
+      <c r="J48">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49">
+        <v>18094</v>
+      </c>
+      <c r="I49">
+        <v>1652</v>
+      </c>
+      <c r="J49">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1652</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="8">
         <v>409516</v>
       </c>
-      <c r="I47" t="s">
-        <v>102</v>
-      </c>
-      <c r="J47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="H48">
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="I48" t="s">
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
         <v>104</v>
       </c>
-      <c r="J48" t="s">
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="49" spans="8:10">
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49" t="s">
-        <v>104</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="8:10">
-      <c r="H50">
-        <v>4.5</v>
-      </c>
-      <c r="I50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="C57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="8:10">
-      <c r="H51">
-        <v>89</v>
-      </c>
-      <c r="I51" t="s">
-        <v>104</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="C58">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="52" spans="8:10">
-      <c r="H52">
+      <c r="C59">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60">
         <v>1</v>
       </c>
-      <c r="I52" t="s">
-        <v>107</v>
-      </c>
-      <c r="J52" t="s">
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="53" spans="8:10">
-      <c r="H53">
-        <v>13</v>
-      </c>
-      <c r="I53" t="s">
-        <v>107</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="54" spans="8:10">
-      <c r="H54">
-        <v>67.3</v>
-      </c>
-      <c r="I54" t="s">
-        <v>107</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="C65" s="8">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="8:10">
-      <c r="H55">
-        <v>352</v>
-      </c>
-      <c r="I55" t="s">
-        <v>107</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="C66" s="10">
+        <v>2948.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="8:10">
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
-        <v>108</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="C67" s="8">
+        <v>13218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" spans="8:10">
-      <c r="H57">
-        <v>9</v>
-      </c>
-      <c r="I57" t="s">
-        <v>108</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="58" spans="8:10">
-      <c r="H58">
-        <v>13.6</v>
-      </c>
-      <c r="I58" t="s">
-        <v>108</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="C69">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="8:10">
-      <c r="H59">
-        <v>236</v>
-      </c>
-      <c r="I59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="C70">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="60" spans="8:10">
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60" t="s">
-        <v>109</v>
-      </c>
-      <c r="J60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="8:10">
-      <c r="H61" s="8">
-        <v>2745</v>
-      </c>
-      <c r="I61" t="s">
-        <v>109</v>
-      </c>
-      <c r="J61" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="8:10">
-      <c r="H62" s="10">
-        <v>2948.1</v>
-      </c>
-      <c r="I62" t="s">
-        <v>109</v>
-      </c>
-      <c r="J62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="8:10">
-      <c r="H63" s="8">
-        <v>13218</v>
-      </c>
-      <c r="I63" t="s">
-        <v>109</v>
-      </c>
-      <c r="J63" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="8:10">
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64" t="s">
-        <v>110</v>
-      </c>
-      <c r="J64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="8:10">
-      <c r="H65">
-        <v>7.5</v>
-      </c>
-      <c r="I65" t="s">
-        <v>110</v>
-      </c>
-      <c r="J65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="8:10">
-      <c r="H66">
-        <v>8.1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>110</v>
-      </c>
-      <c r="J66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="8:10">
-      <c r="H67">
+      <c r="C71">
         <v>36.200000000000003</v>
-      </c>
-      <c r="I67" t="s">
-        <v>110</v>
-      </c>
-      <c r="J67" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4684,1075 +4705,1278 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD575C29-578C-A14A-A734-07B45BD9415B}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
-        <v>212</v>
-      </c>
       <c r="G1" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2">
-        <v>57.586047641722502</v>
-      </c>
-      <c r="E2">
-        <v>8.0426858669386299</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8">
         <v>409516</v>
-      </c>
-      <c r="H2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="37">
-        <v>7.3257210951464698E-6</v>
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>57.586047641722502</v>
+      </c>
+      <c r="F3">
+        <v>8.0426858669386299</v>
       </c>
       <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>275</v>
+        <v>59.1</v>
+      </c>
+      <c r="H3">
+        <v>409515</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>0.2134739546196</v>
-      </c>
-      <c r="G4">
-        <v>87421</v>
-      </c>
-      <c r="H4" t="s">
-        <v>276</v>
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" t="s">
         <v>36</v>
       </c>
+      <c r="B5" s="9">
+        <v>45218</v>
+      </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>0.32081286201271803</v>
-      </c>
-      <c r="G5">
-        <v>131378</v>
-      </c>
-      <c r="H5" t="s">
-        <v>277</v>
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0.45864386251086697</v>
-      </c>
-      <c r="G6">
-        <v>187822</v>
-      </c>
-      <c r="H6" t="s">
-        <v>278</v>
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>7.0595532286894802E-3</v>
-      </c>
-      <c r="G7">
-        <v>2891</v>
-      </c>
-      <c r="H7" t="s">
-        <v>279</v>
+        <v>255</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="37">
-        <v>2.4419070317154901E-6</v>
-      </c>
-      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>87421</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
-        <v>280</v>
+      <c r="J8">
+        <v>21.3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>0.553712187069614</v>
-      </c>
-      <c r="G9">
-        <v>226754</v>
-      </c>
-      <c r="H9" t="s">
-        <v>281</v>
+        <v>257</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>131378</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>32.1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10">
-        <v>0.446287812930386</v>
-      </c>
-      <c r="G10">
-        <v>182762</v>
-      </c>
-      <c r="H10" t="s">
-        <v>282</v>
+        <v>258</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>187822</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>45.9</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>3.5961964856074002E-2</v>
-      </c>
-      <c r="G11">
-        <v>14727</v>
-      </c>
-      <c r="H11" t="s">
-        <v>283</v>
+        <v>259</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11">
+        <v>2891</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12">
-        <v>5.4088240752498103E-3</v>
-      </c>
-      <c r="G12">
-        <v>2215</v>
-      </c>
-      <c r="H12" t="s">
-        <v>284</v>
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13">
-        <v>3.7505250100118202E-2</v>
-      </c>
-      <c r="G13">
-        <v>15359</v>
-      </c>
-      <c r="H13" t="s">
-        <v>285</v>
+        <v>260</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <v>182762</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>44.6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14">
-        <v>8.80307484933434E-3</v>
-      </c>
-      <c r="G14">
-        <v>3605</v>
-      </c>
-      <c r="H14" t="s">
-        <v>286</v>
+        <v>261</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>226754</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>55.4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15">
-        <v>3.7287920374295502E-3</v>
-      </c>
-      <c r="G15">
-        <v>1527</v>
-      </c>
-      <c r="H15" t="s">
-        <v>287</v>
+        <v>182</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>371338</v>
+      </c>
+      <c r="I15">
+        <v>745</v>
+      </c>
+      <c r="J15">
+        <v>90.8</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>15359</v>
+      </c>
+      <c r="I16">
+        <v>745</v>
+      </c>
+      <c r="J16">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <v>14727</v>
+      </c>
+      <c r="I17">
+        <v>745</v>
+      </c>
+      <c r="J17">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18">
+        <v>3605</v>
+      </c>
+      <c r="I18">
+        <v>745</v>
+      </c>
+      <c r="J18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19">
+        <v>2215</v>
+      </c>
+      <c r="I19">
+        <v>745</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>745</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21">
+        <v>1527</v>
+      </c>
+      <c r="I21">
+        <v>745</v>
+      </c>
+      <c r="J21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>27.6166589580967</v>
+      </c>
+      <c r="F22">
+        <v>4.8909261032006404</v>
+      </c>
+      <c r="G22">
+        <v>26.910599999999999</v>
+      </c>
+      <c r="H22">
+        <v>406794</v>
+      </c>
+      <c r="I22">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23">
+        <v>126980</v>
+      </c>
+      <c r="I23">
+        <v>2722</v>
+      </c>
+      <c r="J23">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24">
+        <v>172480</v>
+      </c>
+      <c r="I24">
+        <v>2722</v>
+      </c>
+      <c r="J24">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>2722</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26">
+        <v>105227</v>
+      </c>
+      <c r="I26">
+        <v>2722</v>
+      </c>
+      <c r="J26">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27">
+        <v>2107</v>
+      </c>
+      <c r="I27">
+        <v>2722</v>
+      </c>
+      <c r="J27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <v>85888</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <v>323628</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>241</v>
       </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16">
-        <v>0.90677287334316603</v>
-      </c>
-      <c r="G16">
-        <v>371338</v>
-      </c>
-      <c r="H16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30">
+        <v>378208</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31">
+        <v>31308</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
         <v>243</v>
       </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17">
-        <v>1.8192207386280401E-3</v>
-      </c>
-      <c r="G17">
-        <v>745</v>
-      </c>
-      <c r="H17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18">
-        <v>27.6166589580967</v>
-      </c>
-      <c r="E18">
-        <v>4.8909261032006404</v>
-      </c>
-      <c r="F18">
-        <v>2722</v>
-      </c>
-      <c r="G18">
-        <v>409516</v>
-      </c>
-      <c r="H18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>299</v>
-      </c>
-      <c r="B19" t="s">
-        <v>300</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19">
-        <v>0.31007335488723298</v>
-      </c>
-      <c r="G19">
-        <v>126980</v>
-      </c>
-      <c r="H19" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B20" t="s">
-        <v>300</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20">
-        <v>0.25695455122632599</v>
-      </c>
-      <c r="G20">
-        <v>105227</v>
-      </c>
-      <c r="H20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>304</v>
-      </c>
-      <c r="B21" t="s">
-        <v>300</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21">
-        <v>0.42118012483028699</v>
-      </c>
-      <c r="G21">
-        <v>172480</v>
-      </c>
-      <c r="H21" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>306</v>
-      </c>
-      <c r="B22" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22">
-        <v>5.1450981158245399E-3</v>
-      </c>
-      <c r="G22">
-        <v>2107</v>
-      </c>
-      <c r="H22" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>308</v>
-      </c>
-      <c r="B23" t="s">
-        <v>300</v>
-      </c>
-      <c r="D23">
-        <v>6.6468709403295599E-3</v>
-      </c>
-      <c r="G23">
-        <v>2722</v>
-      </c>
-      <c r="H23" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0.79026948886002002</v>
-      </c>
-      <c r="G24">
-        <v>323628</v>
-      </c>
-      <c r="H24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0.20973051113998001</v>
-      </c>
-      <c r="G25">
-        <v>85888</v>
-      </c>
-      <c r="H25" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>251</v>
-      </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0.92354877465105101</v>
-      </c>
-      <c r="G26">
-        <v>378208</v>
-      </c>
-      <c r="H26" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>252</v>
-      </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>7.6451225348948507E-2</v>
-      </c>
-      <c r="G27">
-        <v>31308</v>
-      </c>
-      <c r="H27" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0.93126520087127196</v>
-      </c>
-      <c r="G28">
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32">
         <v>381368</v>
       </c>
-      <c r="H28" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>255</v>
-      </c>
-      <c r="B29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>6.8734799128727597E-2</v>
-      </c>
-      <c r="G29">
-        <v>28148</v>
-      </c>
-      <c r="H29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>257</v>
-      </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0.96955430312857105</v>
-      </c>
-      <c r="G30">
-        <v>397048</v>
-      </c>
-      <c r="H30" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>258</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>3.0445696871428701E-2</v>
-      </c>
-      <c r="G31">
-        <v>12468</v>
-      </c>
-      <c r="H31" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0.99849578526846305</v>
-      </c>
-      <c r="G32">
-        <v>408900</v>
-      </c>
-      <c r="H32" t="s">
-        <v>292</v>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>93.1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>262</v>
-      </c>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33">
+        <v>85</v>
+      </c>
+      <c r="B33">
         <v>1</v>
       </c>
-      <c r="D33">
-        <v>1.5042147315367401E-3</v>
-      </c>
-      <c r="G33">
-        <v>616</v>
-      </c>
-      <c r="H33" t="s">
-        <v>263</v>
+      <c r="C33" t="s">
+        <v>244</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>28148</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>6.9</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>265</v>
-      </c>
-      <c r="B34" t="s">
-        <v>266</v>
+        <v>88</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34">
-        <v>0.108860215473876</v>
-      </c>
-      <c r="G34">
-        <v>44580</v>
-      </c>
-      <c r="H34" t="s">
-        <v>293</v>
+        <v>245</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34">
+        <v>397048</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>268</v>
-      </c>
-      <c r="B35" t="s">
-        <v>266</v>
+        <v>88</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35">
-        <v>0.52971068285488199</v>
-      </c>
-      <c r="G35">
-        <v>216925</v>
-      </c>
-      <c r="H35" t="s">
-        <v>294</v>
+        <v>246</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35">
+        <v>12468</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>270</v>
-      </c>
-      <c r="B36" t="s">
-        <v>266</v>
+        <v>91</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36">
-        <v>0.35528770548647698</v>
-      </c>
-      <c r="G36">
-        <v>145496</v>
-      </c>
-      <c r="H36" t="s">
-        <v>295</v>
+        <v>247</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36">
+        <v>408900</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>99.8</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>272</v>
-      </c>
-      <c r="B37" t="s">
-        <v>266</v>
-      </c>
-      <c r="D37">
-        <v>6.1413961847644498E-3</v>
-      </c>
-      <c r="G37">
-        <v>2515</v>
-      </c>
-      <c r="H37" t="s">
-        <v>296</v>
+        <v>91</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37">
+        <v>616</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="B38" t="s">
-        <v>310</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38">
-        <v>0.911483312007345</v>
-      </c>
-      <c r="G38">
-        <v>373267</v>
-      </c>
-      <c r="H38" t="s">
-        <v>338</v>
+        <v>266</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38">
+        <v>145496</v>
+      </c>
+      <c r="I38">
+        <v>2515</v>
+      </c>
+      <c r="J38">
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>321</v>
+        <v>208</v>
       </c>
       <c r="B39" t="s">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39">
-        <v>4.6083669502534702E-2</v>
-      </c>
-      <c r="G39">
-        <v>18872</v>
-      </c>
-      <c r="H39" t="s">
-        <v>339</v>
+        <v>267</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39">
+        <v>216925</v>
+      </c>
+      <c r="I39">
+        <v>2515</v>
+      </c>
+      <c r="J39">
+        <v>53.3</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s">
-        <v>310</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40">
-        <v>3.9046093437130697E-2</v>
-      </c>
-      <c r="G40">
-        <v>15990</v>
-      </c>
-      <c r="H40" t="s">
-        <v>340</v>
+        <v>268</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40">
+        <v>44580</v>
+      </c>
+      <c r="I40">
+        <v>2515</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>323</v>
-      </c>
-      <c r="B41" t="s">
-        <v>310</v>
-      </c>
-      <c r="D41">
-        <v>3.3869250529893801E-3</v>
-      </c>
-      <c r="G41">
+        <v>208</v>
+      </c>
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>2515</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42">
+        <v>373267</v>
+      </c>
+      <c r="I42">
         <v>1387</v>
       </c>
-      <c r="H41" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="H42" s="8">
+      <c r="J42">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43">
+        <v>15990</v>
+      </c>
+      <c r="I43">
+        <v>1387</v>
+      </c>
+      <c r="J43">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44">
+        <v>18872</v>
+      </c>
+      <c r="I44">
+        <v>1387</v>
+      </c>
+      <c r="J44">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1387</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="8">
         <v>409516</v>
       </c>
-      <c r="I42" t="s">
-        <v>102</v>
-      </c>
-      <c r="J42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="H43">
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47">
         <v>1</v>
       </c>
-      <c r="I43" t="s">
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
         <v>104</v>
       </c>
-      <c r="J43" t="s">
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44" t="s">
-        <v>104</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="H45">
-        <v>4.5</v>
-      </c>
-      <c r="I45" t="s">
-        <v>104</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="C52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="H46">
-        <v>89</v>
-      </c>
-      <c r="I46" t="s">
-        <v>104</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="C53">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="H47">
+      <c r="C54">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55">
         <v>1</v>
       </c>
-      <c r="I47" t="s">
-        <v>107</v>
-      </c>
-      <c r="J47" t="s">
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="H48">
-        <v>13</v>
-      </c>
-      <c r="I48" t="s">
-        <v>107</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="49" spans="8:10">
-      <c r="H49">
-        <v>67.3</v>
-      </c>
-      <c r="I49" t="s">
-        <v>107</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="C60" s="8">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="8:10">
-      <c r="H50">
-        <v>352</v>
-      </c>
-      <c r="I50" t="s">
-        <v>107</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="C61" s="10">
+        <v>2948.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="51" spans="8:10">
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>108</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="C62" s="8">
+        <v>13218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="52" spans="8:10">
-      <c r="H52">
-        <v>9</v>
-      </c>
-      <c r="I52" t="s">
-        <v>108</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="8:10">
-      <c r="H53">
-        <v>13.6</v>
-      </c>
-      <c r="I53" t="s">
-        <v>108</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="C64">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="8:10">
-      <c r="H54">
-        <v>236</v>
-      </c>
-      <c r="I54" t="s">
-        <v>108</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="C65">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="8:10">
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
-        <v>109</v>
-      </c>
-      <c r="J55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="8:10">
-      <c r="H56" s="8">
-        <v>2745</v>
-      </c>
-      <c r="I56" t="s">
-        <v>109</v>
-      </c>
-      <c r="J56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="8:10">
-      <c r="H57" s="10">
-        <v>2948.1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>109</v>
-      </c>
-      <c r="J57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="8:10">
-      <c r="H58" s="8">
-        <v>13218</v>
-      </c>
-      <c r="I58" t="s">
-        <v>109</v>
-      </c>
-      <c r="J58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="8:10">
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="8:10">
-      <c r="H60">
-        <v>7.5</v>
-      </c>
-      <c r="I60" t="s">
-        <v>110</v>
-      </c>
-      <c r="J60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="8:10">
-      <c r="H61">
-        <v>8.1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>110</v>
-      </c>
-      <c r="J61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="8:10">
-      <c r="H62">
+      <c r="C66">
         <v>36.200000000000003</v>
-      </c>
-      <c r="I62" t="s">
-        <v>110</v>
-      </c>
-      <c r="J62" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5815,13 +6039,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -5850,7 +6074,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -5873,7 +6097,7 @@
         <v>45218</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -5896,7 +6120,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -5919,7 +6143,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
@@ -5942,7 +6166,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -5965,7 +6189,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
@@ -5988,7 +6212,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -6011,7 +6235,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -6034,7 +6258,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
@@ -6054,10 +6278,10 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -6077,10 +6301,10 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
@@ -6100,10 +6324,10 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
@@ -6126,7 +6350,7 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
@@ -6146,10 +6370,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -6172,7 +6396,7 @@
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -6192,10 +6416,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
@@ -6215,10 +6439,10 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
@@ -6238,10 +6462,10 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
@@ -6264,7 +6488,7 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -6287,7 +6511,7 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -6316,7 +6540,7 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -6339,7 +6563,7 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
@@ -6362,7 +6586,7 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
@@ -6385,7 +6609,7 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -6408,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
@@ -6431,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
@@ -6454,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
         <v>38</v>
@@ -6477,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
@@ -6500,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
@@ -6523,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
@@ -6546,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
@@ -6569,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -6592,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -6615,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
@@ -6638,7 +6862,7 @@
         <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
         <v>38</v>
@@ -6661,7 +6885,7 @@
         <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D39" t="s">
         <v>38</v>
@@ -6684,7 +6908,7 @@
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
         <v>38</v>
@@ -6707,7 +6931,7 @@
         <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
         <v>38</v>
@@ -7013,13 +7237,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -7048,7 +7272,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -7071,7 +7295,7 @@
         <v>45218</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -7094,7 +7318,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -7117,7 +7341,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
@@ -7140,7 +7364,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -7163,7 +7387,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
@@ -7186,7 +7410,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -7209,7 +7433,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -7232,7 +7456,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
@@ -7255,7 +7479,7 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -7278,7 +7502,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
@@ -7301,7 +7525,7 @@
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
@@ -7324,7 +7548,7 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
@@ -7347,7 +7571,7 @@
         <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -7367,10 +7591,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -7390,10 +7614,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
         <v>187</v>
-      </c>
-      <c r="C19" t="s">
-        <v>188</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
@@ -7416,7 +7640,7 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
@@ -7439,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
@@ -7462,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -7485,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
@@ -7508,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -7531,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
@@ -7554,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
@@ -7577,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -7600,7 +7824,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
@@ -7623,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
@@ -7646,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D30" t="s">
         <v>38</v>

--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Dropbox (University of Michigan)/projects/dissertation/aim_one/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B4D119-E5AF-8D48-86C6-71ABD3563C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F6A10B-89A8-1B46-9862-CAB1EBD9403D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ukb_check" sheetId="5" r:id="rId2"/>
-    <sheet name="ukb_all" sheetId="6" r:id="rId3"/>
-    <sheet name="ukb_ip" sheetId="7" r:id="rId4"/>
-    <sheet name="mgi_unweighted" sheetId="3" r:id="rId5"/>
-    <sheet name="ukb_unweighted" sheetId="4" r:id="rId6"/>
-    <sheet name="aou_unweighted" sheetId="2" r:id="rId7"/>
+    <sheet name="social_sources" sheetId="8" r:id="rId2"/>
+    <sheet name="ehr_sources" sheetId="9" r:id="rId3"/>
+    <sheet name="ukb_check" sheetId="5" r:id="rId4"/>
+    <sheet name="ukb_all" sheetId="6" r:id="rId5"/>
+    <sheet name="ukb_ip" sheetId="7" r:id="rId6"/>
+    <sheet name="mgi_unweighted" sheetId="3" r:id="rId7"/>
+    <sheet name="ukb_unweighted" sheetId="4" r:id="rId8"/>
+    <sheet name="aou_unweighted" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,10 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="275">
-  <si>
-    <t>Unweighted</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="308">
   <si>
     <t>MGI</t>
   </si>
@@ -105,24 +104,15 @@
     <t>80+</t>
   </si>
   <si>
-    <t xml:space="preserve">* All of Us data restricted to those who are present in the phenome. There are an additional 149,108 individuals who are not present in the phenome </t>
-  </si>
-  <si>
     <t>Age (continuous)**</t>
   </si>
   <si>
     <t>Age**</t>
   </si>
   <si>
-    <t>** Age defined as age at last EHR encounter</t>
-  </si>
-  <si>
     <t>Cancer***</t>
   </si>
   <si>
-    <t>*** Presence of any qualifying cancer phecode in phenome</t>
-  </si>
-  <si>
     <t>Total phecodes per person</t>
   </si>
   <si>
@@ -433,9 +423,6 @@
   </si>
   <si>
     <t>Maximum</t>
-  </si>
-  <si>
-    <t>AOU*</t>
   </si>
   <si>
     <t>Coronary Heart Disease</t>
@@ -673,9 +660,6 @@
     <t xml:space="preserve"> 0.1 (613)</t>
   </si>
   <si>
-    <t>Abbreviations: -, data unavailable in cohort; AOU, All of Us; MGI, Michigan Genomics Initiative; UKB, UK Biobank</t>
-  </si>
-  <si>
     <t>Unique phecodes per person†</t>
   </si>
   <si>
@@ -685,9 +669,6 @@
     <t>Encounters per person (unique)†</t>
   </si>
   <si>
-    <t>† UK Biobank data only provided first occurrence of each unique phecode. This means that individuals could have encounters that were not reported or extend beyond their last encounter if no unique diagnoses were recorded at that visit.</t>
-  </si>
-  <si>
     <t>57.06 (8.1)</t>
   </si>
   <si>
@@ -899,13 +880,452 @@
   </si>
   <si>
     <t>Depression (major depressive disorder)</t>
+  </si>
+  <si>
+    <t>MGI (unweighted)</t>
+  </si>
+  <si>
+    <t>MGI (IP-weighted)</t>
+  </si>
+  <si>
+    <t>MGI (PS-weighted)</t>
+  </si>
+  <si>
+    <t>UKB (unweighted)</t>
+  </si>
+  <si>
+    <r>
+      <t>AOU</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t xml:space="preserve"> (unweighted)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AOU</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t xml:space="preserve"> (IP-weighted)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AOU</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t xml:space="preserve"> (PS-weighted)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> All of Us data restricted to those who are present in the phenome. There are an additional 149,108 individuals who are not present in the phenome </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NHANES</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t xml:space="preserve"> (weighted)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t xml:space="preserve"> NHANES data comes from the 2017-2018 Continuous NHANES cycle and is weighted here using the recommend weighting design as described in XXX.</t>
+    </r>
+  </si>
+  <si>
+    <t>Abbreviations: -, data unavailable in cohort; AOU, All of Us; IP, inverse probability; MGI, Michigan Genomics Initiative; NHANES, National Health and Nutrition Examination Survey; PS, poststratification; UKB, UK Biobank</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Age defined as age at last EHR encounter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Presence of any qualifying cancer phecode in phenome</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UK Biobank data only provided first occurrence of each unique phecode. This means that individuals could have encounters that were not reported or extend beyond their last encounter if no unique diagnoses were recorded at that visit.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notes: Descriptions of how cancer, diabetes, coronary heart disease, and depression can be found in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>Table SX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UKB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t xml:space="preserve"> (IP-weighted)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UKB-eligible</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Age (continuous)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cancer</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Encounters per person (unique)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Unique phecodes per person</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Length of follow-up (years)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t xml:space="preserve"> The UKB weighting procedure and definitions of the UKB-eligible population are described in van Alten and colleagues (doi: 10.1101/2022.05.16.22275048). Further, estimates presentated here of the UKB-eligible population are taken from van Alten and colleagues.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Age</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>AOU</t>
+  </si>
+  <si>
+    <t>Age (continuous)</t>
+  </si>
+  <si>
+    <t>Age (categorical)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Age at consent</t>
+  </si>
+  <si>
+    <t>10-year age categories were defined from 0 to 80 with an 80+ category: 0-9, 10-19, 20-29, 30-39, 40-49, 50-59, 60-69, 70-79, 80+</t>
+  </si>
+  <si>
+    <t>Self-report</t>
+  </si>
+  <si>
+    <t>EHR</t>
+  </si>
+  <si>
+    <t>BMI (categorical)</t>
+  </si>
+  <si>
+    <t>Median BMI value was caluclated and used</t>
+  </si>
+  <si>
+    <t>BMI categories were used as defined by the Centers for Disease Control and Prevention (https://www.cdc.gov/obesity/basics/adult-defining.html#:~:text=If%20your%20BMI%20is%20less,falls%20within%20the%20obesity%20range.)</t>
+  </si>
+  <si>
+    <t>Qualifying phecodes</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>Table SX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Sources for sociodemographic and anthropometric data</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -925,6 +1345,19 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="ArialMT"/>
@@ -980,7 +1413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1029,7 +1462,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1065,18 +1497,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,6 +1505,67 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,6 +1582,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1400,1047 +1885,1328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B51DE-992F-124D-82CC-B35D567452BB}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-    </row>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:12">
+      <c r="A1" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="1:12" ht="36">
       <c r="A2" s="20"/>
-      <c r="B2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="1:4" ht="17">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="32">
+      <c r="B2" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="31">
         <f>mgi_unweighted!C2</f>
         <v>81254</v>
       </c>
-      <c r="C4" s="32">
-        <v>468015</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="11">
         <f>aou_unweighted!C2</f>
         <v>216366</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="5" customHeight="1">
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="25" t="str">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="31">
+        <v>468015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="5" customHeight="1">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" s="23" customFormat="1" ht="18">
+      <c r="A6" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="24" t="str">
         <f>mgi_unweighted!C3</f>
         <v>57.48 (16.97)</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" s="25" t="str">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="str">
         <f>aou_unweighted!C3</f>
         <v>53.67 (17.20)</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="str">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" ht="18">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="str">
         <f>mgi_unweighted!C4</f>
         <v xml:space="preserve"> 0.0 (0)</v>
       </c>
-      <c r="C9" s="4" t="str">
+      <c r="E8" s="4" t="str">
+        <f>aou_unweighted!C4</f>
+        <v xml:space="preserve"> 0.0 (52)</v>
+      </c>
+      <c r="J8" s="4" t="str">
         <f>ukb_unweighted!C4</f>
         <v xml:space="preserve"> 0.0 (0)</v>
       </c>
-      <c r="D9" s="4" t="str">
-        <f>aou_unweighted!C4</f>
-        <v xml:space="preserve"> 0.0 (52)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="str">
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="str">
         <f>mgi_unweighted!C5</f>
         <v xml:space="preserve"> 0.3 (229)</v>
       </c>
-      <c r="C10" s="4" t="str">
+      <c r="E9" s="4" t="str">
+        <f>aou_unweighted!C5</f>
+        <v xml:space="preserve"> 0.8 (1,802)</v>
+      </c>
+      <c r="J9" s="4" t="str">
         <f>ukb_unweighted!C5</f>
         <v xml:space="preserve"> 0.0 (0)</v>
       </c>
-      <c r="D10" s="4" t="str">
-        <f>aou_unweighted!C5</f>
-        <v xml:space="preserve"> 0.8 (1,802)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f>mgi_unweighted!C6</f>
+        <v xml:space="preserve"> 7.7 (6,231)</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f>aou_unweighted!C6</f>
+        <v>10.4 (22,541)</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f>ukb_unweighted!C6</f>
+        <v xml:space="preserve"> 0.0 (0)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f>mgi_unweighted!C6</f>
-        <v xml:space="preserve"> 7.7 (6,231)</v>
-      </c>
-      <c r="C11" s="4" t="str">
-        <f>ukb_unweighted!C6</f>
+        <f>mgi_unweighted!C7</f>
+        <v>10.6 (8,641)</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f>aou_unweighted!C7</f>
+        <v>14.4 (31,175)</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f>ukb_unweighted!C7</f>
         <v xml:space="preserve"> 0.0 (0)</v>
       </c>
-      <c r="D11" s="4" t="str">
-        <f>aou_unweighted!C6</f>
-        <v>10.4 (22,541)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>mgi_unweighted!C7</f>
-        <v>10.6 (8,641)</v>
-      </c>
-      <c r="C12" s="4" t="str">
-        <f>ukb_unweighted!C7</f>
+        <f>mgi_unweighted!C8</f>
+        <v>13.2 (10,732)</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f>aou_unweighted!C8</f>
+        <v>14.0 (30,384)</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f>ukb_unweighted!C8</f>
         <v xml:space="preserve"> 0.0 (0)</v>
       </c>
-      <c r="D12" s="4" t="str">
-        <f>aou_unweighted!C7</f>
-        <v>14.4 (31,175)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f>mgi_unweighted!C8</f>
-        <v>13.2 (10,732)</v>
-      </c>
-      <c r="C13" s="4" t="str">
-        <f>ukb_unweighted!C8</f>
-        <v xml:space="preserve"> 0.0 (0)</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f>aou_unweighted!C8</f>
-        <v>14.0 (30,384)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <f>mgi_unweighted!C9</f>
+        <v>19.1 (15,557)</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>aou_unweighted!C9</f>
+        <v>19.5 (42,195)</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f>ukb_unweighted!C9</f>
+        <v>11.7 (47,976)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f>mgi_unweighted!C9</f>
-        <v>19.1 (15,557)</v>
-      </c>
-      <c r="C14" s="4" t="str">
-        <f>ukb_unweighted!C9</f>
-        <v>11.7 (47,976)</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f>aou_unweighted!C9</f>
-        <v>19.5 (42,195)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <f>mgi_unweighted!C10</f>
+        <v>23.1 (18,753)</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f>aou_unweighted!C10</f>
+        <v>21.3 (46,059)</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f>ukb_unweighted!C10</f>
+        <v>27.4 (112,073)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="str">
-        <f>mgi_unweighted!C10</f>
-        <v>23.1 (18,753)</v>
-      </c>
-      <c r="C15" s="4" t="str">
-        <f>ukb_unweighted!C10</f>
-        <v>27.4 (112,073)</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f>aou_unweighted!C10</f>
-        <v>21.3 (46,059)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <f>mgi_unweighted!C11</f>
+        <v>18.4 (14,941)</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f>aou_unweighted!C11</f>
+        <v>14.9 (32,252)</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f>ukb_unweighted!C11</f>
+        <v>45.0 (183,963)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="str">
-        <f>mgi_unweighted!C11</f>
-        <v>18.4 (14,941)</v>
-      </c>
-      <c r="C16" s="4" t="str">
-        <f>ukb_unweighted!C11</f>
-        <v>45.0 (183,963)</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f>aou_unweighted!C11</f>
-        <v>14.9 (32,252)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="str">
         <f>mgi_unweighted!C12</f>
         <v xml:space="preserve"> 7.6 (6,170)</v>
       </c>
-      <c r="C17" s="4" t="str">
+      <c r="E16" s="4" t="str">
+        <f>aou_unweighted!C12</f>
+        <v xml:space="preserve"> 4.6 (9,906)</v>
+      </c>
+      <c r="J16" s="4" t="str">
         <f>ukb_unweighted!C12</f>
         <v>15.8 (64,759)</v>
       </c>
-      <c r="D17" s="4" t="str">
-        <f>aou_unweighted!C12</f>
-        <v xml:space="preserve"> 4.6 (9,906)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="17" spans="1:11" s="23" customFormat="1">
+      <c r="A17" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" s="23" customFormat="1">
       <c r="A18" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="25" t="str">
+        <v>44</v>
+      </c>
+      <c r="B18" s="24" t="str">
         <f>mgi_unweighted!C13</f>
         <v>46.2 (37,549)</v>
       </c>
-      <c r="C19" s="25" t="str">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="str">
+        <f>aou_unweighted!C13</f>
+        <v>37.3 (80,753)</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24" t="str">
         <f>ukb_unweighted!C13</f>
         <v>44.6 (182,393)</v>
       </c>
-      <c r="D19" s="25" t="str">
-        <f>aou_unweighted!C13</f>
-        <v>37.3 (80,753)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="25" t="str">
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" s="23" customFormat="1">
+      <c r="A19" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="24" t="str">
         <f>mgi_unweighted!C14</f>
         <v>53.8 (43,705)</v>
       </c>
-      <c r="C20" s="25" t="str">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="str">
+        <f>aou_unweighted!C14</f>
+        <v>62.7 (135,613)</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24" t="str">
         <f>ukb_unweighted!C14</f>
         <v>55.4 (226,378)</v>
       </c>
-      <c r="D20" s="25" t="str">
-        <f>aou_unweighted!C14</f>
-        <v>62.7 (135,613)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="4" t="str">
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="4" t="str">
         <f>mgi_unweighted!C19</f>
         <v xml:space="preserve"> 0.5 (395)</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="4" t="str">
+      <c r="E21" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="4" t="str">
         <f>mgi_unweighted!C16</f>
         <v xml:space="preserve"> 3.8 (3,110)</v>
       </c>
-      <c r="C23" s="4" t="str">
+      <c r="E22" s="4" t="str">
+        <f>aou_unweighted!C15</f>
+        <v xml:space="preserve"> 2.5 (5,508)</v>
+      </c>
+      <c r="J22" s="4" t="str">
         <f>ukb_unweighted!C17</f>
         <v xml:space="preserve"> 3.6 (14,727)</v>
       </c>
-      <c r="D23" s="4" t="str">
-        <f>aou_unweighted!C15</f>
-        <v xml:space="preserve"> 2.5 (5,508)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="4" t="str">
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="4" t="str">
         <f>mgi_unweighted!C15</f>
         <v xml:space="preserve"> 6.2 (5,059)</v>
       </c>
-      <c r="C24" s="4" t="str">
+      <c r="E23" s="4" t="str">
+        <f>aou_unweighted!C16</f>
+        <v>19.0 (41,070)</v>
+      </c>
+      <c r="J23" s="4" t="str">
         <f>ukb_unweighted!C19</f>
         <v xml:space="preserve"> 0.5 (2,215)</v>
       </c>
-      <c r="D24" s="4" t="str">
-        <f>aou_unweighted!C16</f>
-        <v>19.0 (41,070)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="4" t="str">
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="4" t="str">
         <f>mgi_unweighted!C18</f>
         <v xml:space="preserve"> 2.7 (2,180)</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="4" t="str">
+      <c r="E24" s="4" t="str">
         <f>aou_unweighted!C17</f>
         <v>19.1 (41,353)</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="4" t="str">
+      <c r="J24" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="4" t="str">
         <f>aou_unweighted!C18</f>
         <v xml:space="preserve"> 0.5 (1,178)</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="4" t="str">
+      <c r="J25" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="4" t="str">
         <f>aou_unweighted!C19</f>
         <v xml:space="preserve"> 1.5 (3,272)</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="4" t="str">
+      <c r="J26" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="4" t="str">
         <f>mgi_unweighted!C21</f>
         <v xml:space="preserve"> 0.0 (4)</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="4" t="str">
+      <c r="E27" s="4" t="str">
         <f>aou_unweighted!C20</f>
         <v xml:space="preserve"> 0.1 (219)</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" s="4" t="str">
+      <c r="J27" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" s="4" t="str">
         <f>ukb_unweighted!C18</f>
         <v xml:space="preserve"> 0.9 (3,605)</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="4" t="str">
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="4" t="str">
         <f>mgi_unweighted!C22</f>
         <v xml:space="preserve"> 1.5 (1,245)</v>
       </c>
-      <c r="C30" s="4" t="str">
+      <c r="E29" s="4" t="str">
+        <f>aou_unweighted!C21</f>
+        <v xml:space="preserve"> 2.8 (6,047)</v>
+      </c>
+      <c r="J29" s="4" t="str">
         <f>ukb_unweighted!C20</f>
         <v xml:space="preserve"> 0.4 (1,527)</v>
       </c>
-      <c r="D30" s="4" t="str">
-        <f>aou_unweighted!C21</f>
-        <v xml:space="preserve"> 2.8 (6,047)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="4" t="str">
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="4" t="str">
         <f>mgi_unweighted!C17</f>
         <v>85.2 (69,254)</v>
       </c>
-      <c r="C31" s="4" t="str">
+      <c r="E30" s="4" t="str">
+        <f>aou_unweighted!C22</f>
+        <v>54.4 (117,719)</v>
+      </c>
+      <c r="J30" s="4" t="str">
         <f>ukb_unweighted!C15</f>
         <v>90.8 (371,338)</v>
       </c>
-      <c r="D31" s="4" t="str">
-        <f>aou_unweighted!C22</f>
-        <v>54.4 (117,719)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="25" t="str">
+    </row>
+    <row r="31" spans="1:11" s="23" customFormat="1">
+      <c r="A31" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="24" t="str">
         <f>mgi_unweighted!C23</f>
         <v>29.94 (7.26)</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="25" t="str">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24" t="str">
         <f>aou_unweighted!C23</f>
         <v>30.06 (7.70)</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="4" t="str">
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="4" t="str">
         <f>mgi_unweighted!C24</f>
         <v xml:space="preserve"> 1.1 (865)</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="4" t="str">
+      <c r="E33" s="4" t="str">
         <f>aou_unweighted!C24</f>
         <v xml:space="preserve"> 1.3 (2,667)</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="4" t="str">
+      <c r="J33" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="4" t="str">
         <f>mgi_unweighted!C25</f>
         <v>24.7 (20,029)</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D35" s="4" t="str">
+      <c r="E34" s="4" t="str">
         <f>aou_unweighted!C25</f>
         <v>25.5 (53,089)</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="4" t="str">
+      <c r="J34" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="4" t="str">
         <f>mgi_unweighted!C26</f>
         <v>32.0 (25,958)</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="4" t="str">
+      <c r="E35" s="4" t="str">
         <f>aou_unweighted!C26</f>
         <v>30.5 (63,275)</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="4" t="str">
+      <c r="J35" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="4" t="str">
         <f>mgi_unweighted!C27</f>
         <v>42.3 (34,288)</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="4" t="str">
+      <c r="E36" s="4" t="str">
         <f>aou_unweighted!C27</f>
         <v>42.7 (88,757)</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="25" t="str">
+      <c r="J36" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="23" customFormat="1" ht="18">
+      <c r="A37" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37" s="24" t="str">
         <f>mgi_unweighted!C29</f>
         <v>48.6 (39,523)</v>
       </c>
-      <c r="C38" s="25" t="str">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24" t="str">
+        <f>aou_unweighted!C29</f>
+        <v>22.6 (48,934)</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24" t="str">
         <f>ukb_unweighted!C21</f>
         <v>79.0 (323,009)</v>
       </c>
-      <c r="D38" s="25" t="str">
-        <f>aou_unweighted!C29</f>
-        <v>22.6 (48,934)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="4" t="str">
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="4" t="str">
         <f>mgi_unweighted!C31</f>
         <v>33.2 (27,004)</v>
       </c>
-      <c r="C39" s="4" t="str">
+      <c r="E38" s="4" t="str">
+        <f>aou_unweighted!C31</f>
+        <v>21.6 (46,686)</v>
+      </c>
+      <c r="J38" s="4" t="str">
         <f>ukb_unweighted!C24</f>
         <v xml:space="preserve"> 7.6 (31,180)</v>
       </c>
-      <c r="D39" s="4" t="str">
-        <f>aou_unweighted!C31</f>
-        <v>21.6 (46,686)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="25" t="str">
+    </row>
+    <row r="39" spans="1:11" s="23" customFormat="1">
+      <c r="A39" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="24" t="str">
         <f>mgi_unweighted!C33</f>
         <v>16.5 (13,407)</v>
       </c>
-      <c r="C40" s="25" t="str">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24" t="str">
+        <f>aou_unweighted!C33</f>
+        <v>12.9 (27,828)</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24" t="str">
         <f>ukb_unweighted!C26</f>
         <v xml:space="preserve"> 6.9 (28,077)</v>
       </c>
-      <c r="D40" s="25" t="str">
-        <f>aou_unweighted!C33</f>
-        <v>12.9 (27,828)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="4" t="str">
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="4" t="str">
         <f>mgi_unweighted!C35</f>
         <v>36.3 (29,473)</v>
       </c>
-      <c r="C41" s="4" t="str">
+      <c r="E40" s="4" t="str">
+        <f>aou_unweighted!C35</f>
+        <v>32.4 (70,056)</v>
+      </c>
+      <c r="J40" s="4" t="str">
         <f>ukb_unweighted!C28</f>
         <v xml:space="preserve"> 3.0 (12,427)</v>
       </c>
-      <c r="D41" s="4" t="str">
-        <f>aou_unweighted!C35</f>
-        <v>32.4 (70,056)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42" s="25" t="str">
+    </row>
+    <row r="41" spans="1:11" s="23" customFormat="1">
+      <c r="A41" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="B41" s="24" t="str">
         <f>mgi_unweighted!C37</f>
         <v>33.9 (27,573)</v>
       </c>
-      <c r="C42" s="25" t="str">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24" t="str">
+        <f>aou_unweighted!C37</f>
+        <v>28.0 (60,556)</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24" t="str">
         <f>ukb_unweighted!C30</f>
         <v xml:space="preserve"> 0.1 (613)</v>
       </c>
-      <c r="D42" s="25" t="str">
-        <f>aou_unweighted!C37</f>
-        <v>28.0 (60,556)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="4" t="str">
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="4" t="str">
         <f>mgi_unweighted!C38</f>
         <v>53.4 (43,245)</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="4" t="str" cm="1">
-        <f t="array" ref="D44:D47">aou_unweighted!C38:C41</f>
+      <c r="E43" s="4" t="str" cm="1">
+        <f t="array" ref="E43:E46">aou_unweighted!C38:C41</f>
         <v>57.1 (123,569)</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="4" t="str">
+      <c r="J43" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="4" t="str">
         <f>mgi_unweighted!C39</f>
         <v>36.8 (29,816)</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D45" s="4" t="str">
+      <c r="E44" s="4" t="str">
         <v>23.7 (51,258)</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="4" t="str">
+      <c r="J44" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="4" t="str">
         <f>mgi_unweighted!C40</f>
         <v xml:space="preserve"> 9.8 (7,901)</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D46" s="4" t="str">
+      <c r="E45" s="4" t="str">
         <v>16.3 (35,361)</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="4" t="str">
+      <c r="J45" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="4" t="str">
         <f>mgi_unweighted!C41</f>
         <v xml:space="preserve"> 0.0 (0)</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" s="4" t="str">
+      <c r="E46" s="4" t="str">
         <v xml:space="preserve"> 2.9 (6,178)</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="5" customHeight="1"/>
-    <row r="49" spans="1:8">
-      <c r="A49" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="J46" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="5" customHeight="1"/>
+    <row r="48" spans="1:11">
+      <c r="A48" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="23" customFormat="1" ht="18">
+      <c r="A49" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:15" s="23" customFormat="1">
       <c r="A50" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" s="25">
+        <v>115</v>
+      </c>
+      <c r="B50" s="24">
         <f>mgi_unweighted!C43</f>
         <v>1</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24">
+        <f>aou_unweighted!C43</f>
+        <v>1</v>
+      </c>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24">
         <f>ukb_unweighted!C32</f>
         <v>1</v>
       </c>
-      <c r="D51" s="25">
-        <f>aou_unweighted!C43</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" s="25">
+      <c r="K50" s="24"/>
+    </row>
+    <row r="51" spans="1:15" s="23" customFormat="1">
+      <c r="A51" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="24">
         <f>mgi_unweighted!C44</f>
         <v>55</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24">
+        <f>aou_unweighted!C44</f>
+        <v>17</v>
+      </c>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24">
         <f>ukb_unweighted!C33</f>
         <v>3</v>
       </c>
-      <c r="D52" s="25">
-        <f>aou_unweighted!C44</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" s="25">
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:15" s="23" customFormat="1">
+      <c r="A52" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="24">
         <f>mgi_unweighted!C45</f>
         <v>104.5</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24">
+        <f>aou_unweighted!C45</f>
+        <v>30</v>
+      </c>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24">
         <f>ukb_unweighted!C34</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="D53" s="25">
-        <f>aou_unweighted!C45</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="25">
+      <c r="K52" s="24"/>
+    </row>
+    <row r="53" spans="1:15" s="23" customFormat="1">
+      <c r="A53" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="24">
         <f>mgi_unweighted!C46</f>
         <v>1836</v>
       </c>
-      <c r="C54" s="25">
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24">
+        <f>aou_unweighted!C46</f>
+        <v>481</v>
+      </c>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24">
         <f>ukb_unweighted!C35</f>
         <v>89</v>
       </c>
-      <c r="D54" s="25">
-        <f>aou_unweighted!C46</f>
-        <v>481</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="4">
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="4">
         <f>mgi_unweighted!C47</f>
         <v>1</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D56" s="4">
+      <c r="E55" s="4">
         <f>aou_unweighted!C47</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="4">
+      <c r="J55" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="4">
         <f>mgi_unweighted!C48</f>
         <v>784</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D57" s="4">
+      <c r="E56" s="4">
         <f>aou_unweighted!C48</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="4">
+      <c r="J56" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="4">
         <f>mgi_unweighted!C49</f>
         <v>13790.9</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" s="4">
+      <c r="E57" s="4">
         <f>aou_unweighted!C49</f>
         <v>251.1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="4">
+      <c r="J57" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="4">
         <f>mgi_unweighted!C50</f>
         <v>79826</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="4">
+      <c r="E58" s="4">
         <f>aou_unweighted!C50</f>
         <v>1233</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="25">
+      <c r="J58" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="23" customFormat="1" ht="18">
+      <c r="A59" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+    </row>
+    <row r="60" spans="1:15" s="23" customFormat="1">
+      <c r="A60" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="24">
         <f>mgi_unweighted!C51</f>
         <v>1</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24">
+        <f>aou_unweighted!C51</f>
+        <v>1</v>
+      </c>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24">
         <f>ukb_unweighted!C40</f>
         <v>1</v>
       </c>
-      <c r="D61" s="25">
-        <f>aou_unweighted!C51</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="25">
+      <c r="K60" s="24"/>
+    </row>
+    <row r="61" spans="1:15" s="23" customFormat="1">
+      <c r="A61" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="24">
         <f>mgi_unweighted!C52</f>
         <v>53</v>
       </c>
-      <c r="C62" s="25">
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24">
+        <f>aou_unweighted!C52</f>
+        <v>39</v>
+      </c>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24">
         <f>ukb_unweighted!C41</f>
         <v>9</v>
       </c>
-      <c r="D62" s="25">
-        <f>aou_unweighted!C52</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="25">
+      <c r="K61" s="24"/>
+    </row>
+    <row r="62" spans="1:15" s="23" customFormat="1">
+      <c r="A62" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="24">
         <f>mgi_unweighted!C53</f>
         <v>74.400000000000006</v>
       </c>
-      <c r="C63" s="25">
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24">
+        <f>aou_unweighted!C53</f>
+        <v>57.3</v>
+      </c>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24">
         <f>ukb_unweighted!C42</f>
         <v>13.6</v>
       </c>
-      <c r="D63" s="25">
-        <f>aou_unweighted!C53</f>
-        <v>57.3</v>
-      </c>
-      <c r="F63">
+      <c r="K62" s="24"/>
+      <c r="M62" s="23">
         <v>10</v>
       </c>
-      <c r="G63">
+      <c r="N62" s="23">
         <v>10</v>
       </c>
-      <c r="H63">
+      <c r="O62" s="23">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="25">
+    <row r="63" spans="1:15" s="23" customFormat="1">
+      <c r="A63" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="24">
         <f>mgi_unweighted!C54</f>
         <v>588</v>
       </c>
-      <c r="C64" s="25">
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24">
+        <f>aou_unweighted!C54</f>
+        <v>522</v>
+      </c>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24">
         <f>ukb_unweighted!C43</f>
         <v>236</v>
       </c>
-      <c r="D64" s="25">
-        <f>aou_unweighted!C54</f>
-        <v>522</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="K63" s="24"/>
+    </row>
+    <row r="64" spans="1:15" ht="18">
+      <c r="A64" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="4">
+        <f>mgi_unweighted!C59</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="16">
+        <f>aou_unweighted!C59</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="4">
+        <f>ukb_unweighted!C48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B66" s="4">
-        <f>mgi_unweighted!C59</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="4">
-        <f>ukb_unweighted!C48</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="16">
-        <f>aou_unweighted!C59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="4">
         <f>mgi_unweighted!C60</f>
         <v>8.1</v>
       </c>
-      <c r="C67" s="4">
+      <c r="E66" s="16">
+        <f>aou_unweighted!C60</f>
+        <v>7</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="4">
         <f>ukb_unweighted!C49</f>
         <v>7.5</v>
       </c>
-      <c r="D67" s="16">
-        <f>aou_unweighted!C60</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="4">
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="4">
         <f>mgi_unweighted!C61</f>
         <v>9.9</v>
       </c>
-      <c r="C68" s="4">
+      <c r="E67" s="16">
+        <f>aou_unweighted!C61</f>
+        <v>9</v>
+      </c>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="4">
         <f>ukb_unweighted!C50</f>
         <v>8.1</v>
       </c>
-      <c r="D68" s="16">
-        <f>aou_unweighted!C61</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="18">
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="18">
         <f>mgi_unweighted!C62</f>
         <v>43.5</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="19">
+        <f>aou_unweighted!C62</f>
+        <v>41</v>
+      </c>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="18">
         <f>ukb_unweighted!C51</f>
         <v>36.200000000000003</v>
       </c>
-      <c r="D69" s="19">
-        <f>aou_unweighted!C62</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="34" customHeight="1">
-      <c r="A70" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-    </row>
-    <row r="71" spans="1:4" ht="16" customHeight="1">
-      <c r="A71" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-    </row>
-    <row r="74" spans="1:4" ht="32" customHeight="1">
-      <c r="A74" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="41"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+    </row>
+    <row r="70" spans="1:12" ht="16" customHeight="1">
+      <c r="A70" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+    </row>
+    <row r="71" spans="1:12" ht="16" customHeight="1">
+      <c r="A71" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+    </row>
+    <row r="72" spans="1:12" ht="33" customHeight="1">
+      <c r="A72" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+    </row>
+    <row r="74" spans="1:12" ht="16" customHeight="1">
+      <c r="A74" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
+  <mergeCells count="9">
+    <mergeCell ref="A76:L76"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A69:L69"/>
+    <mergeCell ref="A70:L70"/>
+    <mergeCell ref="A73:L73"/>
+    <mergeCell ref="A74:L74"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="A71:L71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2448,10 +3214,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A361C50-E5F9-EF49-8521-4B4E3A5D7E6D}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="50"/>
+    <col min="5" max="5" width="64.28515625" style="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+    </row>
+    <row r="3" spans="1:5" ht="17">
+      <c r="A3" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="23" customFormat="1">
+      <c r="A4" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+    </row>
+    <row r="5" spans="1:5" ht="34">
+      <c r="A5" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="23" customFormat="1">
+      <c r="A6" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="23" customFormat="1" ht="17">
+      <c r="A8" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="68">
+      <c r="A9" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="23" customFormat="1">
+      <c r="A10" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859041D3-91F0-7942-B418-58B0D9CA4FFB}">
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5">
+        <v>411.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7">
+        <v>296.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A77B419-D923-A146-8FAB-CF6618E54F68}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -2463,23 +3434,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>206</v>
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="32">
+        <v>24</v>
+      </c>
+      <c r="B2" s="31">
         <f>ukb_all!C2</f>
         <v>502413</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="31">
         <f>ukb_ip!C2</f>
         <v>409516</v>
       </c>
@@ -2489,39 +3460,39 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="C3" s="32"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="25" t="str">
+      <c r="A5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="24" t="str">
         <f>ukb_all!C3</f>
         <v>57.03 (8.09)</v>
       </c>
-      <c r="C5" s="25" t="str">
+      <c r="C5" s="24" t="str">
         <f>ukb_ip!C3</f>
         <v>57.59 (8.04)</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>ukb_all!C4</f>
@@ -2534,7 +3505,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>ukb_all!C5</f>
@@ -2547,7 +3518,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4" t="str">
         <f>ukb_all!C6</f>
@@ -2560,7 +3531,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="str">
         <f>ukb_all!C7</f>
@@ -2573,7 +3544,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="str">
         <f>ukb_all!C8</f>
@@ -2586,7 +3557,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>ukb_all!C9</f>
@@ -2599,7 +3570,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="str">
         <f>ukb_all!C10</f>
@@ -2610,12 +3581,12 @@
         <v>45.9 (187,822)</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="str">
         <f>ukb_all!C11</f>
@@ -2628,7 +3599,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="str">
         <f>ukb_all!C12</f>
@@ -2640,61 +3611,61 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="25" t="str">
+      <c r="A17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="24" t="str">
         <f>ukb_all!C13</f>
         <v>45.6 (229,085)</v>
       </c>
-      <c r="C17" s="25" t="str">
+      <c r="C17" s="24" t="str">
         <f>ukb_ip!C13</f>
         <v>44.6 (182,762)</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="25" t="str">
+      <c r="A18" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="24" t="str">
         <f>ukb_all!C14</f>
         <v>54.4 (273,328)</v>
       </c>
-      <c r="C18" s="25" t="str">
+      <c r="C18" s="24" t="str">
         <f>ukb_ip!C14</f>
         <v>55.4 (226,754)</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B21" s="4" t="str">
         <f>ukb_all!C17</f>
@@ -2707,7 +3678,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B22" s="4" t="str">
         <f>ukb_all!C19</f>
@@ -2720,29 +3691,29 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B25" s="4" t="str">
         <f>ukb_all!C16</f>
@@ -2755,18 +3726,18 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B27" s="4" t="str">
         <f>ukb_all!C18</f>
@@ -2779,7 +3750,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4" t="str">
         <f>ukb_all!C21</f>
@@ -2792,58 +3763,58 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="38" t="str">
+        <v>62</v>
+      </c>
+      <c r="B29" s="33" t="str">
         <f>ukb_all!C15</f>
         <v>90.6 (454,173)</v>
       </c>
-      <c r="C29" s="38" t="str">
+      <c r="C29" s="33" t="str">
         <f>ukb_ip!C15</f>
         <v>90.8 (371,338)</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="33" t="s">
-        <v>210</v>
+      <c r="A30" s="32" t="s">
+        <v>203</v>
       </c>
       <c r="B30" s="4">
         <f>ukb_all!I17</f>
         <v>898</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="31">
         <f>ukb_ip!I15</f>
         <v>745</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="25" t="str">
+      <c r="A31" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="24" t="str">
         <f>ukb_all!C22</f>
         <v>27.43 (4.80)</v>
       </c>
-      <c r="C31" s="25" t="str">
+      <c r="C31" s="24" t="str">
         <f>ukb_ip!C22</f>
         <v>27.62 (4.89)</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B33" s="4" t="str">
         <f>ukb_all!C27</f>
@@ -2856,7 +3827,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B34" s="4" t="str">
         <f>ukb_all!C24</f>
@@ -2869,7 +3840,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B35" s="4" t="str">
         <f>ukb_all!C23</f>
@@ -2882,7 +3853,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B36" s="4" t="str">
         <f>ukb_all!C26</f>
@@ -2894,39 +3865,39 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="39">
+      <c r="A37" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="34">
         <f>ukb_all!I22</f>
         <v>3104</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="34">
         <f>ukb_ip!I23</f>
         <v>2722</v>
       </c>
       <c r="D37" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="25" t="str">
+      <c r="A38" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="24" t="str">
         <f>ukb_ip!C28</f>
         <v>21.0 (85,888)</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>ukb_ip!C31</f>
@@ -2934,23 +3905,23 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40" s="25" t="str">
+      <c r="A40" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="24" t="str">
         <f>ukb_ip!C33</f>
         <v xml:space="preserve"> 6.9 (28,148)</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C41" s="4" t="str">
         <f>ukb_ip!C35</f>
@@ -2958,26 +3929,26 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="25" t="str">
+      <c r="A42" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="24" t="str">
         <f>ukb_ip!C37</f>
         <v xml:space="preserve"> 0.2 (616)</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B44" s="4" t="str">
         <f>ukb_all!C44</f>
@@ -2988,12 +3959,12 @@
         <v>53.3 (216,925)</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B45" s="4" t="str">
         <f>ukb_all!C43</f>
@@ -3006,7 +3977,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B46" s="4" t="str">
         <f>ukb_all!C45</f>
@@ -3019,152 +3990,152 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="32">
+        <v>60</v>
+      </c>
+      <c r="B47" s="31">
         <f>ukb_all!I44</f>
         <v>2948</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="31">
         <f>ukb_ip!I38</f>
         <v>2515</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="24"/>
+      <c r="A48" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="25" t="str">
+      <c r="A49" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="24" t="str">
         <f>ukb_all!C48</f>
         <v xml:space="preserve"> 4.5 (22,381)</v>
       </c>
-      <c r="C49" s="25" t="str">
+      <c r="C49" s="24" t="str">
         <f>ukb_ip!C44</f>
         <v xml:space="preserve"> 4.6 (18,872)</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="25" t="str">
+      <c r="A50" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="24" t="str">
         <f>ukb_all!C49</f>
         <v xml:space="preserve"> 3.6 (18,094)</v>
       </c>
-      <c r="C50" s="25" t="str">
+      <c r="C50" s="24" t="str">
         <f>ukb_ip!C43</f>
         <v xml:space="preserve"> 3.9 (15,990)</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="25" t="str">
+      <c r="A51" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="24" t="str">
         <f>ukb_all!C47</f>
         <v>91.9 (460,286)</v>
       </c>
-      <c r="C51" s="25" t="str">
+      <c r="C51" s="24" t="str">
         <f>ukb_ip!C42</f>
         <v>91.5 (373,267)</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="40">
+      <c r="A52" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="35">
         <f>ukb_all!I48</f>
         <v>1652</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="35">
         <f>ukb_ip!I42</f>
         <v>1387</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="A55" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="25">
+      <c r="A56" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="24">
         <f>ukb_ip!C47</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="25">
+      <c r="A57" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="24">
         <f>ukb_ip!C48</f>
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="25">
+      <c r="A58" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="24">
         <f>ukb_ip!C49</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C59" s="25">
+      <c r="A59" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="24">
         <f>ukb_ip!C50</f>
         <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C61" s="4">
         <f>ukb_ip!C51</f>
@@ -3173,10 +4144,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C62" s="4">
         <f>ukb_ip!C52</f>
@@ -3185,10 +4156,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C63" s="4">
         <f>ukb_ip!C53</f>
@@ -3197,10 +4168,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C64" s="4">
         <f>ukb_ip!C54</f>
@@ -3208,75 +4179,75 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66" s="25">
+      <c r="A66" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="24">
         <f>ukb_ip!C55</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" s="25">
+      <c r="A67" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="24">
         <f>ukb_ip!C56</f>
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C68" s="38">
+      <c r="A68" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="33">
         <f>ukb_ip!C57</f>
         <v>13.6</v>
       </c>
       <c r="D68" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C69" s="25">
+      <c r="A69" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="24">
         <f>ukb_ip!C58</f>
         <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C71" s="4">
         <f>ukb_ip!C63</f>
@@ -3285,10 +4256,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C72" s="4">
         <f>ukb_ip!C64</f>
@@ -3297,10 +4268,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C73" s="4">
         <f>ukb_ip!C65</f>
@@ -3309,10 +4280,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C74" s="18">
         <f>ukb_ip!C66</f>
@@ -3325,7 +4296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAAA6E5-6456-1F41-A75B-6D22A70A30D2}">
   <dimension ref="A1:J71"/>
   <sheetViews>
@@ -3337,42 +4308,42 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="8">
         <v>502413</v>
@@ -3380,16 +4351,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>57.030951949698597</v>
@@ -3409,16 +4380,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3432,16 +4403,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9">
         <v>45218</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3455,16 +4426,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3478,16 +4449,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -3501,16 +4472,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>117193</v>
@@ -3524,16 +4495,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>166730</v>
@@ -3547,16 +4518,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>215338</v>
@@ -3570,16 +4541,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>3145</v>
@@ -3593,16 +4564,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3616,16 +4587,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>229085</v>
@@ -3639,16 +4610,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>273328</v>
@@ -3662,16 +4633,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>454173</v>
@@ -3685,16 +4656,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>18903</v>
@@ -3708,16 +4679,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>19132</v>
@@ -3731,16 +4702,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>4557</v>
@@ -3754,16 +4725,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>2872</v>
@@ -3777,13 +4748,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3797,16 +4768,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>1878</v>
@@ -3820,16 +4791,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>27.432708630527401</v>
@@ -3849,16 +4820,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>212079</v>
@@ -3872,16 +4843,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>162374</v>
@@ -3895,13 +4866,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3915,16 +4886,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>122230</v>
@@ -3938,16 +4909,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>2626</v>
@@ -3961,13 +4932,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3981,16 +4952,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>85888</v>
@@ -4004,16 +4975,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>323628</v>
@@ -4027,13 +4998,13 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -4047,16 +5018,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>378208</v>
@@ -4070,16 +5041,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>31308</v>
@@ -4093,13 +5064,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4113,16 +5084,16 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>381368</v>
@@ -4136,16 +5107,16 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>28148</v>
@@ -4159,13 +5130,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4179,16 +5150,16 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>397048</v>
@@ -4202,16 +5173,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>12468</v>
@@ -4225,13 +5196,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4245,16 +5216,16 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>408900</v>
@@ -4268,16 +5239,16 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>616</v>
@@ -4291,16 +5262,16 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>173025</v>
@@ -4314,16 +5285,16 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>273478</v>
@@ -4337,16 +5308,16 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>52962</v>
@@ -4360,13 +5331,13 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4380,16 +5351,16 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H47">
         <v>460286</v>
@@ -4403,16 +5374,16 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>22381</v>
@@ -4426,16 +5397,16 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>18094</v>
@@ -4449,13 +5420,13 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4469,10 +5440,10 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C51" s="8">
         <v>409516</v>
@@ -4480,10 +5451,10 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4491,10 +5462,10 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -4502,10 +5473,10 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>4.5</v>
@@ -4513,10 +5484,10 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C55">
         <v>89</v>
@@ -4524,10 +5495,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4535,10 +5506,10 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C57">
         <v>13</v>
@@ -4546,10 +5517,10 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C58">
         <v>67.3</v>
@@ -4557,10 +5528,10 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C59">
         <v>352</v>
@@ -4568,10 +5539,10 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4579,10 +5550,10 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C61">
         <v>9</v>
@@ -4590,10 +5561,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>13.6</v>
@@ -4601,10 +5572,10 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C63">
         <v>236</v>
@@ -4612,10 +5583,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -4623,10 +5594,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C65" s="8">
         <v>2745</v>
@@ -4634,10 +5605,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C66" s="10">
         <v>2948.1</v>
@@ -4645,10 +5616,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C67" s="8">
         <v>13218</v>
@@ -4656,10 +5627,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4667,10 +5638,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C69">
         <v>7.5</v>
@@ -4678,10 +5649,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C70">
         <v>8.1</v>
@@ -4689,10 +5660,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C71">
         <v>36.200000000000003</v>
@@ -4703,7 +5674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD575C29-578C-A14A-A734-07B45BD9415B}">
   <dimension ref="A1:J66"/>
   <sheetViews>
@@ -4718,42 +5689,42 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="8">
         <v>409516</v>
@@ -4761,16 +5732,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>57.586047641722502</v>
@@ -4790,16 +5761,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -4813,16 +5784,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9">
         <v>45218</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4836,16 +5807,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4859,16 +5830,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -4882,16 +5853,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>87421</v>
@@ -4905,16 +5876,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>131378</v>
@@ -4928,16 +5899,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>187822</v>
@@ -4951,16 +5922,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>2891</v>
@@ -4974,16 +5945,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4997,16 +5968,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>182762</v>
@@ -5020,16 +5991,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>226754</v>
@@ -5043,16 +6014,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>371338</v>
@@ -5066,16 +6037,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>15359</v>
@@ -5089,16 +6060,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>14727</v>
@@ -5112,16 +6083,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>3605</v>
@@ -5135,16 +6106,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>2215</v>
@@ -5158,13 +6129,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -5178,16 +6149,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>1527</v>
@@ -5201,16 +6172,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>27.6166589580967</v>
@@ -5230,16 +6201,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>126980</v>
@@ -5253,16 +6224,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>172480</v>
@@ -5276,13 +6247,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -5296,16 +6267,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>105227</v>
@@ -5319,16 +6290,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>2107</v>
@@ -5342,16 +6313,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>85888</v>
@@ -5365,16 +6336,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>323628</v>
@@ -5388,16 +6359,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>378208</v>
@@ -5411,16 +6382,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>31308</v>
@@ -5434,16 +6405,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>381368</v>
@@ -5457,16 +6428,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>28148</v>
@@ -5480,16 +6451,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>397048</v>
@@ -5503,16 +6474,16 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>12468</v>
@@ -5526,16 +6497,16 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>408900</v>
@@ -5549,16 +6520,16 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>616</v>
@@ -5572,16 +6543,16 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>145496</v>
@@ -5595,16 +6566,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>216925</v>
@@ -5618,16 +6589,16 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>44580</v>
@@ -5641,13 +6612,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -5661,16 +6632,16 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>373267</v>
@@ -5684,16 +6655,16 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>15990</v>
@@ -5707,16 +6678,16 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>18872</v>
@@ -5730,13 +6701,13 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -5750,10 +6721,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C46" s="8">
         <v>409516</v>
@@ -5761,10 +6732,10 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -5772,10 +6743,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5783,10 +6754,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C49">
         <v>4.5</v>
@@ -5794,10 +6765,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C50">
         <v>89</v>
@@ -5805,10 +6776,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -5816,10 +6787,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C52">
         <v>13</v>
@@ -5827,10 +6798,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>67.3</v>
@@ -5838,10 +6809,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C54">
         <v>352</v>
@@ -5849,10 +6820,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5860,10 +6831,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C56">
         <v>9</v>
@@ -5871,10 +6842,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>13.6</v>
@@ -5882,10 +6853,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C58">
         <v>236</v>
@@ -5893,10 +6864,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -5904,10 +6875,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C60" s="8">
         <v>2745</v>
@@ -5915,10 +6886,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C61" s="10">
         <v>2948.1</v>
@@ -5926,10 +6897,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C62" s="8">
         <v>13218</v>
@@ -5937,10 +6908,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -5948,10 +6919,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C64">
         <v>7.5</v>
@@ -5959,10 +6930,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C65">
         <v>8.1</v>
@@ -5970,10 +6941,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C66">
         <v>36.200000000000003</v>
@@ -5984,7 +6955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A93AC7-3FA7-1D42-AD6E-1B11AA38B449}">
   <dimension ref="A1:J62"/>
   <sheetViews>
@@ -5996,42 +6967,42 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="8">
         <v>81254</v>
@@ -6039,16 +7010,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>57.475599896620501</v>
@@ -6068,16 +7039,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6091,16 +7062,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9">
         <v>45218</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>229</v>
@@ -6114,16 +7085,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>6231</v>
@@ -6137,16 +7108,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>8641</v>
@@ -6160,16 +7131,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>10732</v>
@@ -6183,16 +7154,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>15557</v>
@@ -6206,16 +7177,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>18753</v>
@@ -6229,16 +7200,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>14941</v>
@@ -6252,16 +7223,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>6170</v>
@@ -6275,16 +7246,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>37549</v>
@@ -6298,16 +7269,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>43705</v>
@@ -6321,16 +7292,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>5059</v>
@@ -6344,16 +7315,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>3110</v>
@@ -6367,16 +7338,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>69254</v>
@@ -6390,16 +7361,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>2180</v>
@@ -6413,16 +7384,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>395</v>
@@ -6436,16 +7407,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>7</v>
@@ -6459,16 +7430,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -6482,16 +7453,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>1245</v>
@@ -6505,16 +7476,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>29.940264835648001</v>
@@ -6534,16 +7505,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>865</v>
@@ -6557,16 +7528,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>20029</v>
@@ -6580,16 +7551,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>25958</v>
@@ -6603,16 +7574,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>34288</v>
@@ -6626,16 +7597,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>41731</v>
@@ -6649,16 +7620,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>39523</v>
@@ -6672,16 +7643,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>54250</v>
@@ -6695,16 +7666,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>27004</v>
@@ -6718,16 +7689,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>67847</v>
@@ -6741,16 +7712,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>13407</v>
@@ -6764,16 +7735,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>51781</v>
@@ -6787,16 +7758,16 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>29473</v>
@@ -6810,16 +7781,16 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>53681</v>
@@ -6833,16 +7804,16 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>27573</v>
@@ -6856,16 +7827,16 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>43245</v>
@@ -6879,16 +7850,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>29816</v>
@@ -6902,16 +7873,16 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>7901</v>
@@ -6925,16 +7896,16 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -6948,10 +7919,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C42" s="8">
         <v>81376</v>
@@ -6959,10 +7930,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -6970,10 +7941,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>55</v>
@@ -6981,10 +7952,10 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>104.5</v>
@@ -6992,10 +7963,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C46" s="8">
         <v>1836</v>
@@ -7003,10 +7974,10 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -7014,10 +7985,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>784</v>
@@ -7025,10 +7996,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C49" s="10">
         <v>13790.9</v>
@@ -7036,10 +8007,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C50" s="8">
         <v>79826</v>
@@ -7047,10 +8018,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -7058,10 +8029,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C52">
         <v>53</v>
@@ -7069,10 +8040,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>74.400000000000006</v>
@@ -7080,10 +8051,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C54">
         <v>588</v>
@@ -7091,10 +8062,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -7102,10 +8073,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C56" s="8">
         <v>2969</v>
@@ -7113,10 +8084,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C57" s="10">
         <v>3611.2</v>
@@ -7124,10 +8095,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C58" s="8">
         <v>15900</v>
@@ -7135,10 +8106,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -7146,10 +8117,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C60">
         <v>8.1</v>
@@ -7157,10 +8128,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C61">
         <v>9.9</v>
@@ -7168,10 +8139,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C62">
         <v>43.5</v>
@@ -7182,7 +8153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C873B9-ED57-D54A-96A0-0EC3F5B920F4}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -7194,42 +8165,42 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="8">
         <v>408771</v>
@@ -7237,16 +8208,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>71.026237184144705</v>
@@ -7266,16 +8237,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -7289,16 +8260,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9">
         <v>45218</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7312,16 +8283,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -7335,16 +8306,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -7358,16 +8329,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7381,16 +8352,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>47976</v>
@@ -7404,16 +8375,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>112073</v>
@@ -7427,16 +8398,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>183963</v>
@@ -7450,16 +8421,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>64759</v>
@@ -7473,16 +8444,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>182393</v>
@@ -7496,16 +8467,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>226378</v>
@@ -7519,16 +8490,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>371338</v>
@@ -7542,16 +8513,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>15359</v>
@@ -7565,16 +8536,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>14727</v>
@@ -7588,16 +8559,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>3605</v>
@@ -7611,16 +8582,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>2215</v>
@@ -7634,16 +8605,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>1527</v>
@@ -7657,16 +8628,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>323009</v>
@@ -7680,16 +8651,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>85762</v>
@@ -7703,16 +8674,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>377591</v>
@@ -7726,16 +8697,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>31180</v>
@@ -7749,16 +8720,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>380694</v>
@@ -7772,16 +8743,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>28077</v>
@@ -7795,16 +8766,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>396344</v>
@@ -7818,16 +8789,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>12427</v>
@@ -7841,16 +8812,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>408158</v>
@@ -7864,16 +8835,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>613</v>
@@ -7887,10 +8858,10 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="8">
         <v>409516</v>
@@ -7898,10 +8869,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -7909,10 +8880,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -7920,10 +8891,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <v>4.5999999999999996</v>
@@ -7931,10 +8902,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C35">
         <v>89</v>
@@ -7942,10 +8913,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7953,10 +8924,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C37">
         <v>13</v>
@@ -7964,10 +8935,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>67.599999999999994</v>
@@ -7975,10 +8946,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C39">
         <v>352</v>
@@ -7986,10 +8957,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -7997,10 +8968,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -8008,10 +8979,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>13.6</v>
@@ -8019,10 +8990,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C43">
         <v>236</v>
@@ -8030,10 +9001,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -8041,10 +9012,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C45" s="8">
         <v>2745</v>
@@ -8052,10 +9023,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C46" s="10">
         <v>2948.1</v>
@@ -8063,10 +9034,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C47" s="8">
         <v>13218</v>
@@ -8074,10 +9045,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -8085,10 +9056,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C49">
         <v>7.5</v>
@@ -8096,10 +9067,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>8.1</v>
@@ -8107,10 +9078,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C51">
         <v>36.200000000000003</v>
@@ -8121,7 +9092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63E1CF2-8B7A-F54D-B99D-95894D646652}">
   <dimension ref="A1:J62"/>
   <sheetViews>
@@ -8138,42 +9109,42 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="8">
         <v>216366</v>
@@ -8181,16 +9152,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>53.66594520396</v>
@@ -8210,16 +9181,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>52</v>
@@ -8233,16 +9204,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9">
         <v>45218</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>1802</v>
@@ -8256,16 +9227,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>22541</v>
@@ -8279,16 +9250,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>31175</v>
@@ -8302,16 +9273,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>30384</v>
@@ -8325,16 +9296,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>42195</v>
@@ -8348,16 +9319,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>46059</v>
@@ -8371,16 +9342,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>32252</v>
@@ -8394,16 +9365,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>9906</v>
@@ -8417,16 +9388,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>80753</v>
@@ -8440,16 +9411,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>135613</v>
@@ -8463,16 +9434,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>5508</v>
@@ -8486,16 +9457,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>41070</v>
@@ -8509,16 +9480,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>41353</v>
@@ -8532,16 +9503,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1178</v>
@@ -8555,16 +9526,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>3272</v>
@@ -8578,16 +9549,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>219</v>
@@ -8601,16 +9572,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>6047</v>
@@ -8624,16 +9595,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>117719</v>
@@ -8647,16 +9618,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>30.0602031737636</v>
@@ -8676,16 +9647,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>2667</v>
@@ -8699,16 +9670,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>53089</v>
@@ -8722,16 +9693,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>63275</v>
@@ -8745,16 +9716,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>88757</v>
@@ -8768,16 +9739,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>167432</v>
@@ -8791,16 +9762,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>48934</v>
@@ -8814,16 +9785,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>169680</v>
@@ -8837,16 +9808,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>46686</v>
@@ -8860,16 +9831,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>188538</v>
@@ -8883,16 +9854,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>27828</v>
@@ -8906,16 +9877,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>146310</v>
@@ -8929,16 +9900,16 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>70056</v>
@@ -8952,16 +9923,16 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>155810</v>
@@ -8975,16 +9946,16 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>60556</v>
@@ -8998,16 +9969,16 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>123569</v>
@@ -9021,16 +9992,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
         <v>94</v>
       </c>
-      <c r="B39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" t="s">
-        <v>98</v>
-      </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>51258</v>
@@ -9044,16 +10015,16 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>35361</v>
@@ -9067,16 +10038,16 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>6178</v>
@@ -9090,10 +10061,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C42" s="8">
         <v>216366</v>
@@ -9101,10 +10072,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -9112,10 +10083,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>17</v>
@@ -9123,10 +10094,10 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>30</v>
@@ -9134,10 +10105,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C46">
         <v>481</v>
@@ -9145,10 +10116,10 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -9156,10 +10127,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>69</v>
@@ -9167,10 +10138,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C49">
         <v>251.1</v>
@@ -9178,10 +10149,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C50" s="8">
         <v>1233</v>
@@ -9189,10 +10160,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -9200,10 +10171,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C52">
         <v>39</v>
@@ -9211,10 +10182,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>57.3</v>
@@ -9222,10 +10193,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C54">
         <v>522</v>
@@ -9233,10 +10204,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -9244,10 +10215,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C56" s="8">
         <v>2556</v>
@@ -9255,10 +10226,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C57" s="10">
         <v>3301.7</v>
@@ -9266,10 +10237,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C58" s="8">
         <v>14970</v>
@@ -9277,10 +10248,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -9288,10 +10259,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -9299,10 +10270,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C61">
         <v>9</v>
@@ -9310,10 +10281,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C62">
         <v>41</v>

--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Dropbox (University of Michigan)/projects/dissertation/aim_one/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F1DBC6-DFB3-7B41-A9F0-85AB801290B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A8AFA5-6891-DA40-B48B-1456140C354A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="table 1" sheetId="1" r:id="rId1"/>
     <sheet name="nhanes_weighted" sheetId="13" r:id="rId2"/>
     <sheet name="social_sources" sheetId="8" r:id="rId3"/>
     <sheet name="ehr_sources" sheetId="9" r:id="rId4"/>
@@ -26,6 +26,8 @@
     <sheet name="ukb_unweighted" sheetId="4" r:id="rId11"/>
     <sheet name="ukb_weighted" sheetId="12" r:id="rId12"/>
     <sheet name="aou_unweighted" sheetId="2" r:id="rId13"/>
+    <sheet name="aou_ip_weighted" sheetId="14" r:id="rId14"/>
+    <sheet name="aou_ps_weighted" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,30 +49,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="483">
   <si>
     <t>MGI</t>
   </si>
@@ -1702,11 +1682,161 @@
   <si>
     <t>87.0 (0.05)</t>
   </si>
+  <si>
+    <t>53.2 (0.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9 (0.0)</t>
+  </si>
+  <si>
+    <t>11.0 (0.1)</t>
+  </si>
+  <si>
+    <t>14.1 (0.1)</t>
+  </si>
+  <si>
+    <t>14.5 (0.1)</t>
+  </si>
+  <si>
+    <t>18.3 (0.1)</t>
+  </si>
+  <si>
+    <t>23.4 (0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6 (0.0)</t>
+  </si>
+  <si>
+    <t>62.7 (0.1)</t>
+  </si>
+  <si>
+    <t>37.3 (0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5 (0.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5 (0.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1 (0.0)</t>
+  </si>
+  <si>
+    <t>19.0 (0.1)</t>
+  </si>
+  <si>
+    <t>30.0 (0.0)</t>
+  </si>
+  <si>
+    <t>24.2 (0.1)</t>
+  </si>
+  <si>
+    <t>41.7 (0.1)</t>
+  </si>
+  <si>
+    <t>32.6 (0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5 (0.0)</t>
+  </si>
+  <si>
+    <t>17.2 (0.1)</t>
+  </si>
+  <si>
+    <t>56.6 (0.1)</t>
+  </si>
+  <si>
+    <t>23.6 (0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6 (0.0)</t>
+  </si>
+  <si>
+    <t>46.1 (0.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.0 (0.0)</t>
+  </si>
+  <si>
+    <t>18.5 (0.1)</t>
+  </si>
+  <si>
+    <t>21.1 (0.1)</t>
+  </si>
+  <si>
+    <t>20.6 (0.1)</t>
+  </si>
+  <si>
+    <t>15.3 (0.1)</t>
+  </si>
+  <si>
+    <t>10.2 (0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.0 (0.1)</t>
+  </si>
+  <si>
+    <t>65.6 (0.1)</t>
+  </si>
+  <si>
+    <t>34.4 (0.1)</t>
+  </si>
+  <si>
+    <t>29.7 (0.0)</t>
+  </si>
+  <si>
+    <t>28.2 (0.1)</t>
+  </si>
+  <si>
+    <t>40.6 (0.1)</t>
+  </si>
+  <si>
+    <t>29.8 (0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4 (0.0)</t>
+  </si>
+  <si>
+    <t>13.0 (0.1)</t>
+  </si>
+  <si>
+    <t>63.9 (0.1)</t>
+  </si>
+  <si>
+    <t>19.8 (0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3 (0.0)</t>
+  </si>
+  <si>
+    <t>21.5 (0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7 (0.0)</t>
+  </si>
+  <si>
+    <t>52.2 (0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4 (0.1)</t>
+  </si>
+  <si>
+    <t>22.5 (0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.9 (0.0)</t>
+  </si>
+  <si>
+    <t>50.6 (0.1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -1745,7 +1875,7 @@
       <name val="ArialMT"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1761,18 +1891,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,7 +1925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1958,14 +2076,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2287,7 +2399,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2324,7 +2436,7 @@
     </row>
     <row r="2" spans="1:12" ht="19">
       <c r="A2" s="20"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="21" t="s">
         <v>241</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -2333,26 +2445,26 @@
       <c r="D2" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="57" t="s">
         <v>247</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>249</v>
       </c>
       <c r="I2" s="36"/>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="21" t="s">
         <v>244</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="22" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2427,8 +2539,14 @@
         <f>aou_unweighted!C3</f>
         <v>53.67 (17.20)</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="F6" s="24" t="str">
+        <f>aou_ip_weighted!E2</f>
+        <v>53.2 (0.0)</v>
+      </c>
+      <c r="G6" s="24" t="str">
+        <f>aou_ps_weighted!E2</f>
+        <v>46.1 (0.0)</v>
+      </c>
       <c r="H6" s="24" t="str">
         <f>ROUND(nhanes_weighted!A2, 2)&amp;" ("&amp;ROUND(nhanes_weighted!B2, 2)&amp;")"</f>
         <v>44.25 (0.55)</v>
@@ -2470,6 +2588,14 @@
         <f>aou_unweighted!C4</f>
         <v xml:space="preserve"> 0.0 (52)</v>
       </c>
+      <c r="F8" s="4" t="str">
+        <f>aou_ip_weighted!E3</f>
+        <v xml:space="preserve"> 0.0 (0.0)</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f>aou_ps_weighted!E3</f>
+        <v xml:space="preserve"> 0.1 (0.0)</v>
+      </c>
       <c r="H8" s="4" t="str">
         <f>nhanes_weighted!E3</f>
         <v xml:space="preserve"> 0.0 (0.0)</v>
@@ -2482,6 +2608,9 @@
         <f>ukb_weighted!E3</f>
         <v xml:space="preserve"> 0.0 (0.0)</v>
       </c>
+      <c r="L8" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
@@ -2503,6 +2632,14 @@
         <f>aou_unweighted!C5</f>
         <v xml:space="preserve"> 0.8 (1,802)</v>
       </c>
+      <c r="F9" s="4" t="str">
+        <f>aou_ip_weighted!E4</f>
+        <v xml:space="preserve"> 0.9 (0.0)</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f>aou_ps_weighted!E4</f>
+        <v xml:space="preserve"> 2.0 (0.0)</v>
+      </c>
       <c r="H9" s="4" t="str">
         <f>nhanes_weighted!E4</f>
         <v>12.4 (0.7)</v>
@@ -2515,6 +2652,9 @@
         <f>ukb_weighted!E4</f>
         <v xml:space="preserve"> 0.0 (0.0)</v>
       </c>
+      <c r="L9" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
@@ -2536,6 +2676,14 @@
         <f>aou_unweighted!C6</f>
         <v>10.4 (22,541)</v>
       </c>
+      <c r="F10" s="4" t="str">
+        <f>aou_ip_weighted!E5</f>
+        <v>11.0 (0.1)</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f>aou_ps_weighted!E5</f>
+        <v>18.5 (0.1)</v>
+      </c>
       <c r="H10" s="4" t="str">
         <f>nhanes_weighted!E5</f>
         <v>16.1 (0.9)</v>
@@ -2548,6 +2696,9 @@
         <f>ukb_weighted!E5</f>
         <v xml:space="preserve"> 0.0 (0.0)</v>
       </c>
+      <c r="L10" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
@@ -2569,6 +2720,14 @@
         <f>aou_unweighted!C7</f>
         <v>14.4 (31,175)</v>
       </c>
+      <c r="F11" s="4" t="str">
+        <f>aou_ip_weighted!E6</f>
+        <v>14.1 (0.1)</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f>aou_ps_weighted!E6</f>
+        <v>21.1 (0.1)</v>
+      </c>
       <c r="H11" s="4" t="str">
         <f>nhanes_weighted!E6</f>
         <v>15.5 (0.7)</v>
@@ -2581,6 +2740,9 @@
         <f>ukb_weighted!E6</f>
         <v xml:space="preserve"> 0.0 (0.0)</v>
       </c>
+      <c r="L11" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
@@ -2602,6 +2764,14 @@
         <f>aou_unweighted!C8</f>
         <v>14.0 (30,384)</v>
       </c>
+      <c r="F12" s="4" t="str">
+        <f>aou_ip_weighted!E7</f>
+        <v>14.5 (0.1)</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f>aou_ps_weighted!E7</f>
+        <v>20.6 (0.1)</v>
+      </c>
       <c r="H12" s="4" t="str">
         <f>nhanes_weighted!E7</f>
         <v>14.2 (0.7)</v>
@@ -2614,6 +2784,9 @@
         <f>ukb_weighted!E7</f>
         <v>37.4 (0.1)</v>
       </c>
+      <c r="L12" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
@@ -2635,6 +2808,14 @@
         <f>aou_unweighted!C9</f>
         <v>19.5 (42,195)</v>
       </c>
+      <c r="F13" s="4" t="str">
+        <f>aou_ip_weighted!E8</f>
+        <v>18.3 (0.1)</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f>aou_ps_weighted!E8</f>
+        <v>15.3 (0.1)</v>
+      </c>
       <c r="H13" s="4" t="str">
         <f>nhanes_weighted!E8</f>
         <v>16.2 (0.9)</v>
@@ -2647,6 +2828,9 @@
         <f>ukb_weighted!E8</f>
         <v>31.8 (0.1)</v>
       </c>
+      <c r="L13" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
@@ -2668,6 +2852,14 @@
         <f>aou_unweighted!C10</f>
         <v>21.3 (46,059)</v>
       </c>
+      <c r="F14" s="4" t="str">
+        <f>aou_ip_weighted!E9</f>
+        <v>23.4 (0.1)</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f>aou_ps_weighted!E9</f>
+        <v>10.2 (0.1)</v>
+      </c>
       <c r="H14" s="4" t="str">
         <f>nhanes_weighted!E9</f>
         <v>13.5 (1.0)</v>
@@ -2680,6 +2872,9 @@
         <f>ukb_weighted!E9</f>
         <v>30.2 (0.1)</v>
       </c>
+      <c r="L14" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
@@ -2701,6 +2896,14 @@
         <f>aou_unweighted!C11</f>
         <v>14.9 (32,252)</v>
       </c>
+      <c r="F15" s="4" t="str">
+        <f>aou_ip_weighted!E10</f>
+        <v>14.1 (0.1)</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f>aou_ps_weighted!E10</f>
+        <v xml:space="preserve"> 8.0 (0.1)</v>
+      </c>
       <c r="H15" s="4" t="str">
         <f>nhanes_weighted!E10</f>
         <v xml:space="preserve"> 8.0 (0.5)</v>
@@ -2713,6 +2916,9 @@
         <f>ukb_weighted!E10</f>
         <v xml:space="preserve"> 0.6 (0.0)</v>
       </c>
+      <c r="L15" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
@@ -2734,6 +2940,14 @@
         <f>aou_unweighted!C12</f>
         <v xml:space="preserve"> 4.6 (9,906)</v>
       </c>
+      <c r="F16" s="4" t="str">
+        <f>aou_ip_weighted!E11</f>
+        <v xml:space="preserve"> 3.6 (0.0)</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f>aou_ps_weighted!E11</f>
+        <v xml:space="preserve"> 4.2 (0.1)</v>
+      </c>
       <c r="H16" s="4" t="str">
         <f>nhanes_weighted!E11</f>
         <v xml:space="preserve"> 4.1 (0.4)</v>
@@ -2745,6 +2959,9 @@
       <c r="K16" s="4" t="str">
         <f>ukb_weighted!E11</f>
         <v xml:space="preserve"> 0.0 (0.0)</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="23" customFormat="1">
@@ -2783,8 +3000,14 @@
         <f>aou_unweighted!C13</f>
         <v>37.3 (80,753)</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="24" t="str">
+        <f>aou_ip_weighted!E13</f>
+        <v>37.3 (0.1)</v>
+      </c>
+      <c r="G18" s="24" t="str">
+        <f>aou_ps_weighted!E13</f>
+        <v>34.4 (0.1)</v>
+      </c>
       <c r="H18" s="24" t="str">
         <f>nhanes_weighted!E13</f>
         <v>48.5 (0.9)</v>
@@ -2822,8 +3045,14 @@
         <f>aou_unweighted!C14</f>
         <v>62.7 (135,613)</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="24" t="str">
+        <f>aou_ip_weighted!E12</f>
+        <v>62.7 (0.1)</v>
+      </c>
+      <c r="G19" s="24" t="str">
+        <f>aou_ps_weighted!E12</f>
+        <v>65.6 (0.1)</v>
+      </c>
       <c r="H19" s="24" t="str">
         <f>nhanes_weighted!E12</f>
         <v>51.5 (0.9)</v>
@@ -2865,6 +3094,12 @@
       <c r="E21" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="F21" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="H21" s="4" t="s">
         <v>157</v>
       </c>
@@ -2872,6 +3107,9 @@
         <v>157</v>
       </c>
       <c r="K21" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2895,6 +3133,14 @@
         <f>aou_unweighted!C15</f>
         <v xml:space="preserve"> 2.5 (5,508)</v>
       </c>
+      <c r="F22" s="4" t="str">
+        <f>aou_ip_weighted!E14</f>
+        <v xml:space="preserve"> 2.5 (0.0)</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f>aou_ps_weighted!E14</f>
+        <v xml:space="preserve"> 3.4 (0.1)</v>
+      </c>
       <c r="H22" s="4" t="str">
         <f>nhanes_weighted!E15</f>
         <v xml:space="preserve"> 5.8 (1.0)</v>
@@ -2907,6 +3153,9 @@
         <f>ukb_weighted!E14</f>
         <v xml:space="preserve"> 4.7 (0.1)</v>
       </c>
+      <c r="L22" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
@@ -2928,6 +3177,14 @@
         <f>aou_unweighted!C16</f>
         <v>19.0 (41,070)</v>
       </c>
+      <c r="F23" s="4" t="str">
+        <f>aou_ip_weighted!E15</f>
+        <v>19.0 (0.1)</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f>aou_ps_weighted!E15</f>
+        <v>18.3 (0.1)</v>
+      </c>
       <c r="H23" s="4" t="str">
         <f>nhanes_weighted!E16</f>
         <v>11.7 (1.6)</v>
@@ -2940,6 +3197,9 @@
         <f>ukb_weighted!E15</f>
         <v xml:space="preserve"> 2.9 (0.0)</v>
       </c>
+      <c r="L23" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
@@ -2961,6 +3221,14 @@
         <f>aou_unweighted!C17</f>
         <v>19.1 (41,353)</v>
       </c>
+      <c r="F24" s="4" t="str">
+        <f>aou_ip_weighted!E16</f>
+        <v>21.5 (0.1)</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f>aou_ps_weighted!E16</f>
+        <v>22.5 (0.1)</v>
+      </c>
       <c r="H24" s="4" t="str">
         <f>nhanes_weighted!E14</f>
         <v>16.8 (2.1)</v>
@@ -2971,6 +3239,9 @@
       <c r="K24" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="L24" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
@@ -2989,6 +3260,14 @@
         <f>aou_unweighted!C18</f>
         <v xml:space="preserve"> 0.5 (1,178)</v>
       </c>
+      <c r="F25" s="4" t="str">
+        <f>aou_ip_weighted!E17</f>
+        <v xml:space="preserve"> 0.5 (0.0)</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f>aou_ps_weighted!E17</f>
+        <v xml:space="preserve"> 0.6 (0.0)</v>
+      </c>
       <c r="H25" s="4" t="s">
         <v>157</v>
       </c>
@@ -2996,6 +3275,9 @@
         <v>157</v>
       </c>
       <c r="K25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3016,6 +3298,14 @@
         <f>aou_unweighted!C19</f>
         <v xml:space="preserve"> 1.5 (3,272)</v>
       </c>
+      <c r="F26" s="4" t="str">
+        <f>aou_ip_weighted!E18</f>
+        <v xml:space="preserve"> 1.4 (0.0)</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f>aou_ps_weighted!E18</f>
+        <v xml:space="preserve"> 1.9 (0.0)</v>
+      </c>
       <c r="H26" s="4" t="s">
         <v>157</v>
       </c>
@@ -3023,6 +3313,9 @@
         <v>157</v>
       </c>
       <c r="K26" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3046,6 +3339,14 @@
         <f>aou_unweighted!C20</f>
         <v xml:space="preserve"> 0.1 (219)</v>
       </c>
+      <c r="F27" s="4" t="str">
+        <f>aou_ip_weighted!E19</f>
+        <v xml:space="preserve"> 0.1 (0.0)</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f>aou_ps_weighted!E19</f>
+        <v xml:space="preserve"> 0.1 (0.0)</v>
+      </c>
       <c r="H27" s="4" t="s">
         <v>157</v>
       </c>
@@ -3053,6 +3354,9 @@
         <v>157</v>
       </c>
       <c r="K27" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3072,6 +3376,12 @@
       <c r="E28" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="F28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="H28" s="4" t="str">
         <f>nhanes_weighted!E18</f>
         <v xml:space="preserve"> 4.9 (0.5)</v>
@@ -3084,6 +3394,9 @@
         <f>ukb_weighted!E16</f>
         <v xml:space="preserve"> 1.8 (0.0)</v>
       </c>
+      <c r="L28" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
@@ -3105,6 +3418,14 @@
         <f>aou_unweighted!C21</f>
         <v xml:space="preserve"> 2.8 (6,047)</v>
       </c>
+      <c r="F29" s="4" t="str">
+        <f>aou_ip_weighted!E20</f>
+        <v xml:space="preserve"> 2.7 (0.0)</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f>aou_ps_weighted!E20</f>
+        <v xml:space="preserve"> 2.5 (0.0)</v>
+      </c>
       <c r="H29" s="4" t="s">
         <v>157</v>
       </c>
@@ -3115,6 +3436,9 @@
       <c r="K29" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="L29" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
@@ -3136,6 +3460,14 @@
         <f>aou_unweighted!C22</f>
         <v>54.4 (117,719)</v>
       </c>
+      <c r="F30" s="4" t="str">
+        <f>aou_ip_weighted!E21</f>
+        <v>52.2 (0.1)</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f>aou_ps_weighted!E21</f>
+        <v>50.6 (0.1)</v>
+      </c>
       <c r="H30" s="4" t="str">
         <f>nhanes_weighted!E17</f>
         <v>60.9 (2.5)</v>
@@ -3172,8 +3504,14 @@
         <f>aou_unweighted!C23</f>
         <v>30.06 (7.70)</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="F31" s="24" t="str">
+        <f>aou_ip_weighted!E22</f>
+        <v>30.0 (0.0)</v>
+      </c>
+      <c r="G31" s="24" t="str">
+        <f>aou_ps_weighted!E22</f>
+        <v>29.7 (0.0)</v>
+      </c>
       <c r="H31" s="24" t="str">
         <f>nhanes_weighted!E19</f>
         <v>29.1 (0.2)</v>
@@ -3210,8 +3548,16 @@
         <v xml:space="preserve"> 1.2 (0.1)</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f>aou_unweighted!C24</f>
+        <f>aou_unweighted!C28</f>
         <v xml:space="preserve"> 1.3 (2,667)</v>
+      </c>
+      <c r="F33" s="4" t="str">
+        <f>aou_ip_weighted!E26</f>
+        <v xml:space="preserve"> 1.5 (0.0)</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f>aou_ps_weighted!E26</f>
+        <v xml:space="preserve"> 1.4 (0.0)</v>
       </c>
       <c r="H33" s="4" t="str">
         <f>nhanes_weighted!E23</f>
@@ -3224,6 +3570,9 @@
         <f>ukb_weighted!E22</f>
         <v xml:space="preserve"> 0.6 (0.0)</v>
       </c>
+      <c r="L33" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
@@ -3242,8 +3591,16 @@
         <v>31.2 (0.3)</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f>aou_unweighted!C25</f>
+        <f>aou_unweighted!C24</f>
         <v>25.5 (53,089)</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <f>aou_ip_weighted!E23</f>
+        <v>24.2 (0.1)</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f>aou_ps_weighted!E23</f>
+        <v>28.2 (0.1)</v>
       </c>
       <c r="H34" s="4" t="str">
         <f>nhanes_weighted!E20</f>
@@ -3256,6 +3613,9 @@
         <f>ukb_weighted!E19</f>
         <v>31.8 (0.1)</v>
       </c>
+      <c r="L34" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
@@ -3277,6 +3637,14 @@
         <f>aou_unweighted!C26</f>
         <v>30.5 (63,275)</v>
       </c>
+      <c r="F35" s="4" t="str">
+        <f>aou_ip_weighted!E25</f>
+        <v>32.6 (0.1)</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f>aou_ps_weighted!E25</f>
+        <v>29.8 (0.1)</v>
+      </c>
       <c r="H35" s="4" t="str">
         <f>nhanes_weighted!E22</f>
         <v>29.6 (1.1)</v>
@@ -3288,6 +3656,9 @@
         <f>ukb_weighted!E21</f>
         <v>41.8 (0.1)</v>
       </c>
+      <c r="L35" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
@@ -3306,8 +3677,16 @@
         <v>35.5 (0.3)</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f>aou_unweighted!C27</f>
+        <f>aou_unweighted!C25</f>
         <v>42.7 (88,757)</v>
+      </c>
+      <c r="F36" s="4" t="str">
+        <f>aou_ip_weighted!E24</f>
+        <v>41.7 (0.1)</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f>aou_ps_weighted!E24</f>
+        <v>40.6 (0.1)</v>
       </c>
       <c r="H36" s="4" t="str">
         <f>nhanes_weighted!E21</f>
@@ -3320,6 +3699,9 @@
         <f>ukb_weighted!E20</f>
         <v>25.9 (0.1)</v>
       </c>
+      <c r="L36" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="37" spans="1:12" s="23" customFormat="1" ht="18">
       <c r="A37" s="28" t="s">
@@ -3338,11 +3720,17 @@
         <v>5</v>
       </c>
       <c r="E37" s="24" t="str">
-        <f>aou_unweighted!C29</f>
+        <f>aou_unweighted!C30</f>
         <v>22.6 (48,934)</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="F37" s="24">
+        <f>ROUND(aou_ip_weighted!A27*100, 1)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G37" s="24">
+        <f>ROUND(aou_ps_weighted!A27*100, 1)</f>
+        <v>4.9000000000000004</v>
+      </c>
       <c r="H37" s="24">
         <f>ROUND(nhanes_weighted!A24*100, 1)</f>
         <v>11</v>
@@ -3356,7 +3744,9 @@
         <f>ROUND(ukb_weighted!A23*100, 1)</f>
         <v>18.8</v>
       </c>
-      <c r="L37" s="24"/>
+      <c r="L37" s="24" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="6" t="s">
@@ -3375,8 +3765,16 @@
         <v>6.8</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f>aou_unweighted!C31</f>
+        <f>aou_unweighted!C32</f>
         <v>21.6 (46,686)</v>
+      </c>
+      <c r="F38" s="4">
+        <f>ROUND(aou_ip_weighted!A28*100, 1)</f>
+        <v>16.7</v>
+      </c>
+      <c r="G38" s="4">
+        <f>ROUND(aou_ps_weighted!A28*100, 1)</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H38" s="4">
         <f>ROUND(nhanes_weighted!A25*100, 1)</f>
@@ -3390,6 +3788,9 @@
         <f>ROUND(ukb_weighted!A24*100, 1)</f>
         <v>9</v>
       </c>
+      <c r="L38" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="39" spans="1:12" s="23" customFormat="1">
       <c r="A39" s="28" t="s">
@@ -3408,11 +3809,17 @@
         <v>2.6</v>
       </c>
       <c r="E39" s="24" t="str">
-        <f>aou_unweighted!C33</f>
+        <f>aou_unweighted!C34</f>
         <v>12.9 (27,828)</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="F39" s="24">
+        <f>ROUND(aou_ip_weighted!A29*100, 1)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G39" s="24">
+        <f>ROUND(aou_ps_weighted!A29*100, 1)</f>
+        <v>4.7</v>
+      </c>
       <c r="H39" s="24">
         <f>ROUND(nhanes_weighted!A26*100, 1)</f>
         <v>4.0999999999999996</v>
@@ -3426,7 +3833,9 @@
         <f>ROUND(ukb_weighted!A25*100, 1)</f>
         <v>6.5</v>
       </c>
-      <c r="L39" s="24"/>
+      <c r="L39" s="24" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="6" t="s">
@@ -3445,8 +3854,16 @@
         <v>33.4</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f>aou_unweighted!C35</f>
+        <f>aou_unweighted!C36</f>
         <v>32.4 (70,056)</v>
+      </c>
+      <c r="F40" s="4">
+        <f>ROUND(aou_ip_weighted!A30*100, 1)</f>
+        <v>29.2</v>
+      </c>
+      <c r="G40" s="4">
+        <f>ROUND(aou_ps_weighted!A30*100, 1)</f>
+        <v>28.8</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>157</v>
@@ -3459,6 +3876,9 @@
         <f>ROUND(ukb_weighted!A26*100, 1)</f>
         <v>5</v>
       </c>
+      <c r="L40" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="41" spans="1:12" s="23" customFormat="1">
       <c r="A41" s="28" t="s">
@@ -3477,11 +3897,17 @@
         <v>29.8</v>
       </c>
       <c r="E41" s="24" t="str">
-        <f>aou_unweighted!C37</f>
+        <f>aou_unweighted!C38</f>
         <v>28.0 (60,556)</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="F41" s="24">
+        <f>ROUND(aou_ip_weighted!A31*100, 1)</f>
+        <v>25</v>
+      </c>
+      <c r="G41" s="24">
+        <f>ROUND(aou_ps_weighted!A31*100, 1)</f>
+        <v>23.2</v>
+      </c>
       <c r="H41" s="24">
         <f>ROUND(nhanes_weighted!A27*100, 1)</f>
         <v>8.5</v>
@@ -3495,7 +3921,9 @@
         <f>ROUND(ukb_weighted!A27*100, 1)</f>
         <v>0.2</v>
       </c>
-      <c r="L41" s="24"/>
+      <c r="L41" s="24" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="6" t="s">
@@ -3518,9 +3946,17 @@
         <f>mgi_ps_weighted!E32</f>
         <v>65.8 (0.3)</v>
       </c>
-      <c r="E43" s="4" t="str" cm="1">
-        <f t="array" ref="E43:E46">aou_unweighted!C38:C41</f>
+      <c r="E43" s="4" t="str">
+        <f>aou_unweighted!C39</f>
         <v>57.1 (123,569)</v>
+      </c>
+      <c r="F43" s="4" t="str">
+        <f>aou_ip_weighted!E33</f>
+        <v>56.6 (0.1)</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f>aou_ps_weighted!E33</f>
+        <v>63.9 (0.1)</v>
       </c>
       <c r="H43" s="4" t="str">
         <f>nhanes_weighted!E30</f>
@@ -3533,6 +3969,9 @@
         <f>ukb_weighted!E29</f>
         <v>53.8 (0.1)</v>
       </c>
+      <c r="L43" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
@@ -3551,7 +3990,16 @@
         <v>28.1 (0.3)</v>
       </c>
       <c r="E44" s="4" t="str">
+        <f>aou_unweighted!C40</f>
         <v>23.7 (51,258)</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <f>aou_ip_weighted!E34</f>
+        <v>23.6 (0.1)</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f>aou_ps_weighted!E34</f>
+        <v>19.8 (0.1)</v>
       </c>
       <c r="H44" s="4" t="str">
         <f>nhanes_weighted!E29</f>
@@ -3564,6 +4012,9 @@
         <f>ukb_weighted!E31</f>
         <v>31.9 (0.1)</v>
       </c>
+      <c r="L44" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
@@ -3582,7 +4033,16 @@
         <v xml:space="preserve"> 6.1 (0.1)</v>
       </c>
       <c r="E45" s="4" t="str">
+        <f>aou_unweighted!C41</f>
         <v>16.3 (35,361)</v>
+      </c>
+      <c r="F45" s="4" t="str">
+        <f>aou_ip_weighted!E32</f>
+        <v>17.2 (0.1)</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f>aou_ps_weighted!E32</f>
+        <v>13.0 (0.1)</v>
       </c>
       <c r="H45" s="4" t="str">
         <f>nhanes_weighted!E28</f>
@@ -3595,6 +4055,9 @@
         <f>ukb_weighted!E28</f>
         <v>13.9 (0.1)</v>
       </c>
+      <c r="L45" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
@@ -3612,8 +4075,17 @@
         <f>mgi_ps_weighted!E35</f>
         <v xml:space="preserve"> 0.0 (0.0)</v>
       </c>
-      <c r="E46" s="4" t="str">
+      <c r="E46" s="31" t="str">
+        <f>aou_unweighted!C42</f>
         <v xml:space="preserve"> 2.9 (6,178)</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <f>aou_ip_weighted!E35</f>
+        <v xml:space="preserve"> 2.6 (0.0)</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f>aou_ps_weighted!E35</f>
+        <v xml:space="preserve"> 3.3 (0.0)</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>157</v>
@@ -3624,6 +4096,9 @@
       <c r="K46" s="4" t="str">
         <f>ukb_weighted!E30</f>
         <v xml:space="preserve"> 0.4 (0.0)</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="5" customHeight="1"/>
@@ -3663,7 +4138,7 @@
         <v>157</v>
       </c>
       <c r="E50" s="24">
-        <f>aou_unweighted!C43</f>
+        <f>aou_unweighted!C44</f>
         <v>1</v>
       </c>
       <c r="F50" s="24" t="s">
@@ -3676,9 +4151,9 @@
         <v>157</v>
       </c>
       <c r="I50" s="24"/>
-      <c r="J50" s="24" t="str">
-        <f>ukb_unweighted!C32</f>
-        <v xml:space="preserve"> 6.7 (33,546)</v>
+      <c r="J50" s="35">
+        <f>ukb_unweighted!C45</f>
+        <v>1</v>
       </c>
       <c r="K50" s="24" t="s">
         <v>157</v>
@@ -3702,7 +4177,7 @@
         <v>157</v>
       </c>
       <c r="E51" s="24">
-        <f>aou_unweighted!C44</f>
+        <f>aou_unweighted!C45</f>
         <v>17</v>
       </c>
       <c r="F51" s="24" t="s">
@@ -3715,9 +4190,9 @@
         <v>157</v>
       </c>
       <c r="I51" s="24"/>
-      <c r="J51" s="24" t="str">
-        <f>ukb_unweighted!C33</f>
-        <v>95.6 (477,930)</v>
+      <c r="J51" s="35">
+        <f>ukb_unweighted!C46</f>
+        <v>3</v>
       </c>
       <c r="K51" s="24" t="s">
         <v>157</v>
@@ -3741,7 +4216,7 @@
         <v>157</v>
       </c>
       <c r="E52" s="24">
-        <f>aou_unweighted!C45</f>
+        <f>aou_unweighted!C46</f>
         <v>30</v>
       </c>
       <c r="F52" s="24" t="s">
@@ -3754,9 +4229,9 @@
         <v>157</v>
       </c>
       <c r="I52" s="24"/>
-      <c r="J52" s="24" t="str">
-        <f>ukb_unweighted!C34</f>
-        <v xml:space="preserve"> 4.4 (22,054)</v>
+      <c r="J52" s="35">
+        <f>ukb_unweighted!C47</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K52" s="24" t="s">
         <v>157</v>
@@ -3780,7 +4255,7 @@
         <v>157</v>
       </c>
       <c r="E53" s="24">
-        <f>aou_unweighted!C46</f>
+        <f>aou_unweighted!C47</f>
         <v>481</v>
       </c>
       <c r="F53" s="24" t="s">
@@ -3793,9 +4268,9 @@
         <v>157</v>
       </c>
       <c r="I53" s="24"/>
-      <c r="J53" s="24" t="str">
-        <f>ukb_unweighted!C35</f>
-        <v>99.9 (499,263)</v>
+      <c r="J53" s="35">
+        <f>ukb_unweighted!C48</f>
+        <v>92</v>
       </c>
       <c r="K53" s="24" t="s">
         <v>157</v>
@@ -3845,7 +4320,7 @@
         <v>157</v>
       </c>
       <c r="E55" s="4">
-        <f>aou_unweighted!C47</f>
+        <f>aou_unweighted!C48</f>
         <v>1</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -3882,7 +4357,7 @@
         <v>157</v>
       </c>
       <c r="E56" s="4">
-        <f>aou_unweighted!C48</f>
+        <f>aou_unweighted!C49</f>
         <v>69</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -3919,7 +4394,7 @@
         <v>157</v>
       </c>
       <c r="E57" s="4">
-        <f>aou_unweighted!C49</f>
+        <f>aou_unweighted!C50</f>
         <v>251.1</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -3956,7 +4431,7 @@
         <v>157</v>
       </c>
       <c r="E58" s="4">
-        <f>aou_unweighted!C50</f>
+        <f>aou_unweighted!C51</f>
         <v>1233</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -4023,7 +4498,7 @@
         <v>157</v>
       </c>
       <c r="E60" s="24">
-        <f>aou_unweighted!C51</f>
+        <f>aou_unweighted!C52</f>
         <v>1</v>
       </c>
       <c r="F60" s="24" t="s">
@@ -4036,9 +4511,9 @@
         <v>157</v>
       </c>
       <c r="I60" s="24"/>
-      <c r="J60" s="24" t="str">
-        <f>ukb_unweighted!C40</f>
-        <v xml:space="preserve"> 0.4 (2,044)</v>
+      <c r="J60" s="24">
+        <f>ukb_unweighted!C53</f>
+        <v>1</v>
       </c>
       <c r="K60" s="24" t="s">
         <v>157</v>
@@ -4062,7 +4537,7 @@
         <v>157</v>
       </c>
       <c r="E61" s="24">
-        <f>aou_unweighted!C52</f>
+        <f>aou_unweighted!C53</f>
         <v>39</v>
       </c>
       <c r="F61" s="24" t="s">
@@ -4075,9 +4550,9 @@
         <v>157</v>
       </c>
       <c r="I61" s="24"/>
-      <c r="J61" s="24" t="str">
-        <f>ukb_unweighted!C41</f>
-        <v xml:space="preserve"> 0.0 (0)</v>
+      <c r="J61" s="24">
+        <f>ukb_unweighted!C54</f>
+        <v>12</v>
       </c>
       <c r="K61" s="24" t="s">
         <v>157</v>
@@ -4101,7 +4576,7 @@
         <v>157</v>
       </c>
       <c r="E62" s="24">
-        <f>aou_unweighted!C53</f>
+        <f>aou_unweighted!C54</f>
         <v>57.3</v>
       </c>
       <c r="F62" s="24" t="s">
@@ -4114,9 +4589,9 @@
         <v>157</v>
       </c>
       <c r="I62" s="24"/>
-      <c r="J62" s="24" t="str">
-        <f>ukb_unweighted!C42</f>
-        <v xml:space="preserve"> 4.6 (22,804)</v>
+      <c r="J62" s="24">
+        <f>ukb_unweighted!C55</f>
+        <v>16.899999999999999</v>
       </c>
       <c r="K62" s="24" t="s">
         <v>157</v>
@@ -4149,7 +4624,7 @@
         <v>157</v>
       </c>
       <c r="E63" s="24">
-        <f>aou_unweighted!C54</f>
+        <f>aou_unweighted!C55</f>
         <v>522</v>
       </c>
       <c r="F63" s="24" t="s">
@@ -4162,9 +4637,9 @@
         <v>157</v>
       </c>
       <c r="I63" s="24"/>
-      <c r="J63" s="24" t="str">
-        <f>ukb_unweighted!C43</f>
-        <v>95.4 (476,351)</v>
+      <c r="J63" s="24">
+        <f>ukb_unweighted!C56</f>
+        <v>238</v>
       </c>
       <c r="K63" s="24" t="s">
         <v>157</v>
@@ -4203,7 +4678,7 @@
       <c r="A65" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="56">
         <f>mgi_unweighted!C59</f>
         <v>0</v>
       </c>
@@ -4213,8 +4688,8 @@
       <c r="D65" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E65" s="16">
-        <f>aou_unweighted!C59</f>
+      <c r="E65" s="56">
+        <f>aou_unweighted!C60</f>
         <v>0</v>
       </c>
       <c r="F65" s="16" t="s">
@@ -4228,8 +4703,8 @@
       </c>
       <c r="I65" s="16"/>
       <c r="J65" s="4">
-        <f>ukb_unweighted!C48</f>
-        <v>92</v>
+        <f>ukb_unweighted!C61</f>
+        <v>0</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>157</v>
@@ -4252,8 +4727,8 @@
       <c r="D66" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E66" s="16">
-        <f>aou_unweighted!C60</f>
+      <c r="E66" s="56">
+        <f>aou_unweighted!C61</f>
         <v>7</v>
       </c>
       <c r="F66" s="16" t="s">
@@ -4267,8 +4742,8 @@
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="4">
-        <f>ukb_unweighted!C49</f>
-        <v>1</v>
+        <f>ukb_unweighted!C62</f>
+        <v>7.6</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>157</v>
@@ -4291,8 +4766,8 @@
       <c r="D67" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E67" s="16">
-        <f>aou_unweighted!C61</f>
+      <c r="E67" s="56">
+        <f>aou_unweighted!C62</f>
         <v>9</v>
       </c>
       <c r="F67" s="16" t="s">
@@ -4306,8 +4781,8 @@
       </c>
       <c r="I67" s="16"/>
       <c r="J67" s="4">
-        <f>ukb_unweighted!C50</f>
-        <v>20</v>
+        <f>ukb_unweighted!C63</f>
+        <v>8.1</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>157</v>
@@ -4330,8 +4805,8 @@
       <c r="D68" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E68" s="19">
-        <f>aou_unweighted!C62</f>
+      <c r="E68" s="56">
+        <f>aou_unweighted!C63</f>
         <v>41</v>
       </c>
       <c r="F68" s="19" t="s">
@@ -4344,9 +4819,9 @@
         <v>157</v>
       </c>
       <c r="I68" s="19"/>
-      <c r="J68" s="18">
-        <f>ukb_unweighted!C51</f>
-        <v>127.6</v>
+      <c r="J68" s="4">
+        <f>ukb_unweighted!C64</f>
+        <v>36.200000000000003</v>
       </c>
       <c r="K68" s="18" t="s">
         <v>157</v>
@@ -5114,7 +5589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C873B9-ED57-D54A-96A0-0EC3F5B920F4}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6906,10 +7381,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63E1CF2-8B7A-F54D-B99D-95894D646652}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7459,56 +7934,56 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>344</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
       </c>
       <c r="H24">
-        <v>2667</v>
+        <v>53089</v>
       </c>
       <c r="I24">
         <v>8578</v>
       </c>
       <c r="J24">
-        <v>1.3</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>345</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
       </c>
       <c r="H25">
-        <v>53089</v>
+        <v>88757</v>
       </c>
       <c r="I25">
         <v>8578</v>
       </c>
       <c r="J25">
-        <v>25.5</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>347</v>
       </c>
       <c r="C26" t="s">
         <v>72</v>
@@ -7528,48 +8003,45 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
         <v>34</v>
       </c>
       <c r="H27">
-        <v>88757</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>8578</v>
       </c>
       <c r="J27">
-        <v>42.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
+        <v>349</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
       </c>
       <c r="H28">
-        <v>167432</v>
+        <v>2667</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>8578</v>
       </c>
       <c r="J28">
-        <v>77.400000000000006</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -7577,45 +8049,45 @@
         <v>75</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
       </c>
       <c r="H29">
-        <v>48934</v>
+        <v>167432</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>22.6</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
       </c>
       <c r="H30">
-        <v>169680</v>
+        <v>48934</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>78.400000000000006</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -7623,45 +8095,45 @@
         <v>78</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
       </c>
       <c r="H31">
-        <v>46686</v>
+        <v>169680</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>21.6</v>
+        <v>78.400000000000006</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
       </c>
       <c r="H32">
-        <v>188538</v>
+        <v>46686</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>87.1</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -7669,45 +8141,45 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
       </c>
       <c r="H33">
-        <v>27828</v>
+        <v>188538</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>12.9</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
       </c>
       <c r="H34">
-        <v>146310</v>
+        <v>27828</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>67.599999999999994</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -7715,45 +8187,45 @@
         <v>84</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
       </c>
       <c r="H35">
-        <v>70056</v>
+        <v>146310</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>32.4</v>
+        <v>67.599999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
       </c>
       <c r="H36">
-        <v>155810</v>
+        <v>70056</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>72</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -7761,45 +8233,45 @@
         <v>87</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
       </c>
       <c r="H37">
-        <v>60556</v>
+        <v>155810</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
         <v>34</v>
       </c>
       <c r="H38">
-        <v>123569</v>
+        <v>60556</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>57.1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -7807,22 +8279,22 @@
         <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
         <v>34</v>
       </c>
       <c r="H39">
-        <v>51258</v>
+        <v>123569</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>23.7</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -7830,22 +8302,22 @@
         <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
       </c>
       <c r="H40">
-        <v>35361</v>
+        <v>51258</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>16.3</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -7853,44 +8325,56 @@
         <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
         <v>34</v>
       </c>
       <c r="H41">
-        <v>6178</v>
+        <v>35361</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>2.9</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="8">
-        <v>216366</v>
+        <v>60</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42">
+        <v>6178</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2.9</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="C43" s="8">
+        <v>216366</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -7898,10 +8382,10 @@
         <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -7909,10 +8393,10 @@
         <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -7920,21 +8404,21 @@
         <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C46">
-        <v>481</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -7942,10 +8426,10 @@
         <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="C48">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7953,10 +8437,10 @@
         <v>103</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C49">
-        <v>251.1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7964,21 +8448,21 @@
         <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C50" s="8">
-        <v>1233</v>
+        <v>251.1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1233</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7986,10 +8470,10 @@
         <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="C52">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7997,10 +8481,10 @@
         <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C53">
-        <v>57.3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8008,21 +8492,21 @@
         <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C54">
-        <v>522</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8030,10 +8514,10 @@
         <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="C56" s="8">
-        <v>2556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8041,10 +8525,10 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C57" s="10">
-        <v>3301.7</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8052,21 +8536,21 @@
         <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C58" s="8">
-        <v>14970</v>
+        <v>3301.7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="C59" s="8">
+        <v>14970</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8074,10 +8558,10 @@
         <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8085,10 +8569,10 @@
         <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8096,10 +8580,1253 @@
         <v>106</v>
       </c>
       <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
         <v>102</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7746A4A6-5223-1746-A992-AC1E4EA5E5A7}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>53.1708721373329</v>
+      </c>
+      <c r="B2">
+        <v>4.5458752187044399E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2.5484624384686298E-4</v>
+      </c>
+      <c r="B3" s="49">
+        <v>4.3702400110753898E-5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>9.3323048536305599E-3</v>
+      </c>
+      <c r="B4">
+        <v>2.6355188109316501E-4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="9">
+        <v>45218</v>
+      </c>
+      <c r="E4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>0.10954533842879</v>
+      </c>
+      <c r="B5">
+        <v>8.3366635854657302E-4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0.14089137928779699</v>
+      </c>
+      <c r="B6">
+        <v>9.0851885489975296E-4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>0.14512289408061799</v>
+      </c>
+      <c r="B7">
+        <v>9.4532783692754304E-4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>0.183020625416112</v>
+      </c>
+      <c r="B8">
+        <v>1.0163803477407599E-3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>0.234462400465584</v>
+      </c>
+      <c r="B9">
+        <v>1.1729585535825201E-3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>0.141130450052593</v>
+      </c>
+      <c r="B10">
+        <v>9.4369777718380295E-4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>3.6239761171028E-2</v>
+      </c>
+      <c r="B11">
+        <v>4.7935349911408699E-4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>0.62745954107500401</v>
+      </c>
+      <c r="B12">
+        <v>1.2972857222052199E-3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>0.37254045892499599</v>
+      </c>
+      <c r="B13">
+        <v>1.2972857222052199E-3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2.45159064998333E-2</v>
+      </c>
+      <c r="B14">
+        <v>3.9581684411052698E-4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0.19022276032987401</v>
+      </c>
+      <c r="B15">
+        <v>1.0109518400013E-3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>0.21517827323078401</v>
+      </c>
+      <c r="B16">
+        <v>1.17204376262991E-3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>5.0390018222097E-3</v>
+      </c>
+      <c r="B17">
+        <v>1.8014722974259701E-4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1.4327697123625501E-2</v>
+      </c>
+      <c r="B18" s="49">
+        <v>3.0490663380272799E-4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>8.9875718484050805E-4</v>
+      </c>
+      <c r="B19" s="49">
+        <v>7.5572826709329602E-5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>2.7419096692163601E-2</v>
+      </c>
+      <c r="B20">
+        <v>4.3645477011588699E-4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>0.52239850711667002</v>
+      </c>
+      <c r="B21">
+        <v>1.34336555707939E-3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>29.996995372860699</v>
+      </c>
+      <c r="B22">
+        <v>2.01442458123249E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>0.24180620675599601</v>
+      </c>
+      <c r="B23">
+        <v>1.1352299485125701E-3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>0.41732497744594199</v>
+      </c>
+      <c r="B24">
+        <v>1.3202824713123499E-3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>0.32623266352209701</v>
+      </c>
+      <c r="B25">
+        <v>1.2760913293144501E-3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" t="s">
+        <v>347</v>
+      </c>
+      <c r="E25" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1.4636152275965699E-2</v>
+      </c>
+      <c r="B26">
+        <v>3.43163322286919E-4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" t="s">
+        <v>349</v>
+      </c>
+      <c r="E26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>8.4765101072815097E-2</v>
+      </c>
+      <c r="B27">
+        <v>5.2758618275396498E-4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>0.16680634638810901</v>
+      </c>
+      <c r="B28">
+        <v>9.4162276874522105E-4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>5.0940450413494001E-2</v>
+      </c>
+      <c r="B29">
+        <v>4.3003620866461202E-4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>0.29217085143226201</v>
+      </c>
+      <c r="B30">
+        <v>1.208640429888E-3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>0.24997756774168001</v>
+      </c>
+      <c r="B31">
+        <v>1.1468966563835401E-3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>0.17190470084543699</v>
+      </c>
+      <c r="B32">
+        <v>9.8802226618936099E-4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>0.56584610471957797</v>
+      </c>
+      <c r="B33">
+        <v>1.33240256068655E-3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>0.235973048698915</v>
+      </c>
+      <c r="B34">
+        <v>1.16324928797946E-3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>2.62761457360693E-2</v>
+      </c>
+      <c r="B35">
+        <v>4.2820724862149498E-4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC2916C-05B8-5D43-82BC-C0CBBAD59C34}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>46.137412283948997</v>
+      </c>
+      <c r="B2">
+        <v>4.52728173632337E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>6.0802924078744104E-4</v>
+      </c>
+      <c r="B3" s="49">
+        <v>8.4282955543325296E-5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2.0447549585164398E-2</v>
+      </c>
+      <c r="B4">
+        <v>4.8013425538035001E-4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="9">
+        <v>45218</v>
+      </c>
+      <c r="E4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>0.185447262508982</v>
+      </c>
+      <c r="B5">
+        <v>1.1437421158546699E-3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0.21069341747624901</v>
+      </c>
+      <c r="B6">
+        <v>1.1438976427035701E-3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>0.206176592464481</v>
+      </c>
+      <c r="B7">
+        <v>1.17064906285876E-3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>0.15258476399231199</v>
+      </c>
+      <c r="B8">
+        <v>8.2946170348793097E-4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>0.101581719026518</v>
+      </c>
+      <c r="B9">
+        <v>5.6390515213139197E-4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8.0489811433847203E-2</v>
+      </c>
+      <c r="B10">
+        <v>5.3476217430830199E-4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>4.1970854271658802E-2</v>
+      </c>
+      <c r="B11">
+        <v>5.1515503522343701E-4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>0.65569845499972201</v>
+      </c>
+      <c r="B12">
+        <v>1.24631851746829E-3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>0.34430154500027799</v>
+      </c>
+      <c r="B13">
+        <v>1.24631851746829E-3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>3.37034644717773E-2</v>
+      </c>
+      <c r="B14">
+        <v>5.16912718966946E-4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0.182832534962586</v>
+      </c>
+      <c r="B15">
+        <v>1.0138768065122E-3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>0.22519830903089599</v>
+      </c>
+      <c r="B16">
+        <v>1.1546548843626701E-3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>6.3823625143348004E-3</v>
+      </c>
+      <c r="B17">
+        <v>2.2433183816824201E-4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1.8881612104173901E-2</v>
+      </c>
+      <c r="B18" s="49">
+        <v>3.8503322450989701E-4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1.0620338693237E-3</v>
+      </c>
+      <c r="B19" s="49">
+        <v>8.9883259165892895E-5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>2.5494389467961402E-2</v>
+      </c>
+      <c r="B20">
+        <v>4.0696174034566499E-4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>0.50644529357894696</v>
+      </c>
+      <c r="B21">
+        <v>1.3324481195174001E-3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>29.734144320634101</v>
+      </c>
+      <c r="B22">
+        <v>2.1418999044087901E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>0.28213295953786299</v>
+      </c>
+      <c r="B23">
+        <v>1.2419596055522101E-3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>0.40558851001905</v>
+      </c>
+      <c r="B24">
+        <v>1.3291785414211799E-3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>0.29792472739276099</v>
+      </c>
+      <c r="B25">
+        <v>1.23448937848992E-3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" t="s">
+        <v>347</v>
+      </c>
+      <c r="E25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1.4353803050326901E-2</v>
+      </c>
+      <c r="B26">
+        <v>3.3593567279695702E-4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" t="s">
+        <v>349</v>
+      </c>
+      <c r="E26" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4.9322180277570002E-2</v>
+      </c>
+      <c r="B27">
+        <v>2.8688622136730202E-4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>8.7927635484053607E-2</v>
+      </c>
+      <c r="B28">
+        <v>5.3741082870598902E-4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4.6633007338915199E-2</v>
+      </c>
+      <c r="B29">
+        <v>3.9235744769165699E-4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>0.28754824526040601</v>
+      </c>
+      <c r="B30">
+        <v>1.1944326916315301E-3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>0.23199719226089399</v>
+      </c>
+      <c r="B31">
+        <v>1.0964509583295599E-3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>0.13002626123337199</v>
+      </c>
+      <c r="B32">
+        <v>7.8711416070742903E-4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>0.63928506045563305</v>
+      </c>
+      <c r="B33">
+        <v>1.23858260680009E-3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>0.19800892678308901</v>
+      </c>
+      <c r="B34">
+        <v>1.0209824622234901E-3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>3.2679751527906399E-2</v>
+      </c>
+      <c r="B35">
+        <v>4.9400009475806205E-4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Dropbox (University of Michigan)/projects/dissertation/aim_one/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A8AFA5-6891-DA40-B48B-1456140C354A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24444ABE-9DB4-B94B-AE95-5B6C26D6BD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
   </bookViews>
   <sheets>
     <sheet name="table 1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="483">
   <si>
     <t>MGI</t>
   </si>
@@ -2058,6 +2058,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2075,12 +2081,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2399,7 +2399,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2419,20 +2419,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="19">
       <c r="A2" s="20"/>
@@ -2445,13 +2445,13 @@
       <c r="D2" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="22" t="s">
         <v>247</v>
       </c>
       <c r="H2" s="22" t="s">
@@ -3517,8 +3517,9 @@
         <v>29.1 (0.2)</v>
       </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24" t="s">
-        <v>157</v>
+      <c r="J31" s="24" t="str">
+        <f>ukb_unweighted!C21</f>
+        <v>27.43 (4.80)</v>
       </c>
       <c r="K31" s="24" t="str">
         <f>ukb_weighted!E18</f>
@@ -3563,8 +3564,9 @@
         <f>nhanes_weighted!E23</f>
         <v xml:space="preserve"> 3.2 (0.2)</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>157</v>
+      <c r="J33" s="4" t="str">
+        <f>ukb_unweighted!C26</f>
+        <v xml:space="preserve"> 0.5 (2,610)</v>
       </c>
       <c r="K33" s="4" t="str">
         <f>ukb_weighted!E22</f>
@@ -3606,8 +3608,9 @@
         <f>nhanes_weighted!E20</f>
         <v>27.9 (1.2)</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>157</v>
+      <c r="J34" s="4" t="str">
+        <f>ukb_unweighted!C23</f>
+        <v>32.5 (161,476)</v>
       </c>
       <c r="K34" s="4" t="str">
         <f>ukb_weighted!E19</f>
@@ -3649,8 +3652,9 @@
         <f>nhanes_weighted!E22</f>
         <v>29.6 (1.1)</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>157</v>
+      <c r="J35" s="4" t="str">
+        <f>ukb_unweighted!C22</f>
+        <v>42.5 (211,358)</v>
       </c>
       <c r="K35" s="4" t="str">
         <f>ukb_weighted!E21</f>
@@ -3692,8 +3696,9 @@
         <f>nhanes_weighted!E21</f>
         <v>39.3 (1.6)</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>157</v>
+      <c r="J36" s="4" t="str">
+        <f>ukb_unweighted!C25</f>
+        <v>24.5 (121,629)</v>
       </c>
       <c r="K36" s="4" t="str">
         <f>ukb_weighted!E20</f>
@@ -4137,7 +4142,7 @@
       <c r="D50" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="51">
         <f>aou_unweighted!C44</f>
         <v>1</v>
       </c>
@@ -4176,7 +4181,7 @@
       <c r="D51" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="51">
         <f>aou_unweighted!C45</f>
         <v>17</v>
       </c>
@@ -4215,7 +4220,7 @@
       <c r="D52" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="51">
         <f>aou_unweighted!C46</f>
         <v>30</v>
       </c>
@@ -4254,7 +4259,7 @@
       <c r="D53" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="51">
         <f>aou_unweighted!C47</f>
         <v>481</v>
       </c>
@@ -4678,7 +4683,7 @@
       <c r="A65" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="56">
+      <c r="B65" s="50">
         <f>mgi_unweighted!C59</f>
         <v>0</v>
       </c>
@@ -4688,7 +4693,7 @@
       <c r="D65" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E65" s="56">
+      <c r="E65" s="50">
         <f>aou_unweighted!C60</f>
         <v>0</v>
       </c>
@@ -4727,7 +4732,7 @@
       <c r="D66" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E66" s="56">
+      <c r="E66" s="50">
         <f>aou_unweighted!C61</f>
         <v>7</v>
       </c>
@@ -4766,7 +4771,7 @@
       <c r="D67" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E67" s="56">
+      <c r="E67" s="50">
         <f>aou_unweighted!C62</f>
         <v>9</v>
       </c>
@@ -4805,7 +4810,7 @@
       <c r="D68" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E68" s="56">
+      <c r="E68" s="50">
         <f>aou_unweighted!C63</f>
         <v>41</v>
       </c>
@@ -4831,132 +4836,132 @@
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="53"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="55"/>
     </row>
     <row r="70" spans="1:12" ht="16" customHeight="1">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
     </row>
     <row r="71" spans="1:12" ht="35" customHeight="1">
-      <c r="A71" s="51" t="s">
+      <c r="A71" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="51"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="53"/>
     </row>
     <row r="72" spans="1:12" ht="33" customHeight="1">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="51"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="53"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="51" t="s">
+      <c r="A73" s="53" t="s">
         <v>386</v>
       </c>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="56"/>
     </row>
     <row r="74" spans="1:12" ht="16" customHeight="1">
-      <c r="A74" s="51" t="s">
+      <c r="A74" s="53" t="s">
         <v>387</v>
       </c>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
     </row>
     <row r="75" spans="1:12" ht="22" customHeight="1">
-      <c r="A75" s="51" t="s">
+      <c r="A75" s="53" t="s">
         <v>388</v>
       </c>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="50"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10389,11 +10394,11 @@
       <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:5" ht="17">
       <c r="A3" s="39" t="s">

--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Dropbox (University of Michigan)/projects/dissertation/aim_one/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24444ABE-9DB4-B94B-AE95-5B6C26D6BD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF44F18A-EA65-964F-A81B-06E125881A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="3" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
   </bookViews>
   <sheets>
     <sheet name="table 1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="588">
   <si>
     <t>MGI</t>
   </si>
@@ -1828,6 +1828,321 @@
   </si>
   <si>
     <t>50.6 (0.1)</t>
+  </si>
+  <si>
+    <t>Cancer of mouth</t>
+  </si>
+  <si>
+    <t>Cancer of lip</t>
+  </si>
+  <si>
+    <t>Cancer of tongue</t>
+  </si>
+  <si>
+    <t>Cancer of major salivary glands</t>
+  </si>
+  <si>
+    <t>Cancer of the gums</t>
+  </si>
+  <si>
+    <t>Cancer of the mouth floor</t>
+  </si>
+  <si>
+    <t>Cancer of larynx, pharynx, nasal cavities</t>
+  </si>
+  <si>
+    <t>Cancer of oropharynx</t>
+  </si>
+  <si>
+    <t>Cancer of nasopharynx</t>
+  </si>
+  <si>
+    <t>Cancer of hypopharynx</t>
+  </si>
+  <si>
+    <t>Cancer of larynx</t>
+  </si>
+  <si>
+    <t>Hx of malignant neoplasm of oral cavity and pharynx</t>
+  </si>
+  <si>
+    <t>Cancer of of nasal cavities</t>
+  </si>
+  <si>
+    <t>Cancer of esophagus</t>
+  </si>
+  <si>
+    <t>Cancer of stomach</t>
+  </si>
+  <si>
+    <t>Colorectal cancer</t>
+  </si>
+  <si>
+    <t>Colon cancer</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of rectum, rectosigmoid junction, and anus</t>
+  </si>
+  <si>
+    <t>Cancer of liver and intrahepatic bile duct</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of liver, primary</t>
+  </si>
+  <si>
+    <t>Pancreatic cancer</t>
+  </si>
+  <si>
+    <t>Neoplasm of unspecified nature of digestive system</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of other and ill-defined sites within the digestive organs and peritoneum</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of small intestine, including duodenum</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of gallbladder and extrahepatic bile ducts</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of retroperitoneum and peritoneum</t>
+  </si>
+  <si>
+    <t>Cancer of intrathoracic organs</t>
+  </si>
+  <si>
+    <t>Cancer within the respiratory system</t>
+  </si>
+  <si>
+    <t>Cancer of bronchus; lung</t>
+  </si>
+  <si>
+    <t>Cancer of bone and connective tissue</t>
+  </si>
+  <si>
+    <t>Bone cancer</t>
+  </si>
+  <si>
+    <t>Cancer of connective tissue</t>
+  </si>
+  <si>
+    <t>Melanomas of skin, dx or hx</t>
+  </si>
+  <si>
+    <t>Melanomas of skin</t>
+  </si>
+  <si>
+    <t>Breast cancer</t>
+  </si>
+  <si>
+    <t>Breast cancer [female]</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of female breast</t>
+  </si>
+  <si>
+    <t>Breast cancer [male]</t>
+  </si>
+  <si>
+    <t>Neoplasm of uncertain behavior of breast</t>
+  </si>
+  <si>
+    <t>Acquired absence of breast</t>
+  </si>
+  <si>
+    <t>Cervical cancer and dysplasia</t>
+  </si>
+  <si>
+    <t>Cervical cancer</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of uterus</t>
+  </si>
+  <si>
+    <t>Cancer of other female genital organs</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of ovary and other uterine adnexa</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of ovary</t>
+  </si>
+  <si>
+    <t>Cancer of other female genital organs (excluding uterus and ovary)</t>
+  </si>
+  <si>
+    <t>Cancer of prostate</t>
+  </si>
+  <si>
+    <t>Cancer of other male genital organs</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of unspecified male genital organ</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of testis</t>
+  </si>
+  <si>
+    <t>Neoplasm of uncertain behavior of male genital organs</t>
+  </si>
+  <si>
+    <t>Cancer of urinary organs (incl. kidney and bladder)</t>
+  </si>
+  <si>
+    <t>Cancer of kidney and renal pelvis</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of kidney, except pelvis</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of renal pelvis</t>
+  </si>
+  <si>
+    <t>Cancer of bladder</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of bladder</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of other urinary organs</t>
+  </si>
+  <si>
+    <t>Cancer of eye</t>
+  </si>
+  <si>
+    <t>Manlignant and unknown neoplasms of brain and nervous system</t>
+  </si>
+  <si>
+    <t>Cancer of brain and nervous system</t>
+  </si>
+  <si>
+    <t>Cancer of brain</t>
+  </si>
+  <si>
+    <t>Thyroid cancer</t>
+  </si>
+  <si>
+    <t>Cancer of other endocrine glands</t>
+  </si>
+  <si>
+    <t>Cancer, suspected or other</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm, other</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of head, face, and neck</t>
+  </si>
+  <si>
+    <t>Radiotherapy</t>
+  </si>
+  <si>
+    <t>Chemotherapy</t>
+  </si>
+  <si>
+    <t>Secondary malignant neoplasm</t>
+  </si>
+  <si>
+    <t>Secondary malignancy of lymph nodes</t>
+  </si>
+  <si>
+    <t>Secondary malignancy of respiratory organs</t>
+  </si>
+  <si>
+    <t>Secondary malignant neoplasm of digestive systems</t>
+  </si>
+  <si>
+    <t>Secondary malignant neoplasm of liver</t>
+  </si>
+  <si>
+    <t>Secondary malignancy of brain/spine</t>
+  </si>
+  <si>
+    <t>Secondary malignancy of bone</t>
+  </si>
+  <si>
+    <t>Secondary malignant neoplasm of skin</t>
+  </si>
+  <si>
+    <t>Neoplasm of uncertain behavior</t>
+  </si>
+  <si>
+    <t>Neurofibromatosis</t>
+  </si>
+  <si>
+    <t>Myeloproliferative disease</t>
+  </si>
+  <si>
+    <t>Polycythemia vera</t>
+  </si>
+  <si>
+    <t>Hodgkin's disease</t>
+  </si>
+  <si>
+    <t>Cancer of other lymphoid, histiocytic tissue</t>
+  </si>
+  <si>
+    <t>Non-Hodgkins lymphoma</t>
+  </si>
+  <si>
+    <t>Nodular lymphoma</t>
+  </si>
+  <si>
+    <t>Reticulosarcoma</t>
+  </si>
+  <si>
+    <t>Lymphosarcoma</t>
+  </si>
+  <si>
+    <t>Large cell lymphoma</t>
+  </si>
+  <si>
+    <t>Leukemia</t>
+  </si>
+  <si>
+    <t>Lymphoid leukemia</t>
+  </si>
+  <si>
+    <t>Lymphoid leukemia, acute</t>
+  </si>
+  <si>
+    <t>Lymphoid leukemia, chronic</t>
+  </si>
+  <si>
+    <t>Myeloid leukemia</t>
+  </si>
+  <si>
+    <t>Myeloid leukemia, acute</t>
+  </si>
+  <si>
+    <t>Myeloid leukemia, chronic</t>
+  </si>
+  <si>
+    <t>Monocytic leukemia</t>
+  </si>
+  <si>
+    <t>Multiple myeloma</t>
+  </si>
+  <si>
+    <t>Neuroendocrine tumors</t>
+  </si>
+  <si>
+    <t>Bone marrow or stem cell transplant</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Coronary atherosclerosis</t>
+  </si>
+  <si>
+    <t>Anxiety disorders</t>
+  </si>
+  <si>
+    <t>Depression</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +2240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2082,6 +2397,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2398,7 +2714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B51DE-992F-124D-82CC-B35D567452BB}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -10511,65 +10827,979 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859041D3-91F0-7942-B418-58B0D9CA4FFB}">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:C106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="21" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C2" s="20" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="23" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B3" s="24">
+        <v>145</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24">
+        <v>145.1</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24">
+        <v>145.4</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24">
+        <v>145.5</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24">
+        <v>149</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24">
+        <v>149.1</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24">
+        <v>149.4</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24">
+        <v>149.5</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24">
+        <v>149.9</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24">
+        <v>150</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24">
+        <v>151</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24">
+        <v>153</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24">
+        <v>155</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24">
+        <v>155.1</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24">
+        <v>157</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24">
+        <v>158</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24">
+        <v>159</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24">
+        <v>159.4</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24">
+        <v>164</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24">
+        <v>165</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24">
+        <v>165.1</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24">
+        <v>170</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24">
+        <v>170.1</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24">
+        <v>170.2</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24">
+        <v>172.1</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24">
+        <v>172.11</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24">
+        <v>174</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24">
+        <v>174.1</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24">
+        <v>174.11</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24">
+        <v>174.2</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24">
+        <v>174.3</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24">
+        <v>175</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24">
+        <v>180</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24">
+        <v>180.1</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24">
+        <v>182</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24">
+        <v>184</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24">
+        <v>184.1</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24">
+        <v>184.11</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24">
+        <v>184.2</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="23"/>
+      <c r="B50" s="24">
+        <v>185</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="23"/>
+      <c r="B51" s="24">
+        <v>187</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="23"/>
+      <c r="B52" s="24">
+        <v>187.1</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="23"/>
+      <c r="B53" s="24">
+        <v>187.2</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24">
+        <v>187.8</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="23"/>
+      <c r="B55" s="24">
+        <v>189</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="23"/>
+      <c r="B56" s="24">
+        <v>189.1</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="23"/>
+      <c r="B57" s="24">
+        <v>189.11</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="23"/>
+      <c r="B58" s="24">
+        <v>189.12</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="23"/>
+      <c r="B59" s="24">
+        <v>189.2</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="23"/>
+      <c r="B60" s="24">
+        <v>189.21</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24">
+        <v>189.4</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="23"/>
+      <c r="B62" s="24">
+        <v>190</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="23"/>
+      <c r="B63" s="24">
+        <v>191</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="23"/>
+      <c r="B64" s="24">
+        <v>191.1</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="23"/>
+      <c r="B65" s="24">
+        <v>191.11</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="23"/>
+      <c r="B66" s="24">
+        <v>193</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="23"/>
+      <c r="B67" s="24">
+        <v>194</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="23"/>
+      <c r="B68" s="24">
+        <v>195</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="23"/>
+      <c r="B69" s="24">
+        <v>195.1</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="23"/>
+      <c r="B70" s="24">
+        <v>195.3</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="23"/>
+      <c r="B71" s="24">
+        <v>196</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="23"/>
+      <c r="B72" s="24">
+        <v>197</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="23"/>
+      <c r="B73" s="24">
+        <v>198</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="23"/>
+      <c r="B74" s="24">
+        <v>198.1</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24">
+        <v>198.2</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="23"/>
+      <c r="B76" s="24">
+        <v>198.3</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="23"/>
+      <c r="B77" s="24">
+        <v>198.4</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="23"/>
+      <c r="B78" s="24">
+        <v>198.5</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="23"/>
+      <c r="B79" s="24">
+        <v>198.6</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="23"/>
+      <c r="B80" s="24">
+        <v>198.7</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="23"/>
+      <c r="B81" s="24">
+        <v>199</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="23"/>
+      <c r="B82" s="24">
+        <v>199.4</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="23"/>
+      <c r="B83" s="24">
+        <v>200</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="23"/>
+      <c r="B84" s="24">
+        <v>200.1</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="23"/>
+      <c r="B85" s="24">
+        <v>201</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="23"/>
+      <c r="B86" s="24">
+        <v>202</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="23"/>
+      <c r="B87" s="24">
+        <v>202.2</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="23"/>
+      <c r="B88" s="24">
+        <v>202.21</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="23"/>
+      <c r="B89" s="24">
+        <v>202.22</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="23"/>
+      <c r="B90" s="24">
+        <v>202.23</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="23"/>
+      <c r="B91" s="24">
+        <v>202.24</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="23"/>
+      <c r="B92" s="24">
+        <v>204</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="23"/>
+      <c r="B93" s="24">
+        <v>204.1</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="23"/>
+      <c r="B94" s="24">
+        <v>204.11</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="23"/>
+      <c r="B95" s="24">
+        <v>204.12</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="23"/>
+      <c r="B96" s="24">
+        <v>204.2</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="23"/>
+      <c r="B97" s="24">
+        <v>204.21</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="23"/>
+      <c r="B98" s="24">
+        <v>204.22</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="23"/>
+      <c r="B99" s="24">
+        <v>204.3</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="23"/>
+      <c r="B100" s="24">
+        <v>204.4</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="23"/>
+      <c r="B101" s="24">
+        <v>209</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="23"/>
+      <c r="B102" s="24">
+        <v>860</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>111</v>
       </c>
-      <c r="B4">
+      <c r="B103" s="4">
         <v>250</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C103" s="58" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B5">
+      <c r="B104" s="24">
         <v>411.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="C104" s="23" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
         <v>112</v>
       </c>
-      <c r="B6">
+      <c r="B105" s="4">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C105" s="58" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B7">
+      <c r="B106" s="24">
         <v>296.2</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Dropbox (University of Michigan)/projects/dissertation/aim_one/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF44F18A-EA65-964F-A81B-06E125881A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAE9AAD-3AD1-B94A-A4B0-B435ADCE3558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="3" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="40960" windowHeight="23040" activeTab="3" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
   </bookViews>
   <sheets>
     <sheet name="table 1" sheetId="1" r:id="rId1"/>
@@ -2240,7 +2240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2397,7 +2397,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10829,939 +10836,841 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859041D3-91F0-7942-B418-58B0D9CA4FFB}">
   <dimension ref="A2:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="60"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="58" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="24">
+        <v>300</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B4" s="61">
         <v>145</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C4" s="60" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24">
+    <row r="5" spans="1:3">
+      <c r="B5" s="61">
         <v>145.1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C5" s="60" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24">
+    <row r="6" spans="1:3">
+      <c r="B6" s="61">
         <v>145.19999999999999</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C6" s="60" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24">
+    <row r="7" spans="1:3">
+      <c r="B7" s="61">
         <v>145.30000000000001</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C7" s="60" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24">
+    <row r="8" spans="1:3">
+      <c r="B8" s="61">
         <v>145.4</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C8" s="60" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24">
+    <row r="9" spans="1:3">
+      <c r="B9" s="61">
         <v>145.5</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C9" s="60" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24">
+    <row r="10" spans="1:3">
+      <c r="B10" s="61">
         <v>149</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C10" s="60" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24">
+    <row r="11" spans="1:3">
+      <c r="B11" s="61">
         <v>149.1</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C11" s="60" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24">
+    <row r="12" spans="1:3">
+      <c r="B12" s="61">
         <v>149.19999999999999</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C12" s="60" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24">
+    <row r="13" spans="1:3">
+      <c r="B13" s="61">
         <v>149.30000000000001</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C13" s="60" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24">
+    <row r="14" spans="1:3">
+      <c r="B14" s="61">
         <v>149.4</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C14" s="60" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24">
+    <row r="15" spans="1:3">
+      <c r="B15" s="61">
         <v>149.5</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C15" s="60" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24">
+    <row r="16" spans="1:3">
+      <c r="B16" s="61">
         <v>149.9</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C16" s="60" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24">
+    <row r="17" spans="2:3">
+      <c r="B17" s="61">
         <v>150</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C17" s="60" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24">
+    <row r="18" spans="2:3">
+      <c r="B18" s="61">
         <v>151</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C18" s="60" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24">
+    <row r="19" spans="2:3">
+      <c r="B19" s="61">
         <v>153</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C19" s="60" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24">
+    <row r="20" spans="2:3">
+      <c r="B20" s="61">
         <v>153.19999999999999</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="60" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24">
+    <row r="21" spans="2:3">
+      <c r="B21" s="61">
         <v>153.30000000000001</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C21" s="60" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24">
+    <row r="22" spans="2:3">
+      <c r="B22" s="61">
         <v>155</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C22" s="60" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24">
+    <row r="23" spans="2:3">
+      <c r="B23" s="61">
         <v>155.1</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C23" s="60" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24">
-        <v>157</v>
-      </c>
-      <c r="C23" s="23" t="s">
+    <row r="24" spans="2:3">
+      <c r="B24" s="61">
+        <v>157</v>
+      </c>
+      <c r="C24" s="60" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24">
+    <row r="25" spans="2:3">
+      <c r="B25" s="61">
         <v>158</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C25" s="60" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24">
+    <row r="26" spans="2:3">
+      <c r="B26" s="61">
         <v>159</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C26" s="60" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24">
+    <row r="27" spans="2:3">
+      <c r="B27" s="61">
         <v>159.19999999999999</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C27" s="60" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24">
+    <row r="28" spans="2:3">
+      <c r="B28" s="61">
         <v>159.30000000000001</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C28" s="60" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24">
+    <row r="29" spans="2:3">
+      <c r="B29" s="61">
         <v>159.4</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C29" s="60" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24">
+    <row r="30" spans="2:3">
+      <c r="B30" s="61">
         <v>164</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C30" s="60" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24">
+    <row r="31" spans="2:3">
+      <c r="B31" s="61">
         <v>165</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C31" s="60" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24">
+    <row r="32" spans="2:3">
+      <c r="B32" s="61">
         <v>165.1</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C32" s="60" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24">
+    <row r="33" spans="2:3">
+      <c r="B33" s="61">
         <v>170</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C33" s="60" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24">
+    <row r="34" spans="2:3">
+      <c r="B34" s="61">
         <v>170.1</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C34" s="60" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24">
+    <row r="35" spans="2:3">
+      <c r="B35" s="61">
         <v>170.2</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C35" s="60" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24">
+    <row r="36" spans="2:3">
+      <c r="B36" s="61">
         <v>172.1</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C36" s="60" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24">
+    <row r="37" spans="2:3">
+      <c r="B37" s="61">
         <v>172.11</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C37" s="60" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24">
+    <row r="38" spans="2:3">
+      <c r="B38" s="61">
         <v>174</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C38" s="60" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24">
+    <row r="39" spans="2:3">
+      <c r="B39" s="61">
         <v>174.1</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C39" s="60" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24">
+    <row r="40" spans="2:3">
+      <c r="B40" s="61">
         <v>174.11</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C40" s="60" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24">
+    <row r="41" spans="2:3">
+      <c r="B41" s="61">
         <v>174.2</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C41" s="60" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="24">
+    <row r="42" spans="2:3">
+      <c r="B42" s="61">
         <v>174.3</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C42" s="60" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="23"/>
-      <c r="B42" s="24">
+    <row r="43" spans="2:3">
+      <c r="B43" s="61">
         <v>175</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C43" s="60" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="23"/>
-      <c r="B43" s="24">
+    <row r="44" spans="2:3">
+      <c r="B44" s="61">
         <v>180</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C44" s="60" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="24">
+    <row r="45" spans="2:3">
+      <c r="B45" s="61">
         <v>180.1</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C45" s="60" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="24">
+    <row r="46" spans="2:3">
+      <c r="B46" s="61">
         <v>182</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C46" s="60" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="23"/>
-      <c r="B46" s="24">
+    <row r="47" spans="2:3">
+      <c r="B47" s="61">
         <v>184</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C47" s="60" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24">
+    <row r="48" spans="2:3">
+      <c r="B48" s="61">
         <v>184.1</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C48" s="60" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24">
+    <row r="49" spans="2:3">
+      <c r="B49" s="61">
         <v>184.11</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C49" s="60" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24">
+    <row r="50" spans="2:3">
+      <c r="B50" s="61">
         <v>184.2</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C50" s="60" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="23"/>
-      <c r="B50" s="24">
+    <row r="51" spans="2:3">
+      <c r="B51" s="61">
         <v>185</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C51" s="60" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="23"/>
-      <c r="B51" s="24">
+    <row r="52" spans="2:3">
+      <c r="B52" s="61">
         <v>187</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C52" s="60" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24">
+    <row r="53" spans="2:3">
+      <c r="B53" s="61">
         <v>187.1</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C53" s="60" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24">
+    <row r="54" spans="2:3">
+      <c r="B54" s="61">
         <v>187.2</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C54" s="60" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24">
+    <row r="55" spans="2:3">
+      <c r="B55" s="61">
         <v>187.8</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C55" s="60" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="23"/>
-      <c r="B55" s="24">
+    <row r="56" spans="2:3">
+      <c r="B56" s="61">
         <v>189</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C56" s="60" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="23"/>
-      <c r="B56" s="24">
+    <row r="57" spans="2:3">
+      <c r="B57" s="61">
         <v>189.1</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C57" s="60" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="23"/>
-      <c r="B57" s="24">
+    <row r="58" spans="2:3">
+      <c r="B58" s="61">
         <v>189.11</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C58" s="60" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="23"/>
-      <c r="B58" s="24">
+    <row r="59" spans="2:3">
+      <c r="B59" s="61">
         <v>189.12</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C59" s="60" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="23"/>
-      <c r="B59" s="24">
+    <row r="60" spans="2:3">
+      <c r="B60" s="61">
         <v>189.2</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C60" s="60" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24">
+    <row r="61" spans="2:3">
+      <c r="B61" s="61">
         <v>189.21</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C61" s="60" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24">
+    <row r="62" spans="2:3">
+      <c r="B62" s="61">
         <v>189.4</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C62" s="60" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24">
+    <row r="63" spans="2:3">
+      <c r="B63" s="61">
         <v>190</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C63" s="60" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="23"/>
-      <c r="B63" s="24">
+    <row r="64" spans="2:3">
+      <c r="B64" s="61">
         <v>191</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C64" s="60" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="23"/>
-      <c r="B64" s="24">
+    <row r="65" spans="2:3">
+      <c r="B65" s="61">
         <v>191.1</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C65" s="60" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24">
+    <row r="66" spans="2:3">
+      <c r="B66" s="61">
         <v>191.11</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C66" s="60" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="23"/>
-      <c r="B66" s="24">
+    <row r="67" spans="2:3">
+      <c r="B67" s="61">
         <v>193</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C67" s="60" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="24">
+    <row r="68" spans="2:3">
+      <c r="B68" s="61">
         <v>194</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C68" s="60" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="23"/>
-      <c r="B68" s="24">
+    <row r="69" spans="2:3">
+      <c r="B69" s="61">
         <v>195</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C69" s="60" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="23"/>
-      <c r="B69" s="24">
+    <row r="70" spans="2:3">
+      <c r="B70" s="61">
         <v>195.1</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C70" s="60" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="23"/>
-      <c r="B70" s="24">
+    <row r="71" spans="2:3">
+      <c r="B71" s="61">
         <v>195.3</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C71" s="60" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="23"/>
-      <c r="B71" s="24">
+    <row r="72" spans="2:3">
+      <c r="B72" s="61">
         <v>196</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C72" s="60" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="23"/>
-      <c r="B72" s="24">
+    <row r="73" spans="2:3">
+      <c r="B73" s="61">
         <v>197</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C73" s="60" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="23"/>
-      <c r="B73" s="24">
+    <row r="74" spans="2:3">
+      <c r="B74" s="61">
         <v>198</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C74" s="60" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="23"/>
-      <c r="B74" s="24">
+    <row r="75" spans="2:3">
+      <c r="B75" s="61">
         <v>198.1</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C75" s="60" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24">
+    <row r="76" spans="2:3">
+      <c r="B76" s="61">
         <v>198.2</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C76" s="60" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="23"/>
-      <c r="B76" s="24">
+    <row r="77" spans="2:3">
+      <c r="B77" s="61">
         <v>198.3</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C77" s="60" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="23"/>
-      <c r="B77" s="24">
+    <row r="78" spans="2:3">
+      <c r="B78" s="61">
         <v>198.4</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C78" s="60" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="23"/>
-      <c r="B78" s="24">
+    <row r="79" spans="2:3">
+      <c r="B79" s="61">
         <v>198.5</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C79" s="60" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="23"/>
-      <c r="B79" s="24">
+    <row r="80" spans="2:3">
+      <c r="B80" s="61">
         <v>198.6</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C80" s="60" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="23"/>
-      <c r="B80" s="24">
+    <row r="81" spans="2:3">
+      <c r="B81" s="61">
         <v>198.7</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C81" s="60" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="23"/>
-      <c r="B81" s="24">
+    <row r="82" spans="2:3">
+      <c r="B82" s="61">
         <v>199</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C82" s="60" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24">
+    <row r="83" spans="2:3">
+      <c r="B83" s="61">
         <v>199.4</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C83" s="60" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="23"/>
-      <c r="B83" s="24">
+    <row r="84" spans="2:3">
+      <c r="B84" s="61">
         <v>200</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C84" s="60" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="23"/>
-      <c r="B84" s="24">
+    <row r="85" spans="2:3">
+      <c r="B85" s="61">
         <v>200.1</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C85" s="60" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="23"/>
-      <c r="B85" s="24">
+    <row r="86" spans="2:3">
+      <c r="B86" s="61">
         <v>201</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C86" s="60" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="23"/>
-      <c r="B86" s="24">
+    <row r="87" spans="2:3">
+      <c r="B87" s="61">
         <v>202</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C87" s="60" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="23"/>
-      <c r="B87" s="24">
+    <row r="88" spans="2:3">
+      <c r="B88" s="61">
         <v>202.2</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C88" s="60" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="23"/>
-      <c r="B88" s="24">
+    <row r="89" spans="2:3">
+      <c r="B89" s="61">
         <v>202.21</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C89" s="60" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="23"/>
-      <c r="B89" s="24">
+    <row r="90" spans="2:3">
+      <c r="B90" s="61">
         <v>202.22</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C90" s="60" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="23"/>
-      <c r="B90" s="24">
+    <row r="91" spans="2:3">
+      <c r="B91" s="61">
         <v>202.23</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C91" s="60" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="23"/>
-      <c r="B91" s="24">
+    <row r="92" spans="2:3">
+      <c r="B92" s="61">
         <v>202.24</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C92" s="60" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="23"/>
-      <c r="B92" s="24">
+    <row r="93" spans="2:3">
+      <c r="B93" s="61">
         <v>204</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C93" s="60" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="23"/>
-      <c r="B93" s="24">
+    <row r="94" spans="2:3">
+      <c r="B94" s="61">
         <v>204.1</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C94" s="60" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="23"/>
-      <c r="B94" s="24">
+    <row r="95" spans="2:3">
+      <c r="B95" s="61">
         <v>204.11</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="C95" s="60" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="23"/>
-      <c r="B95" s="24">
+    <row r="96" spans="2:3">
+      <c r="B96" s="61">
         <v>204.12</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C96" s="60" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="23"/>
-      <c r="B96" s="24">
+    <row r="97" spans="1:3">
+      <c r="B97" s="61">
         <v>204.2</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="C97" s="60" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="23"/>
-      <c r="B97" s="24">
+    <row r="98" spans="1:3">
+      <c r="B98" s="61">
         <v>204.21</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C98" s="60" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="23"/>
-      <c r="B98" s="24">
+    <row r="99" spans="1:3">
+      <c r="B99" s="61">
         <v>204.22</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C99" s="60" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="23"/>
-      <c r="B99" s="24">
+    <row r="100" spans="1:3">
+      <c r="B100" s="61">
         <v>204.3</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C100" s="60" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="23"/>
-      <c r="B100" s="24">
+    <row r="101" spans="1:3">
+      <c r="B101" s="61">
         <v>204.4</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C101" s="60" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="23"/>
-      <c r="B101" s="24">
+    <row r="102" spans="1:3">
+      <c r="B102" s="61">
         <v>209</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C102" s="60" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="23"/>
-      <c r="B102" s="24">
+    <row r="103" spans="1:3">
+      <c r="B103" s="61">
         <v>860</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C103" s="60" t="s">
         <v>582</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>111</v>
-      </c>
-      <c r="B103" s="4">
-        <v>250</v>
-      </c>
-      <c r="C103" s="58" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -11776,25 +11685,25 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>112</v>
-      </c>
-      <c r="B105" s="4">
-        <v>300</v>
-      </c>
-      <c r="C105" s="58" t="s">
-        <v>586</v>
+      <c r="A105" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="B105" s="61">
+        <v>296.2</v>
+      </c>
+      <c r="C105" s="60" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="23" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="B106" s="24">
-        <v>296.2</v>
+        <v>250</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Dropbox (University of Michigan)/projects/dissertation/aim_one/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAE9AAD-3AD1-B94A-A4B0-B435ADCE3558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89029E93-789E-F542-B2FA-A8FAA59C70B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="40960" windowHeight="23040" activeTab="3" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{B83973B1-1A22-9546-8AE4-1199476E5C00}"/>
   </bookViews>
   <sheets>
     <sheet name="table 1" sheetId="1" r:id="rId1"/>
     <sheet name="nhanes_weighted" sheetId="13" r:id="rId2"/>
     <sheet name="social_sources" sheetId="8" r:id="rId3"/>
     <sheet name="ehr_sources" sheetId="9" r:id="rId4"/>
-    <sheet name="ukb_check" sheetId="5" r:id="rId5"/>
-    <sheet name="ukb_all" sheetId="6" r:id="rId6"/>
-    <sheet name="ukb_ip" sheetId="7" r:id="rId7"/>
-    <sheet name="mgi_unweighted" sheetId="3" r:id="rId8"/>
-    <sheet name="mgi_ip_weighted" sheetId="10" r:id="rId9"/>
-    <sheet name="mgi_ps_weighted" sheetId="11" r:id="rId10"/>
-    <sheet name="ukb_unweighted" sheetId="4" r:id="rId11"/>
-    <sheet name="ukb_weighted" sheetId="12" r:id="rId12"/>
-    <sheet name="aou_unweighted" sheetId="2" r:id="rId13"/>
-    <sheet name="aou_ip_weighted" sheetId="14" r:id="rId14"/>
-    <sheet name="aou_ps_weighted" sheetId="15" r:id="rId15"/>
+    <sheet name="variable_definitions" sheetId="16" r:id="rId5"/>
+    <sheet name="targeted_analysis" sheetId="17" r:id="rId6"/>
+    <sheet name="ukb_check" sheetId="5" r:id="rId7"/>
+    <sheet name="ukb_all" sheetId="6" r:id="rId8"/>
+    <sheet name="ukb_ip" sheetId="7" r:id="rId9"/>
+    <sheet name="mgi_unweighted" sheetId="3" r:id="rId10"/>
+    <sheet name="mgi_ip_weighted" sheetId="10" r:id="rId11"/>
+    <sheet name="mgi_ps_weighted" sheetId="11" r:id="rId12"/>
+    <sheet name="ukb_unweighted" sheetId="4" r:id="rId13"/>
+    <sheet name="ukb_weighted" sheetId="12" r:id="rId14"/>
+    <sheet name="aou_unweighted" sheetId="2" r:id="rId15"/>
+    <sheet name="aou_ip_weighted" sheetId="14" r:id="rId16"/>
+    <sheet name="aou_ps_weighted" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="637">
   <si>
     <t>MGI</t>
   </si>
@@ -2144,6 +2146,195 @@
   <si>
     <t>Depression</t>
   </si>
+  <si>
+    <t>Coronary atherclerosis</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>NHANES</t>
+  </si>
+  <si>
+    <t>Race/ethnicity</t>
+  </si>
+  <si>
+    <t>Smoking status</t>
+  </si>
+  <si>
+    <t>Coronary artery disease</t>
+  </si>
+  <si>
+    <t>Age at last diagnosis</t>
+  </si>
+  <si>
+    <t>Age at screening (RIDAGEYR)</t>
+  </si>
+  <si>
+    <t>RIAGENDR</t>
+  </si>
+  <si>
+    <t>RIDRETH3</t>
+  </si>
+  <si>
+    <t>Median of EHR values</t>
+  </si>
+  <si>
+    <t>BMXBMI</t>
+  </si>
+  <si>
+    <t>SMQ020</t>
+  </si>
+  <si>
+    <t>Survey (field ID 20116)</t>
+  </si>
+  <si>
+    <t>Survey (field ID 21000)</t>
+  </si>
+  <si>
+    <t>Median of assessed values (field ID 21001)</t>
+  </si>
+  <si>
+    <t>Acquired by central registry at recruitment, may be updated by individual (field ID 31)</t>
+  </si>
+  <si>
+    <t>Age at consent: date of consent (field ID 200) minus date of birth (field IDs 34, 52)</t>
+  </si>
+  <si>
+    <t>Self-reported sex at birth (field name: sex_at_birth_concept_id)</t>
+  </si>
+  <si>
+    <t>Self-reported race ethnicity (field names: race_source_concept_id, ethnicity_source_concept_id)</t>
+  </si>
+  <si>
+    <t>Self-report (concept IDs: 1585857, 1585860)</t>
+  </si>
+  <si>
+    <t>Phecode 300: Anxiety disorders</t>
+  </si>
+  <si>
+    <t>See Table SX</t>
+  </si>
+  <si>
+    <t>Phecode 411.4: Coronary atherosclerosis</t>
+  </si>
+  <si>
+    <t>Phecode 296.2: Major depressive disorder</t>
+  </si>
+  <si>
+    <t>Phecode 250: Diabetes mellitus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>Table X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>. Definition of key variables across datasets</t>
+    </r>
+  </si>
+  <si>
+    <t>Binary; sum of PHQ9 (DEP010-DEP090) &gt;= 10</t>
+  </si>
+  <si>
+    <t>DIQ010</t>
+  </si>
+  <si>
+    <t>MCQ160C</t>
+  </si>
+  <si>
+    <t>MCQ220</t>
+  </si>
+  <si>
+    <t>Covariates</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Unweighted</t>
+  </si>
+  <si>
+    <t>IP-weighted</t>
+  </si>
+  <si>
+    <t>Poststratification-weighted</t>
+  </si>
+  <si>
+    <t>Weighting</t>
+  </si>
+  <si>
+    <t>-0.438
+(-0.466, -0.410)</t>
+  </si>
+  <si>
+    <t>-0.286
+(-0.317, -0.254)</t>
+  </si>
+  <si>
+    <t>-0.377
+(-0.390, -0.364)</t>
+  </si>
+  <si>
+    <t>-0.365
+(-0.378, -0.351)</t>
+  </si>
+  <si>
+    <t>-0.181
+(-0.212, -0.151)</t>
+  </si>
+  <si>
+    <t>-0.316
+(-0.350, -0.282)</t>
+  </si>
+  <si>
+    <t>-0.102
+(-0.132, -0.073)</t>
+  </si>
+  <si>
+    <t>-0.130
+(-0.162, -0.097)</t>
+  </si>
+  <si>
+    <t>-0.226
+ (-0.240, -0.213)</t>
+  </si>
+  <si>
+    <t>-0.253
+(-0.267, -0.239)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>Table X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>. Female log odds ratio estimate (95% confidence interval) for hypertension.</t>
+    </r>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
 </sst>
 </file>
 
@@ -2152,7 +2343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2189,6 +2380,12 @@
       <color theme="1"/>
       <name val="ArialMT"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2210,7 +2407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2236,11 +2433,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2379,6 +2607,33 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2397,14 +2652,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2742,20 +3010,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" ht="19">
       <c r="A2" s="20"/>
@@ -5159,132 +5427,132 @@
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="55"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
     </row>
     <row r="70" spans="1:12" ht="16" customHeight="1">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="56"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
     </row>
     <row r="71" spans="1:12" ht="35" customHeight="1">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="62" t="s">
         <v>385</v>
       </c>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="53"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="62"/>
     </row>
     <row r="72" spans="1:12" ht="33" customHeight="1">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="53"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="62" t="s">
         <v>386</v>
       </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="56"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
     </row>
     <row r="74" spans="1:12" ht="16" customHeight="1">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="62" t="s">
         <v>387</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
     </row>
     <row r="75" spans="1:12" ht="22" customHeight="1">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="62" t="s">
         <v>388</v>
       </c>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="56"/>
-      <c r="L75" s="56"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="52" t="s">
+      <c r="A76" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="52"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5304,6 +5572,1819 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A93AC7-3FA7-1D42-AD6E-1B11AA38B449}">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8">
+        <v>81254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>56.342205922170002</v>
+      </c>
+      <c r="F3">
+        <v>16.9886348318724</v>
+      </c>
+      <c r="G3">
+        <v>58.5</v>
+      </c>
+      <c r="H3">
+        <v>81254</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>468</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>7071</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>8640</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>10930</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>16127</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>18803</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>14110</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <v>5104</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13">
+        <v>37549</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14">
+        <v>43705</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15">
+        <v>5059</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <v>3110</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17">
+        <v>69254</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18">
+        <v>2180</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19">
+        <v>395</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22">
+        <v>1245</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>29.940264835648001</v>
+      </c>
+      <c r="F23">
+        <v>7.2611462150975496</v>
+      </c>
+      <c r="G23">
+        <v>28.734390999999999</v>
+      </c>
+      <c r="H23">
+        <v>81149</v>
+      </c>
+      <c r="I23">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24">
+        <v>865</v>
+      </c>
+      <c r="I24">
+        <v>114</v>
+      </c>
+      <c r="J24">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25">
+        <v>20029</v>
+      </c>
+      <c r="I25">
+        <v>114</v>
+      </c>
+      <c r="J25">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26">
+        <v>25958</v>
+      </c>
+      <c r="I26">
+        <v>114</v>
+      </c>
+      <c r="J26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27">
+        <v>34288</v>
+      </c>
+      <c r="I27">
+        <v>114</v>
+      </c>
+      <c r="J27">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28">
+        <v>41731</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>39523</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30">
+        <v>54250</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31">
+        <v>27004</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32">
+        <v>67847</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33">
+        <v>13407</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34">
+        <v>51781</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35">
+        <v>29473</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36">
+        <v>53681</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37">
+        <v>27573</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38">
+        <v>43245</v>
+      </c>
+      <c r="I38">
+        <v>292</v>
+      </c>
+      <c r="J38">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39">
+        <v>29816</v>
+      </c>
+      <c r="I39">
+        <v>292</v>
+      </c>
+      <c r="J39">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40">
+        <v>7901</v>
+      </c>
+      <c r="I40">
+        <v>292</v>
+      </c>
+      <c r="J40">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>292</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="8">
+        <v>81376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="8">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="10">
+        <v>13790.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="8">
+        <v>79826</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="8">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="10">
+        <v>3611.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="8">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62">
+        <v>43.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9203DA1-1AC8-3E4C-8BC1-76067F9CC363}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>49.7530997111311</v>
+      </c>
+      <c r="B2">
+        <v>0.13533247726209999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1.15172820913324E-2</v>
+      </c>
+      <c r="B4">
+        <v>9.0177482492433895E-4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="9">
+        <v>45218</v>
+      </c>
+      <c r="E4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>0.165015812270222</v>
+      </c>
+      <c r="B5">
+        <v>3.0821236330200899E-3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0.14840419979964001</v>
+      </c>
+      <c r="B6">
+        <v>2.8287166100827302E-3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>0.164215274836464</v>
+      </c>
+      <c r="B7">
+        <v>3.05741913951699E-3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>0.17055068266779</v>
+      </c>
+      <c r="B8">
+        <v>2.9435322447496802E-3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>0.21432863207953001</v>
+      </c>
+      <c r="B9">
+        <v>3.3305086813538E-3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9.8668699998880394E-2</v>
+      </c>
+      <c r="B10">
+        <v>2.0870629380146401E-3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2.7299416256141799E-2</v>
+      </c>
+      <c r="B11">
+        <v>1.1362747735802899E-3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>0.55265535709368696</v>
+      </c>
+      <c r="B12">
+        <v>3.9691073288436601E-3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>0.44734464290631298</v>
+      </c>
+      <c r="B13">
+        <v>3.9691073288436601E-3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>0.25217104290178599</v>
+      </c>
+      <c r="B14">
+        <v>3.98420279200407E-3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0.16826175288298301</v>
+      </c>
+      <c r="B15">
+        <v>3.4448944011062099E-3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>0.37021541480471398</v>
+      </c>
+      <c r="B16">
+        <v>3.1486378426906201E-3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>0.12668855095701301</v>
+      </c>
+      <c r="B17">
+        <v>3.1648121874399298E-3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1.81895630611374E-2</v>
+      </c>
+      <c r="B18">
+        <v>1.3022424463051401E-3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>2.16630288583876E-4</v>
+      </c>
+      <c r="B19">
+        <v>1.09166741182778E-4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="49">
+        <v>9.9592539837772294E-5</v>
+      </c>
+      <c r="B20" s="49">
+        <v>6.3522805709920202E-5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>6.4157452563944395E-2</v>
+      </c>
+      <c r="B21">
+        <v>2.4171573577788799E-3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>29.652221709410199</v>
+      </c>
+      <c r="B22">
+        <v>5.5713435069734099E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1.4015319637978601E-2</v>
+      </c>
+      <c r="B23">
+        <v>1.0274951145982699E-3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>0.252498945743099</v>
+      </c>
+      <c r="B24">
+        <v>3.4693674687135499E-3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>0.32511008136067499</v>
+      </c>
+      <c r="B25">
+        <v>3.7497862649963098E-3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>0.40837565325824798</v>
+      </c>
+      <c r="B26">
+        <v>3.9151435744624501E-3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>0.11167176248965099</v>
+      </c>
+      <c r="B27">
+        <v>1.2247374152987199E-3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>0.17325687736567399</v>
+      </c>
+      <c r="B28">
+        <v>2.5828083529865898E-3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4.8399367805266498E-2</v>
+      </c>
+      <c r="B29">
+        <v>1.13295583356482E-3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>0.30850022965628698</v>
+      </c>
+      <c r="B30">
+        <v>3.59349727614461E-3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>0.29052689068144899</v>
+      </c>
+      <c r="B31">
+        <v>3.5316904432183098E-3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>0.591665163143549</v>
+      </c>
+      <c r="B32">
+        <v>3.9192857974615801E-3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>0.24828733505716499</v>
+      </c>
+      <c r="B33">
+        <v>3.29799567035789E-3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>0.16004750179928601</v>
+      </c>
+      <c r="B34">
+        <v>3.1133749795849899E-3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95547E7-F8FA-FC43-BD91-CA28F9A589EB}">
   <dimension ref="A1:E35"/>
   <sheetViews>
@@ -5913,7 +7994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C873B9-ED57-D54A-96A0-0EC3F5B920F4}">
   <dimension ref="A1:J64"/>
   <sheetViews>
@@ -7148,7 +9229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287124B1-8495-484A-8619-D2732F71190F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -7707,7 +9788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63E1CF2-8B7A-F54D-B99D-95894D646652}">
   <dimension ref="A1:J63"/>
   <sheetViews>
@@ -8930,7 +11011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7746A4A6-5223-1746-A992-AC1E4EA5E5A7}">
   <dimension ref="A1:E35"/>
   <sheetViews>
@@ -9546,7 +11627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC2916C-05B8-5D43-82BC-C0CBBAD59C34}">
   <dimension ref="A1:E35"/>
   <sheetViews>
@@ -10717,11 +12798,11 @@
       <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="17">
       <c r="A3" s="39" t="s">
@@ -10836,26 +12917,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859041D3-91F0-7942-B418-58B0D9CA4FFB}">
   <dimension ref="A2:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="60"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="20" t="s">
         <v>583</v>
       </c>
     </row>
@@ -10871,811 +12951,811 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="4">
         <v>145</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="61">
+      <c r="B5" s="4">
         <v>145.1</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="61">
+      <c r="B6" s="4">
         <v>145.19999999999999</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="61">
+      <c r="B7" s="4">
         <v>145.30000000000001</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="61">
+      <c r="B8" s="4">
         <v>145.4</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="61">
+      <c r="B9" s="4">
         <v>145.5</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="61">
+      <c r="B10" s="4">
         <v>149</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="61">
+      <c r="B11" s="4">
         <v>149.1</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="61">
+      <c r="B12" s="4">
         <v>149.19999999999999</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="61">
+      <c r="B13" s="4">
         <v>149.30000000000001</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="61">
+      <c r="B14" s="4">
         <v>149.4</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="61">
+      <c r="B15" s="4">
         <v>149.5</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="61">
+      <c r="B16" s="4">
         <v>149.9</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="61">
+      <c r="B17" s="4">
         <v>150</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="61">
+      <c r="B18" s="4">
         <v>151</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="61">
+      <c r="B19" s="4">
         <v>153</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="61">
+      <c r="B20" s="4">
         <v>153.19999999999999</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="61">
+      <c r="B21" s="4">
         <v>153.30000000000001</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="61">
+      <c r="B22" s="4">
         <v>155</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="61">
+      <c r="B23" s="4">
         <v>155.1</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="61">
-        <v>157</v>
-      </c>
-      <c r="C24" s="60" t="s">
+      <c r="B24" s="4">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="61">
+      <c r="B25" s="4">
         <v>158</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="61">
+      <c r="B26" s="4">
         <v>159</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="61">
+      <c r="B27" s="4">
         <v>159.19999999999999</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="61">
+      <c r="B28" s="4">
         <v>159.30000000000001</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="61">
+      <c r="B29" s="4">
         <v>159.4</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="61">
+      <c r="B30" s="4">
         <v>164</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="61">
+      <c r="B31" s="4">
         <v>165</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="61">
+      <c r="B32" s="4">
         <v>165.1</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="61">
+      <c r="B33" s="4">
         <v>170</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="61">
+      <c r="B34" s="4">
         <v>170.1</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="61">
+      <c r="B35" s="4">
         <v>170.2</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="61">
+      <c r="B36" s="4">
         <v>172.1</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="61">
+      <c r="B37" s="4">
         <v>172.11</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="61">
+      <c r="B38" s="4">
         <v>174</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="61">
+      <c r="B39" s="4">
         <v>174.1</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="61">
+      <c r="B40" s="4">
         <v>174.11</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="61">
+      <c r="B41" s="4">
         <v>174.2</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="61">
+      <c r="B42" s="4">
         <v>174.3</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="61">
+      <c r="B43" s="4">
         <v>175</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="61">
+      <c r="B44" s="4">
         <v>180</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="61">
+      <c r="B45" s="4">
         <v>180.1</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="61">
+      <c r="B46" s="4">
         <v>182</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="61">
+      <c r="B47" s="4">
         <v>184</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="61">
+      <c r="B48" s="4">
         <v>184.1</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="61">
+      <c r="B49" s="4">
         <v>184.11</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="61">
+      <c r="B50" s="4">
         <v>184.2</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="61">
+      <c r="B51" s="4">
         <v>185</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="61">
+      <c r="B52" s="4">
         <v>187</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="61">
+      <c r="B53" s="4">
         <v>187.1</v>
       </c>
-      <c r="C53" s="60" t="s">
+      <c r="C53" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="61">
+      <c r="B54" s="4">
         <v>187.2</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="61">
+      <c r="B55" s="4">
         <v>187.8</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="61">
+      <c r="B56" s="4">
         <v>189</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C56" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="61">
+      <c r="B57" s="4">
         <v>189.1</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="61">
+      <c r="B58" s="4">
         <v>189.11</v>
       </c>
-      <c r="C58" s="60" t="s">
+      <c r="C58" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="61">
+      <c r="B59" s="4">
         <v>189.12</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="61">
+      <c r="B60" s="4">
         <v>189.2</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="61">
+      <c r="B61" s="4">
         <v>189.21</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="61">
+      <c r="B62" s="4">
         <v>189.4</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="61">
+      <c r="B63" s="4">
         <v>190</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="61">
+      <c r="B64" s="4">
         <v>191</v>
       </c>
-      <c r="C64" s="60" t="s">
+      <c r="C64" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="61">
+      <c r="B65" s="4">
         <v>191.1</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="61">
+      <c r="B66" s="4">
         <v>191.11</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="61">
+      <c r="B67" s="4">
         <v>193</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="61">
+      <c r="B68" s="4">
         <v>194</v>
       </c>
-      <c r="C68" s="60" t="s">
+      <c r="C68" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="61">
+      <c r="B69" s="4">
         <v>195</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="61">
+      <c r="B70" s="4">
         <v>195.1</v>
       </c>
-      <c r="C70" s="60" t="s">
+      <c r="C70" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="61">
+      <c r="B71" s="4">
         <v>195.3</v>
       </c>
-      <c r="C71" s="60" t="s">
+      <c r="C71" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="61">
+      <c r="B72" s="4">
         <v>196</v>
       </c>
-      <c r="C72" s="60" t="s">
+      <c r="C72" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="61">
+      <c r="B73" s="4">
         <v>197</v>
       </c>
-      <c r="C73" s="60" t="s">
+      <c r="C73" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="61">
+      <c r="B74" s="4">
         <v>198</v>
       </c>
-      <c r="C74" s="60" t="s">
+      <c r="C74" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="61">
+      <c r="B75" s="4">
         <v>198.1</v>
       </c>
-      <c r="C75" s="60" t="s">
+      <c r="C75" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="61">
+      <c r="B76" s="4">
         <v>198.2</v>
       </c>
-      <c r="C76" s="60" t="s">
+      <c r="C76" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="61">
+      <c r="B77" s="4">
         <v>198.3</v>
       </c>
-      <c r="C77" s="60" t="s">
+      <c r="C77" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="61">
+      <c r="B78" s="4">
         <v>198.4</v>
       </c>
-      <c r="C78" s="60" t="s">
+      <c r="C78" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="61">
+      <c r="B79" s="4">
         <v>198.5</v>
       </c>
-      <c r="C79" s="60" t="s">
+      <c r="C79" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="61">
+      <c r="B80" s="4">
         <v>198.6</v>
       </c>
-      <c r="C80" s="60" t="s">
+      <c r="C80" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="61">
+      <c r="B81" s="4">
         <v>198.7</v>
       </c>
-      <c r="C81" s="60" t="s">
+      <c r="C81" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="61">
+      <c r="B82" s="4">
         <v>199</v>
       </c>
-      <c r="C82" s="60" t="s">
+      <c r="C82" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="61">
+      <c r="B83" s="4">
         <v>199.4</v>
       </c>
-      <c r="C83" s="60" t="s">
+      <c r="C83" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="61">
+      <c r="B84" s="4">
         <v>200</v>
       </c>
-      <c r="C84" s="60" t="s">
+      <c r="C84" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="61">
+      <c r="B85" s="4">
         <v>200.1</v>
       </c>
-      <c r="C85" s="60" t="s">
+      <c r="C85" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="61">
+      <c r="B86" s="4">
         <v>201</v>
       </c>
-      <c r="C86" s="60" t="s">
+      <c r="C86" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="61">
+      <c r="B87" s="4">
         <v>202</v>
       </c>
-      <c r="C87" s="60" t="s">
+      <c r="C87" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="61">
+      <c r="B88" s="4">
         <v>202.2</v>
       </c>
-      <c r="C88" s="60" t="s">
+      <c r="C88" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="61">
+      <c r="B89" s="4">
         <v>202.21</v>
       </c>
-      <c r="C89" s="60" t="s">
+      <c r="C89" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="61">
+      <c r="B90" s="4">
         <v>202.22</v>
       </c>
-      <c r="C90" s="60" t="s">
+      <c r="C90" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="61">
+      <c r="B91" s="4">
         <v>202.23</v>
       </c>
-      <c r="C91" s="60" t="s">
+      <c r="C91" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="61">
+      <c r="B92" s="4">
         <v>202.24</v>
       </c>
-      <c r="C92" s="60" t="s">
+      <c r="C92" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="61">
+      <c r="B93" s="4">
         <v>204</v>
       </c>
-      <c r="C93" s="60" t="s">
+      <c r="C93" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="61">
+      <c r="B94" s="4">
         <v>204.1</v>
       </c>
-      <c r="C94" s="60" t="s">
+      <c r="C94" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="61">
+      <c r="B95" s="4">
         <v>204.11</v>
       </c>
-      <c r="C95" s="60" t="s">
+      <c r="C95" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="61">
+      <c r="B96" s="4">
         <v>204.12</v>
       </c>
-      <c r="C96" s="60" t="s">
+      <c r="C96" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="B97" s="61">
+      <c r="B97" s="4">
         <v>204.2</v>
       </c>
-      <c r="C97" s="60" t="s">
+      <c r="C97" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="B98" s="61">
+      <c r="B98" s="4">
         <v>204.21</v>
       </c>
-      <c r="C98" s="60" t="s">
+      <c r="C98" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="B99" s="61">
+      <c r="B99" s="4">
         <v>204.22</v>
       </c>
-      <c r="C99" s="60" t="s">
+      <c r="C99" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="B100" s="61">
+      <c r="B100" s="4">
         <v>204.3</v>
       </c>
-      <c r="C100" s="60" t="s">
+      <c r="C100" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="B101" s="61">
+      <c r="B101" s="4">
         <v>204.4</v>
       </c>
-      <c r="C101" s="60" t="s">
+      <c r="C101" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="B102" s="61">
+      <c r="B102" s="4">
         <v>209</v>
       </c>
-      <c r="C102" s="60" t="s">
+      <c r="C102" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="B103" s="61">
+      <c r="B103" s="4">
         <v>860</v>
       </c>
-      <c r="C103" s="60" t="s">
+      <c r="C103" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="23" t="s">
-        <v>119</v>
+        <v>588</v>
       </c>
       <c r="B104" s="24">
         <v>411.4</v>
@@ -11685,13 +13765,13 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="60" t="s">
+      <c r="A105" t="s">
         <v>240</v>
       </c>
-      <c r="B105" s="61">
+      <c r="B105" s="4">
         <v>296.2</v>
       </c>
-      <c r="C105" s="60" t="s">
+      <c r="C105" t="s">
         <v>587</v>
       </c>
     </row>
@@ -11713,6 +13793,361 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B973F110-CC92-1541-BBF9-10B3EBC026A6}">
+  <dimension ref="A2:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>591</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>608</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>601</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>609</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>610</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>593</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>611</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>612</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>613</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A59B532-E72C-734B-80EA-BC908E2577A7}">
+  <dimension ref="A2:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="71" t="s">
+        <v>635</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34">
+      <c r="A4" s="68" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>620</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="58" t="s">
+        <v>625</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="F4" s="73"/>
+    </row>
+    <row r="5" spans="1:6" ht="34">
+      <c r="A5" s="68"/>
+      <c r="B5" s="55" t="s">
+        <v>589</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="58" t="s">
+        <v>626</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>628</v>
+      </c>
+      <c r="F5" s="73"/>
+    </row>
+    <row r="6" spans="1:6" ht="34">
+      <c r="A6" s="69" t="s">
+        <v>622</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>620</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>633</v>
+      </c>
+      <c r="F6" s="74"/>
+    </row>
+    <row r="7" spans="1:6" ht="34">
+      <c r="A7" s="69"/>
+      <c r="B7" s="54" t="s">
+        <v>589</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="60" t="s">
+        <v>632</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>634</v>
+      </c>
+      <c r="F7" s="74"/>
+    </row>
+    <row r="8" spans="1:6" ht="34">
+      <c r="A8" s="68" t="s">
+        <v>623</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>620</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="58" t="s">
+        <v>629</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="73"/>
+    </row>
+    <row r="9" spans="1:6" ht="34">
+      <c r="A9" s="70"/>
+      <c r="B9" s="56" t="s">
+        <v>589</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="59" t="s">
+        <v>630</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="75"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A77B419-D923-A146-8FAB-CF6618E54F68}">
   <dimension ref="A1:D74"/>
   <sheetViews>
@@ -12590,7 +15025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAAA6E5-6456-1F41-A75B-6D22A70A30D2}">
   <dimension ref="A1:J71"/>
   <sheetViews>
@@ -13968,7 +16403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD575C29-578C-A14A-A734-07B45BD9415B}">
   <dimension ref="A1:J66"/>
   <sheetViews>
@@ -15247,1817 +17682,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A93AC7-3FA7-1D42-AD6E-1B11AA38B449}">
-  <dimension ref="A1:J62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="8">
-        <v>81254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3">
-        <v>56.342205922170002</v>
-      </c>
-      <c r="F3">
-        <v>16.9886348318724</v>
-      </c>
-      <c r="G3">
-        <v>58.5</v>
-      </c>
-      <c r="H3">
-        <v>81254</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>391</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="9">
-        <v>45218</v>
-      </c>
-      <c r="C5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5">
-        <v>468</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6">
-        <v>7071</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>394</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7">
-        <v>8640</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8">
-        <v>10930</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>396</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9">
-        <v>16127</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>397</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10">
-        <v>18803</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11">
-        <v>14110</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>399</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12">
-        <v>5104</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13">
-        <v>37549</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14">
-        <v>43705</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>53.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15">
-        <v>5059</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16">
-        <v>3110</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17">
-        <v>69254</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>85.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18">
-        <v>2180</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19">
-        <v>395</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22">
-        <v>1245</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23">
-        <v>29.940264835648001</v>
-      </c>
-      <c r="F23">
-        <v>7.2611462150975496</v>
-      </c>
-      <c r="G23">
-        <v>28.734390999999999</v>
-      </c>
-      <c r="H23">
-        <v>81149</v>
-      </c>
-      <c r="I23">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24">
-        <v>865</v>
-      </c>
-      <c r="I24">
-        <v>114</v>
-      </c>
-      <c r="J24">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25">
-        <v>20029</v>
-      </c>
-      <c r="I25">
-        <v>114</v>
-      </c>
-      <c r="J25">
-        <v>24.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26">
-        <v>25958</v>
-      </c>
-      <c r="I26">
-        <v>114</v>
-      </c>
-      <c r="J26">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27">
-        <v>34288</v>
-      </c>
-      <c r="I27">
-        <v>114</v>
-      </c>
-      <c r="J27">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28">
-        <v>41731</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>51.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29">
-        <v>39523</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30">
-        <v>54250</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>66.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31">
-        <v>27004</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32">
-        <v>67847</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33">
-        <v>13407</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34">
-        <v>51781</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>63.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35">
-        <v>29473</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36">
-        <v>53681</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>66.099999999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37">
-        <v>27573</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38">
-        <v>43245</v>
-      </c>
-      <c r="I38">
-        <v>292</v>
-      </c>
-      <c r="J38">
-        <v>53.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39">
-        <v>29816</v>
-      </c>
-      <c r="I39">
-        <v>292</v>
-      </c>
-      <c r="J39">
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40">
-        <v>7901</v>
-      </c>
-      <c r="I40">
-        <v>292</v>
-      </c>
-      <c r="J40">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>292</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="8">
-        <v>81376</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45">
-        <v>104.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="8">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="10">
-        <v>13790.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="8">
-        <v>79826</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53">
-        <v>74.400000000000006</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="8">
-        <v>2969</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="10">
-        <v>3611.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="8">
-        <v>15900</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>106</v>
-      </c>
-      <c r="B60" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>106</v>
-      </c>
-      <c r="B62" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62">
-        <v>43.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9203DA1-1AC8-3E4C-8BC1-76067F9CC363}">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>49.7530997111311</v>
-      </c>
-      <c r="B2">
-        <v>0.13533247726209999</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1.15172820913324E-2</v>
-      </c>
-      <c r="B4">
-        <v>9.0177482492433895E-4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="9">
-        <v>45218</v>
-      </c>
-      <c r="E4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>0.165015812270222</v>
-      </c>
-      <c r="B5">
-        <v>3.0821236330200899E-3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>0.14840419979964001</v>
-      </c>
-      <c r="B6">
-        <v>2.8287166100827302E-3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>0.164215274836464</v>
-      </c>
-      <c r="B7">
-        <v>3.05741913951699E-3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>0.17055068266779</v>
-      </c>
-      <c r="B8">
-        <v>2.9435322447496802E-3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>0.21432863207953001</v>
-      </c>
-      <c r="B9">
-        <v>3.3305086813538E-3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9.8668699998880394E-2</v>
-      </c>
-      <c r="B10">
-        <v>2.0870629380146401E-3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>2.7299416256141799E-2</v>
-      </c>
-      <c r="B11">
-        <v>1.1362747735802899E-3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>0.55265535709368696</v>
-      </c>
-      <c r="B12">
-        <v>3.9691073288436601E-3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>0.44734464290631298</v>
-      </c>
-      <c r="B13">
-        <v>3.9691073288436601E-3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>0.25217104290178599</v>
-      </c>
-      <c r="B14">
-        <v>3.98420279200407E-3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>0.16826175288298301</v>
-      </c>
-      <c r="B15">
-        <v>3.4448944011062099E-3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>0.37021541480471398</v>
-      </c>
-      <c r="B16">
-        <v>3.1486378426906201E-3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>0.12668855095701301</v>
-      </c>
-      <c r="B17">
-        <v>3.1648121874399298E-3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>1.81895630611374E-2</v>
-      </c>
-      <c r="B18">
-        <v>1.3022424463051401E-3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>2.16630288583876E-4</v>
-      </c>
-      <c r="B19">
-        <v>1.09166741182778E-4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="49">
-        <v>9.9592539837772294E-5</v>
-      </c>
-      <c r="B20" s="49">
-        <v>6.3522805709920202E-5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>6.4157452563944395E-2</v>
-      </c>
-      <c r="B21">
-        <v>2.4171573577788799E-3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>29.652221709410199</v>
-      </c>
-      <c r="B22">
-        <v>5.5713435069734099E-2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>1.4015319637978601E-2</v>
-      </c>
-      <c r="B23">
-        <v>1.0274951145982699E-3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>0.252498945743099</v>
-      </c>
-      <c r="B24">
-        <v>3.4693674687135499E-3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>0.32511008136067499</v>
-      </c>
-      <c r="B25">
-        <v>3.7497862649963098E-3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>0.40837565325824798</v>
-      </c>
-      <c r="B26">
-        <v>3.9151435744624501E-3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>0.11167176248965099</v>
-      </c>
-      <c r="B27">
-        <v>1.2247374152987199E-3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>0.17325687736567399</v>
-      </c>
-      <c r="B28">
-        <v>2.5828083529865898E-3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>4.8399367805266498E-2</v>
-      </c>
-      <c r="B29">
-        <v>1.13295583356482E-3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>0.30850022965628698</v>
-      </c>
-      <c r="B30">
-        <v>3.59349727614461E-3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>0.29052689068144899</v>
-      </c>
-      <c r="B31">
-        <v>3.5316904432183098E-3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>0.591665163143549</v>
-      </c>
-      <c r="B32">
-        <v>3.9192857974615801E-3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>0.24828733505716499</v>
-      </c>
-      <c r="B33">
-        <v>3.29799567035789E-3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>0.16004750179928601</v>
-      </c>
-      <c r="B34">
-        <v>3.1133749795849899E-3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" t="s">
-        <v>279</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>